--- a/Daily/Forecast/Stationaritiy/Percentage Return/toyota.xlsx
+++ b/Daily/Forecast/Stationaritiy/Percentage Return/toyota.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F126"/>
+  <dimension ref="A1:F136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -411,2501 +411,2701 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>2584</v>
+        <v>2574</v>
       </c>
       <c r="B2">
-        <v>2583</v>
+        <v>2573</v>
       </c>
       <c r="C2">
-        <v>-0.0003160635176729064</v>
+        <v>0.0003374667502519438</v>
       </c>
       <c r="D2">
-        <v>-3.120485955945912</v>
+        <v>-3.109669054958862</v>
       </c>
       <c r="E2">
-        <v>3.119853828910566</v>
+        <v>3.110343988459366</v>
       </c>
       <c r="F2">
-        <v>-2.757889826064108</v>
+        <v>0.9410668757245944</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>2585</v>
+        <v>2575</v>
       </c>
       <c r="B3">
-        <v>2584</v>
+        <v>2574</v>
       </c>
       <c r="C3">
-        <v>-0.01904936574368427</v>
+        <v>0.0005503530631765809</v>
       </c>
       <c r="D3">
-        <v>-3.140426570926785</v>
+        <v>-3.109064001725347</v>
       </c>
       <c r="E3">
-        <v>3.102327839439416</v>
+        <v>3.1101647078517</v>
       </c>
       <c r="F3">
-        <v>-0.4002673789657685</v>
+        <v>1.054318948595157</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>2586</v>
+        <v>2576</v>
       </c>
       <c r="B4">
-        <v>2585</v>
+        <v>2575</v>
       </c>
       <c r="C4">
-        <v>-0.004965963044035092</v>
+        <v>0.0007767591895570488</v>
       </c>
       <c r="D4">
-        <v>-3.125773927297594</v>
+        <v>-3.108500105418525</v>
       </c>
       <c r="E4">
-        <v>3.115842001209524</v>
+        <v>3.110053623797639</v>
       </c>
       <c r="F4">
-        <v>-1.142869582362227</v>
+        <v>-1.375267255203649</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>2587</v>
+        <v>2577</v>
       </c>
       <c r="B5">
-        <v>2586</v>
+        <v>2576</v>
       </c>
       <c r="C5">
-        <v>-0.008752408664834038</v>
+        <v>-0.0007082043860827976</v>
       </c>
       <c r="D5">
-        <v>-3.129265212349744</v>
+        <v>-3.109835568351877</v>
       </c>
       <c r="E5">
-        <v>3.111760395020076</v>
+        <v>3.108419159579712</v>
       </c>
       <c r="F5">
-        <v>0.9867763407233276</v>
+        <v>0.09886308269395627</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>2588</v>
+        <v>2578</v>
       </c>
       <c r="B6">
-        <v>2587</v>
+        <v>2577</v>
       </c>
       <c r="C6">
-        <v>0.005921821224190701</v>
+        <v>4.898052289912738E-05</v>
       </c>
       <c r="D6">
-        <v>-3.114223567228524</v>
+        <v>-3.108477455951889</v>
       </c>
       <c r="E6">
-        <v>3.126067209676905</v>
+        <v>3.108575416997687</v>
       </c>
       <c r="F6">
-        <v>-1.846899343742336</v>
+        <v>1.349548147488466</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>2589</v>
+        <v>2579</v>
       </c>
       <c r="B7">
-        <v>2588</v>
+        <v>2578</v>
       </c>
       <c r="C7">
-        <v>-0.01176853218726848</v>
+        <v>0.0006942747088614404</v>
       </c>
       <c r="D7">
-        <v>-3.13212770656951</v>
+        <v>-3.107665767422881</v>
       </c>
       <c r="E7">
-        <v>3.108590642194973</v>
+        <v>3.109054316840604</v>
       </c>
       <c r="F7">
-        <v>0.9727483105653079</v>
+        <v>0.8494165863301539</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>2590</v>
+        <v>2580</v>
       </c>
       <c r="B8">
-        <v>2589</v>
+        <v>2579</v>
       </c>
       <c r="C8">
-        <v>0.00494639853545692</v>
+        <v>0.0005857393208840767</v>
       </c>
       <c r="D8">
-        <v>-3.115040536654976</v>
+        <v>-3.107344192434</v>
       </c>
       <c r="E8">
-        <v>3.12493333372589</v>
+        <v>3.108515671075768</v>
       </c>
       <c r="F8">
-        <v>0.7178137595702516</v>
+        <v>4.927337268330412</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>2591</v>
+        <v>2581</v>
       </c>
       <c r="B9">
-        <v>2590</v>
+        <v>2580</v>
       </c>
       <c r="C9">
-        <v>0.005295871686577455</v>
+        <v>0.006544148715670351</v>
       </c>
       <c r="D9">
-        <v>-3.114209429487441</v>
+        <v>-3.106592973602949</v>
       </c>
       <c r="E9">
-        <v>3.124801172860595</v>
+        <v>3.11968127103429</v>
       </c>
       <c r="F9">
-        <v>2.77734404271115</v>
+        <v>6.090875308699228</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1">
-        <v>2592</v>
+        <v>2582</v>
       </c>
       <c r="B10">
-        <v>2591</v>
+        <v>2581</v>
       </c>
       <c r="C10">
-        <v>0.01979773379552452</v>
+        <v>0.04331188881067816</v>
       </c>
       <c r="D10">
-        <v>-3.100931329849177</v>
+        <v>-3.078017006678997</v>
       </c>
       <c r="E10">
-        <v>3.140526797440225</v>
+        <v>3.164640784300353</v>
       </c>
       <c r="F10">
-        <v>-0.1958438227965154</v>
+        <v>0.453515516539138</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1">
-        <v>2593</v>
+        <v>2583</v>
       </c>
       <c r="B11">
-        <v>2592</v>
+        <v>2582</v>
       </c>
       <c r="C11">
-        <v>0.0009798525505766396</v>
+        <v>0.008684284920018374</v>
       </c>
       <c r="D11">
-        <v>-3.119158189168665</v>
+        <v>-3.11208003244214</v>
       </c>
       <c r="E11">
-        <v>3.121117894269818</v>
+        <v>3.129448602282177</v>
       </c>
       <c r="F11">
-        <v>0.5647278257767674</v>
+        <v>-0.1941119988345008</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1">
-        <v>2594</v>
+        <v>2584</v>
       </c>
       <c r="B12">
-        <v>2593</v>
+        <v>2583</v>
       </c>
       <c r="C12">
-        <v>0.003966426291837702</v>
+        <v>-0.0003160635176729064</v>
       </c>
       <c r="D12">
-        <v>-3.115645441163885</v>
+        <v>-3.120485955945912</v>
       </c>
       <c r="E12">
-        <v>3.12357829374756</v>
+        <v>3.119853828910566</v>
       </c>
       <c r="F12">
-        <v>0.7337106717107744</v>
+        <v>-2.757889826064108</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1">
-        <v>2595</v>
+        <v>2585</v>
       </c>
       <c r="B13">
-        <v>2594</v>
+        <v>2584</v>
       </c>
       <c r="C13">
-        <v>0.005522804756670538</v>
+        <v>-0.01904936574368427</v>
       </c>
       <c r="D13">
-        <v>-3.113614120353636</v>
+        <v>-3.140426570926785</v>
       </c>
       <c r="E13">
-        <v>3.124659729866977</v>
+        <v>3.102327839439416</v>
       </c>
       <c r="F13">
-        <v>0.536079336786166</v>
+        <v>-0.4002673789657685</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1">
-        <v>2596</v>
+        <v>2586</v>
       </c>
       <c r="B14">
-        <v>2595</v>
+        <v>2585</v>
       </c>
       <c r="C14">
-        <v>0.004390553748861367</v>
+        <v>-0.004965963044035092</v>
       </c>
       <c r="D14">
-        <v>-3.114212140195309</v>
+        <v>-3.125773927297594</v>
       </c>
       <c r="E14">
-        <v>3.122993247693032</v>
+        <v>3.115842001209524</v>
       </c>
       <c r="F14">
-        <v>0.1282325458896949</v>
+        <v>-1.142869582362227</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1">
-        <v>2597</v>
+        <v>2587</v>
       </c>
       <c r="B15">
-        <v>2596</v>
+        <v>2586</v>
       </c>
       <c r="C15">
-        <v>0.001423100342422512</v>
+        <v>-0.008752408664834038</v>
       </c>
       <c r="D15">
-        <v>-3.116582523829012</v>
+        <v>-3.129265212349744</v>
       </c>
       <c r="E15">
-        <v>3.119428724513857</v>
+        <v>3.111760395020076</v>
       </c>
       <c r="F15">
-        <v>-0.5998304188618242</v>
+        <v>0.9867763407233276</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1">
-        <v>2598</v>
+        <v>2588</v>
       </c>
       <c r="B16">
-        <v>2597</v>
+        <v>2587</v>
       </c>
       <c r="C16">
-        <v>-0.003983431910163329</v>
+        <v>0.005921821224190701</v>
       </c>
       <c r="D16">
-        <v>-3.121474439017518</v>
+        <v>-3.114223567228524</v>
       </c>
       <c r="E16">
-        <v>3.113507575197191</v>
+        <v>3.126067209676905</v>
       </c>
       <c r="F16">
-        <v>-1.188817632231398</v>
+        <v>-1.846899343742336</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1">
-        <v>2599</v>
+        <v>2589</v>
       </c>
       <c r="B17">
-        <v>2598</v>
+        <v>2588</v>
       </c>
       <c r="C17">
-        <v>-0.008842567493430431</v>
+        <v>-0.01176853218726848</v>
       </c>
       <c r="D17">
-        <v>-3.126066478027568</v>
+        <v>-3.13212770656951</v>
       </c>
       <c r="E17">
-        <v>3.108381343040707</v>
+        <v>3.108590642194973</v>
       </c>
       <c r="F17">
-        <v>-1.73268947136469</v>
+        <v>0.9727483105653079</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1">
-        <v>2600</v>
+        <v>2590</v>
       </c>
       <c r="B18">
-        <v>2599</v>
+        <v>2589</v>
       </c>
       <c r="C18">
-        <v>-0.01384139055704908</v>
+        <v>0.00494639853545692</v>
       </c>
       <c r="D18">
-        <v>-3.131169992375977</v>
+        <v>-3.115040536654976</v>
       </c>
       <c r="E18">
-        <v>3.103487211261879</v>
+        <v>3.12493333372589</v>
       </c>
       <c r="F18">
-        <v>-2.191991140888483</v>
+        <v>0.7178137595702516</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1">
-        <v>2601</v>
+        <v>2591</v>
       </c>
       <c r="B19">
-        <v>2600</v>
+        <v>2590</v>
       </c>
       <c r="C19">
-        <v>-0.01930603190223656</v>
+        <v>0.005295871686577455</v>
       </c>
       <c r="D19">
-        <v>-3.137158950917028</v>
+        <v>-3.114209429487441</v>
       </c>
       <c r="E19">
-        <v>3.098546887112555</v>
+        <v>3.124801172860595</v>
       </c>
       <c r="F19">
-        <v>-0.5897045893879849</v>
+        <v>2.77734404271115</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1">
-        <v>2602</v>
+        <v>2592</v>
       </c>
       <c r="B20">
-        <v>2601</v>
+        <v>2591</v>
       </c>
       <c r="C20">
-        <v>-0.00726517616283337</v>
+        <v>0.01979773379552452</v>
       </c>
       <c r="D20">
-        <v>-3.12459573904395</v>
+        <v>-3.100931329849177</v>
       </c>
       <c r="E20">
-        <v>3.110065386718283</v>
+        <v>3.140526797440225</v>
       </c>
       <c r="F20">
-        <v>0.6123162344814581</v>
+        <v>-0.1958438227965154</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1">
-        <v>2603</v>
+        <v>2593</v>
       </c>
       <c r="B21">
-        <v>2602</v>
+        <v>2592</v>
       </c>
       <c r="C21">
-        <v>0.004083519486913281</v>
+        <v>0.0009798525505766396</v>
       </c>
       <c r="D21">
-        <v>-3.112738795280418</v>
+        <v>-3.119158189168665</v>
       </c>
       <c r="E21">
-        <v>3.120905834254244</v>
+        <v>3.121117894269818</v>
       </c>
       <c r="F21">
-        <v>0.293487060193165</v>
+        <v>0.5647278257767674</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1">
-        <v>2604</v>
+        <v>2594</v>
       </c>
       <c r="B22">
-        <v>2603</v>
+        <v>2593</v>
       </c>
       <c r="C22">
-        <v>0.002874957560432954</v>
+        <v>0.003966426291837702</v>
       </c>
       <c r="D22">
-        <v>-3.113368418781396</v>
+        <v>-3.115645441163885</v>
       </c>
       <c r="E22">
-        <v>3.119118333902262</v>
+        <v>3.12357829374756</v>
       </c>
       <c r="F22">
-        <v>0.9869976938772673</v>
+        <v>0.7337106717107744</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1">
-        <v>2605</v>
+        <v>2595</v>
       </c>
       <c r="B23">
-        <v>2604</v>
+        <v>2594</v>
       </c>
       <c r="C23">
-        <v>0.00840364083287759</v>
+        <v>0.005522804756670538</v>
       </c>
       <c r="D23">
-        <v>-3.107470613995574</v>
+        <v>-3.113614120353636</v>
       </c>
       <c r="E23">
-        <v>3.124277895661329</v>
+        <v>3.124659729866977</v>
       </c>
       <c r="F23">
-        <v>2.251253760440974</v>
+        <v>0.536079336786166</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1">
-        <v>2606</v>
+        <v>2596</v>
       </c>
       <c r="B24">
-        <v>2605</v>
+        <v>2595</v>
       </c>
       <c r="C24">
-        <v>0.02023849780464498</v>
+        <v>0.004390553748861367</v>
       </c>
       <c r="D24">
-        <v>-3.096227889718754</v>
+        <v>-3.114212140195309</v>
       </c>
       <c r="E24">
-        <v>3.136704885328044</v>
+        <v>3.122993247693032</v>
       </c>
       <c r="F24">
-        <v>-0.1747488430714483</v>
+        <v>0.1282325458896949</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1">
-        <v>2607</v>
+        <v>2597</v>
       </c>
       <c r="B25">
-        <v>2606</v>
+        <v>2596</v>
       </c>
       <c r="C25">
-        <v>0.0009593251180105393</v>
+        <v>0.001423100342422512</v>
       </c>
       <c r="D25">
-        <v>-3.114918037074689</v>
+        <v>-3.116582523829012</v>
       </c>
       <c r="E25">
-        <v>3.11683668731071</v>
+        <v>3.119428724513857</v>
       </c>
       <c r="F25">
-        <v>0.0218603126895367</v>
+        <v>-0.5998304188618242</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1">
-        <v>2608</v>
+        <v>2598</v>
       </c>
       <c r="B26">
-        <v>2607</v>
+        <v>2597</v>
       </c>
       <c r="C26">
-        <v>0.000301081507128141</v>
+        <v>-0.003983431910163329</v>
       </c>
       <c r="D26">
-        <v>-3.114978730270432</v>
+        <v>-3.121474439017518</v>
       </c>
       <c r="E26">
-        <v>3.115580893284688</v>
+        <v>3.113507575197191</v>
       </c>
       <c r="F26">
-        <v>1.583032082212554</v>
+        <v>-1.188817632231398</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1">
-        <v>2609</v>
+        <v>2599</v>
       </c>
       <c r="B27">
-        <v>2608</v>
+        <v>2598</v>
       </c>
       <c r="C27">
-        <v>0.01342082377627887</v>
+        <v>-0.008842567493430431</v>
       </c>
       <c r="D27">
-        <v>-3.101853995116497</v>
+        <v>-3.126066478027568</v>
       </c>
       <c r="E27">
-        <v>3.128695642669054</v>
+        <v>3.108381343040707</v>
       </c>
       <c r="F27">
-        <v>0.8782320557839007</v>
+        <v>-1.73268947136469</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1">
-        <v>2610</v>
+        <v>2600</v>
       </c>
       <c r="B28">
-        <v>2609</v>
+        <v>2599</v>
       </c>
       <c r="C28">
-        <v>0.009281537891322036</v>
+        <v>-0.01384139055704908</v>
       </c>
       <c r="D28">
-        <v>-3.105572912289548</v>
+        <v>-3.131169992375977</v>
       </c>
       <c r="E28">
-        <v>3.124135988072193</v>
+        <v>3.103487211261879</v>
       </c>
       <c r="F28">
-        <v>-0.9643276271804169</v>
+        <v>-2.191991140888483</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1">
-        <v>2611</v>
+        <v>2601</v>
       </c>
       <c r="B29">
-        <v>2610</v>
+        <v>2600</v>
       </c>
       <c r="C29">
-        <v>-0.007101163613415173</v>
+        <v>-0.01930603190223656</v>
       </c>
       <c r="D29">
-        <v>-3.121582727854495</v>
+        <v>-3.137158950917028</v>
       </c>
       <c r="E29">
-        <v>3.107380400627664</v>
+        <v>3.098546887112555</v>
       </c>
       <c r="F29">
-        <v>-0.06462035766059415</v>
+        <v>-0.5897045893879849</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1">
-        <v>2612</v>
+        <v>2602</v>
       </c>
       <c r="B30">
-        <v>2611</v>
+        <v>2601</v>
       </c>
       <c r="C30">
-        <v>-0.001403708769731339</v>
+        <v>-0.00726517616283337</v>
       </c>
       <c r="D30">
-        <v>-3.115289578741825</v>
+        <v>-3.12459573904395</v>
       </c>
       <c r="E30">
-        <v>3.112482161202363</v>
+        <v>3.110065386718283</v>
       </c>
       <c r="F30">
-        <v>-0.453515516539138</v>
+        <v>0.6123162344814581</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1">
-        <v>2613</v>
+        <v>2603</v>
       </c>
       <c r="B31">
-        <v>2612</v>
+        <v>2602</v>
       </c>
       <c r="C31">
-        <v>-0.004031180050627567</v>
+        <v>0.004083519486913281</v>
       </c>
       <c r="D31">
-        <v>-3.117369212780833</v>
+        <v>-3.112738795280418</v>
       </c>
       <c r="E31">
-        <v>3.109306852679577</v>
+        <v>3.120905834254244</v>
       </c>
       <c r="F31">
-        <v>3.237079914202212</v>
+        <v>0.293487060193165</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1">
-        <v>2614</v>
+        <v>2604</v>
       </c>
       <c r="B32">
-        <v>2613</v>
+        <v>2603</v>
       </c>
       <c r="C32">
-        <v>0.0263499780334136</v>
+        <v>0.002874957560432954</v>
       </c>
       <c r="D32">
-        <v>-3.088871936909347</v>
+        <v>-3.113368418781396</v>
       </c>
       <c r="E32">
-        <v>3.141571892976174</v>
+        <v>3.119118333902262</v>
       </c>
       <c r="F32">
-        <v>2.46312773215509</v>
+        <v>0.9869976938772673</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1">
-        <v>2615</v>
+        <v>2605</v>
       </c>
       <c r="B33">
-        <v>2614</v>
+        <v>2604</v>
       </c>
       <c r="C33">
-        <v>0.02678089603148581</v>
+        <v>0.00840364083287759</v>
       </c>
       <c r="D33">
-        <v>-3.089243433325535</v>
+        <v>-3.107470613995574</v>
       </c>
       <c r="E33">
-        <v>3.142805225388507</v>
+        <v>3.124277895661329</v>
       </c>
       <c r="F33">
-        <v>2.304063120996336</v>
+        <v>2.251253760440974</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1">
-        <v>2616</v>
+        <v>2606</v>
       </c>
       <c r="B34">
-        <v>2615</v>
+        <v>2605</v>
       </c>
       <c r="C34">
-        <v>0.02764767539184271</v>
+        <v>0.02023849780464498</v>
       </c>
       <c r="D34">
-        <v>-3.089002001356967</v>
+        <v>-3.096227889718754</v>
       </c>
       <c r="E34">
-        <v>3.144297352140653</v>
+        <v>3.136704885328044</v>
       </c>
       <c r="F34">
-        <v>-3.870136751709463</v>
+        <v>-0.1747488430714483</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1">
-        <v>2617</v>
+        <v>2607</v>
       </c>
       <c r="B35">
-        <v>2616</v>
+        <v>2606</v>
       </c>
       <c r="C35">
-        <v>-0.03189088757354303</v>
+        <v>0.0009593251180105393</v>
       </c>
       <c r="D35">
-        <v>-3.151518158262279</v>
+        <v>-3.114918037074689</v>
       </c>
       <c r="E35">
-        <v>3.087736383115193</v>
+        <v>3.11683668731071</v>
       </c>
       <c r="F35">
-        <v>1.238405919972152</v>
+        <v>0.0218603126895367</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1">
-        <v>2618</v>
+        <v>2608</v>
       </c>
       <c r="B36">
-        <v>2617</v>
+        <v>2607</v>
       </c>
       <c r="C36">
-        <v>0.006746259132168198</v>
+        <v>0.000301081507128141</v>
       </c>
       <c r="D36">
-        <v>-3.112664003147754</v>
+        <v>-3.114978730270432</v>
       </c>
       <c r="E36">
-        <v>3.126156521412091</v>
+        <v>3.115580893284688</v>
       </c>
       <c r="F36">
-        <v>0.2663117419483108</v>
+        <v>1.583032082212554</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1">
-        <v>2619</v>
+        <v>2609</v>
       </c>
       <c r="B37">
-        <v>2618</v>
+        <v>2608</v>
       </c>
       <c r="C37">
-        <v>0.002982301701750928</v>
+        <v>0.01342082377627887</v>
       </c>
       <c r="D37">
-        <v>-3.115847952623648</v>
+        <v>-3.101853995116497</v>
       </c>
       <c r="E37">
-        <v>3.121812556027149</v>
+        <v>3.128695642669054</v>
       </c>
       <c r="F37">
-        <v>-0.8423265006054947</v>
+        <v>0.8782320557839007</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1">
-        <v>2620</v>
+        <v>2610</v>
       </c>
       <c r="B38">
-        <v>2619</v>
+        <v>2609</v>
       </c>
       <c r="C38">
-        <v>-0.006561895884316632</v>
+        <v>0.009281537891322036</v>
       </c>
       <c r="D38">
-        <v>-3.124964709707254</v>
+        <v>-3.105572912289548</v>
       </c>
       <c r="E38">
-        <v>3.111840917938621</v>
+        <v>3.124135988072193</v>
       </c>
       <c r="F38">
-        <v>-1.162079896225343</v>
+        <v>-0.9643276271804169</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1">
-        <v>2621</v>
+        <v>2611</v>
       </c>
       <c r="B39">
-        <v>2620</v>
+        <v>2610</v>
       </c>
       <c r="C39">
-        <v>-0.01045164545447222</v>
+        <v>-0.007101163613415173</v>
       </c>
       <c r="D39">
-        <v>-3.128573182661775</v>
+        <v>-3.121582727854495</v>
       </c>
       <c r="E39">
-        <v>3.107669891752831</v>
+        <v>3.107380400627664</v>
       </c>
       <c r="F39">
-        <v>1.38876726789956</v>
+        <v>-0.06462035766059415</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1">
-        <v>2622</v>
+        <v>2612</v>
       </c>
       <c r="B40">
-        <v>2621</v>
+        <v>2611</v>
       </c>
       <c r="C40">
-        <v>0.01006852085718399</v>
+        <v>-0.001403708769731339</v>
       </c>
       <c r="D40">
-        <v>-3.107918183493052</v>
+        <v>-3.115289578741825</v>
       </c>
       <c r="E40">
-        <v>3.128055225207421</v>
+        <v>3.112482161202363</v>
       </c>
       <c r="F40">
-        <v>-0.8683122573461155</v>
+        <v>-0.453515516539138</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="1">
-        <v>2623</v>
+        <v>2613</v>
       </c>
       <c r="B41">
-        <v>2622</v>
+        <v>2612</v>
       </c>
       <c r="C41">
-        <v>-0.005742020664370504</v>
+        <v>-0.004031180050627567</v>
       </c>
       <c r="D41">
-        <v>-3.123315388842109</v>
+        <v>-3.117369212780833</v>
       </c>
       <c r="E41">
-        <v>3.111831347513369</v>
+        <v>3.109306852679577</v>
       </c>
       <c r="F41">
-        <v>0.4557704181316069</v>
+        <v>3.237079914202212</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="1">
-        <v>2624</v>
+        <v>2614</v>
       </c>
       <c r="B42">
-        <v>2623</v>
+        <v>2613</v>
       </c>
       <c r="C42">
-        <v>0.002919904164542686</v>
+        <v>0.0263499780334136</v>
       </c>
       <c r="D42">
-        <v>-3.11410921047251</v>
+        <v>-3.088871936909347</v>
       </c>
       <c r="E42">
-        <v>3.119949018801595</v>
+        <v>3.141571892976174</v>
       </c>
       <c r="F42">
-        <v>-2.025332826785498</v>
+        <v>2.46312773215509</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="1">
-        <v>2625</v>
+        <v>2615</v>
       </c>
       <c r="B43">
-        <v>2624</v>
+        <v>2614</v>
       </c>
       <c r="C43">
-        <v>-0.01535553432111422</v>
+        <v>0.02678089603148581</v>
       </c>
       <c r="D43">
-        <v>-3.132756782634662</v>
+        <v>-3.089243433325535</v>
       </c>
       <c r="E43">
-        <v>3.102045713992434</v>
+        <v>3.142805225388507</v>
       </c>
       <c r="F43">
-        <v>0.2738285018021536</v>
+        <v>2.304063120996336</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="1">
-        <v>2626</v>
+        <v>2616</v>
       </c>
       <c r="B44">
-        <v>2625</v>
+        <v>2615</v>
       </c>
       <c r="C44">
-        <v>0.0003050398974996302</v>
+        <v>0.02764767539184271</v>
       </c>
       <c r="D44">
-        <v>-3.116521987627126</v>
+        <v>-3.089002001356967</v>
       </c>
       <c r="E44">
-        <v>3.117132067422125</v>
+        <v>3.144297352140653</v>
       </c>
       <c r="F44">
-        <v>-1.184948270128139</v>
+        <v>-3.870136751709463</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1">
-        <v>2627</v>
+        <v>2617</v>
       </c>
       <c r="B45">
-        <v>2626</v>
+        <v>2616</v>
       </c>
       <c r="C45">
-        <v>-0.009045109476242458</v>
+        <v>-0.03189088757354303</v>
       </c>
       <c r="D45">
-        <v>-3.125608442016478</v>
+        <v>-3.151518158262279</v>
       </c>
       <c r="E45">
-        <v>3.107518223063994</v>
+        <v>3.087736383115193</v>
       </c>
       <c r="F45">
-        <v>0.3187761704873004</v>
+        <v>1.238405919972152</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1">
-        <v>2628</v>
+        <v>2618</v>
       </c>
       <c r="B46">
-        <v>2627</v>
+        <v>2617</v>
       </c>
       <c r="C46">
-        <v>0.001332878606328157</v>
+        <v>0.006746259132168198</v>
       </c>
       <c r="D46">
-        <v>-3.114662427996331</v>
+        <v>-3.112664003147754</v>
       </c>
       <c r="E46">
-        <v>3.117328185208987</v>
+        <v>3.126156521412091</v>
       </c>
       <c r="F46">
-        <v>2.514274492135282</v>
+        <v>0.2663117419483108</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="1">
-        <v>2629</v>
+        <v>2619</v>
       </c>
       <c r="B47">
-        <v>2628</v>
+        <v>2618</v>
       </c>
       <c r="C47">
-        <v>0.01946602058363561</v>
+        <v>0.002982301701750928</v>
       </c>
       <c r="D47">
-        <v>-3.097417401565718</v>
+        <v>-3.115847952623648</v>
       </c>
       <c r="E47">
-        <v>3.136349442732989</v>
+        <v>3.121812556027149</v>
       </c>
       <c r="F47">
-        <v>-0.2486017439461641</v>
+        <v>-0.8423265006054947</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1">
-        <v>2630</v>
+        <v>2620</v>
       </c>
       <c r="B48">
-        <v>2629</v>
+        <v>2619</v>
       </c>
       <c r="C48">
-        <v>0.0003771059960111893</v>
+        <v>-0.006561895884316632</v>
       </c>
       <c r="D48">
-        <v>-3.115930302420478</v>
+        <v>-3.124964709707254</v>
       </c>
       <c r="E48">
-        <v>3.116684514412501</v>
+        <v>3.111840917938621</v>
       </c>
       <c r="F48">
-        <v>-0.4365457509639903</v>
+        <v>-1.162079896225343</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="1">
-        <v>2631</v>
+        <v>2621</v>
       </c>
       <c r="B49">
-        <v>2630</v>
+        <v>2620</v>
       </c>
       <c r="C49">
-        <v>-0.003266016482174117</v>
+        <v>-0.01045164545447222</v>
       </c>
       <c r="D49">
-        <v>-3.119025615788131</v>
+        <v>-3.128573182661775</v>
       </c>
       <c r="E49">
-        <v>3.112493582823782</v>
+        <v>3.107669891752831</v>
       </c>
       <c r="F49">
-        <v>-0.2085506491021683</v>
+        <v>1.38876726789956</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="1">
-        <v>2632</v>
+        <v>2622</v>
       </c>
       <c r="B50">
-        <v>2631</v>
+        <v>2621</v>
       </c>
       <c r="C50">
-        <v>-0.001962669734409152</v>
+        <v>0.01006852085718399</v>
       </c>
       <c r="D50">
-        <v>-3.117139961298444</v>
+        <v>-3.107918183493052</v>
       </c>
       <c r="E50">
-        <v>3.113214621829626</v>
+        <v>3.128055225207421</v>
       </c>
       <c r="F50">
-        <v>1.717935243854551</v>
+        <v>-0.8683122573461155</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="1">
-        <v>2633</v>
+        <v>2623</v>
       </c>
       <c r="B51">
-        <v>2632</v>
+        <v>2622</v>
       </c>
       <c r="C51">
-        <v>0.01269944866260217</v>
+        <v>-0.005742020664370504</v>
       </c>
       <c r="D51">
-        <v>-3.10257899513932</v>
+        <v>-3.123315388842109</v>
       </c>
       <c r="E51">
-        <v>3.127977892464525</v>
+        <v>3.111831347513369</v>
       </c>
       <c r="F51">
-        <v>-0.2054232439720138</v>
+        <v>0.4557704181316069</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="1">
-        <v>2634</v>
+        <v>2624</v>
       </c>
       <c r="B52">
-        <v>2633</v>
+        <v>2623</v>
       </c>
       <c r="C52">
-        <v>-7.539616779061661E-05</v>
+        <v>0.002919904164542686</v>
       </c>
       <c r="D52">
-        <v>-3.114773342295539</v>
+        <v>-3.11410921047251</v>
       </c>
       <c r="E52">
-        <v>3.114622549959959</v>
+        <v>3.119949018801595</v>
       </c>
       <c r="F52">
-        <v>1.02292217648623</v>
+        <v>-2.025332826785498</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="1">
-        <v>2635</v>
+        <v>2625</v>
       </c>
       <c r="B53">
-        <v>2634</v>
+        <v>2624</v>
       </c>
       <c r="C53">
-        <v>0.007625463458059312</v>
+        <v>-0.01535553432111422</v>
       </c>
       <c r="D53">
-        <v>-3.106726294968483</v>
+        <v>-3.132756782634662</v>
       </c>
       <c r="E53">
-        <v>3.121977221884602</v>
+        <v>3.102045713992434</v>
       </c>
       <c r="F53">
-        <v>2.353523092513665</v>
+        <v>0.2738285018021536</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="1">
-        <v>2636</v>
+        <v>2626</v>
       </c>
       <c r="B54">
-        <v>2635</v>
+        <v>2625</v>
       </c>
       <c r="C54">
-        <v>0.01934020619811355</v>
+        <v>0.0003050398974996302</v>
       </c>
       <c r="D54">
-        <v>-3.095708433822678</v>
+        <v>-3.116521987627126</v>
       </c>
       <c r="E54">
-        <v>3.134388846218905</v>
+        <v>3.117132067422125</v>
       </c>
       <c r="F54">
-        <v>0.1787665586813425</v>
+        <v>-1.184948270128139</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="1">
-        <v>2637</v>
+        <v>2627</v>
       </c>
       <c r="B55">
-        <v>2636</v>
+        <v>2626</v>
       </c>
       <c r="C55">
-        <v>0.003697991233850024</v>
+        <v>-0.009045109476242458</v>
       </c>
       <c r="D55">
-        <v>-3.110765674351326</v>
+        <v>-3.125608442016478</v>
       </c>
       <c r="E55">
-        <v>3.118161656819026</v>
+        <v>3.107518223063994</v>
       </c>
       <c r="F55">
-        <v>3.048897485272928</v>
+        <v>0.3187761704873004</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="1">
-        <v>2638</v>
+        <v>2628</v>
       </c>
       <c r="B56">
-        <v>2637</v>
+        <v>2627</v>
       </c>
       <c r="C56">
-        <v>0.025091957423091</v>
+        <v>0.001332878606328157</v>
       </c>
       <c r="D56">
-        <v>-3.090949682272855</v>
+        <v>-3.114662427996331</v>
       </c>
       <c r="E56">
-        <v>3.141133597119037</v>
+        <v>3.117328185208987</v>
       </c>
       <c r="F56">
-        <v>-0.3277743221844709</v>
+        <v>2.514274492135282</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="1">
-        <v>2639</v>
+        <v>2629</v>
       </c>
       <c r="B57">
-        <v>2638</v>
+        <v>2628</v>
       </c>
       <c r="C57">
-        <v>0.0005295522991827159</v>
+        <v>0.01946602058363561</v>
       </c>
       <c r="D57">
-        <v>-3.114950476678724</v>
+        <v>-3.097417401565718</v>
       </c>
       <c r="E57">
-        <v>3.116009581277089</v>
+        <v>3.136349442732989</v>
       </c>
       <c r="F57">
-        <v>2.36652265374877</v>
+        <v>-0.2486017439461641</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="1">
-        <v>2640</v>
+        <v>2630</v>
       </c>
       <c r="B58">
-        <v>2639</v>
+        <v>2629</v>
       </c>
       <c r="C58">
-        <v>0.01881710999295455</v>
+        <v>0.0003771059960111893</v>
       </c>
       <c r="D58">
-        <v>-3.097380527372008</v>
+        <v>-3.115930302420478</v>
       </c>
       <c r="E58">
-        <v>3.135014747357917</v>
+        <v>3.116684514412501</v>
       </c>
       <c r="F58">
-        <v>-0.5295019935738665</v>
+        <v>-0.4365457509639903</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="1">
-        <v>2641</v>
+        <v>2631</v>
       </c>
       <c r="B59">
-        <v>2640</v>
+        <v>2630</v>
       </c>
       <c r="C59">
-        <v>-0.001578469271426353</v>
+        <v>-0.003266016482174117</v>
       </c>
       <c r="D59">
-        <v>-3.11725600853797</v>
+        <v>-3.119025615788131</v>
       </c>
       <c r="E59">
-        <v>3.114099069995117</v>
+        <v>3.112493582823782</v>
       </c>
       <c r="F59">
-        <v>-1.297728135872145</v>
+        <v>-0.2085506491021683</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="1">
-        <v>2642</v>
+        <v>2632</v>
       </c>
       <c r="B60">
-        <v>2641</v>
+        <v>2631</v>
       </c>
       <c r="C60">
-        <v>-0.01029653818284434</v>
+        <v>-0.001962669734409152</v>
       </c>
       <c r="D60">
-        <v>-3.125776222757863</v>
+        <v>-3.117139961298444</v>
       </c>
       <c r="E60">
-        <v>3.105183146392174</v>
+        <v>3.113214621829626</v>
       </c>
       <c r="F60">
-        <v>-0.3078109394576423</v>
+        <v>1.717935243854551</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="1">
-        <v>2643</v>
+        <v>2633</v>
       </c>
       <c r="B61">
-        <v>2642</v>
+        <v>2632</v>
       </c>
       <c r="C61">
-        <v>-0.00377987483286079</v>
+        <v>0.01269944866260217</v>
       </c>
       <c r="D61">
-        <v>-3.118690548256743</v>
+        <v>-3.10257899513932</v>
       </c>
       <c r="E61">
-        <v>3.111130798591021</v>
+        <v>3.127977892464525</v>
       </c>
       <c r="F61">
-        <v>2.361115015982485</v>
+        <v>-0.2054232439720138</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="1">
-        <v>2644</v>
+        <v>2634</v>
       </c>
       <c r="B62">
-        <v>2643</v>
+        <v>2633</v>
       </c>
       <c r="C62">
-        <v>0.01762071880686145</v>
+        <v>-7.539616779061661E-05</v>
       </c>
       <c r="D62">
-        <v>-3.098005279338943</v>
+        <v>-3.114773342295539</v>
       </c>
       <c r="E62">
-        <v>3.133246716952666</v>
+        <v>3.114622549959959</v>
       </c>
       <c r="F62">
-        <v>1.882803311533188</v>
+        <v>1.02292217648623</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="1">
-        <v>2645</v>
+        <v>2635</v>
       </c>
       <c r="B63">
-        <v>2644</v>
+        <v>2634</v>
       </c>
       <c r="C63">
-        <v>0.01805319749364656</v>
+        <v>0.007625463458059312</v>
       </c>
       <c r="D63">
-        <v>-3.097794078767312</v>
+        <v>-3.106726294968483</v>
       </c>
       <c r="E63">
-        <v>3.133900473754605</v>
+        <v>3.121977221884602</v>
       </c>
       <c r="F63">
-        <v>1.484767446709423</v>
+        <v>2.353523092513665</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="1">
-        <v>2646</v>
+        <v>2636</v>
       </c>
       <c r="B64">
-        <v>2645</v>
+        <v>2635</v>
       </c>
       <c r="C64">
-        <v>0.01549321593715555</v>
+        <v>0.01934020619811355</v>
       </c>
       <c r="D64">
-        <v>-3.100266203093833</v>
+        <v>-3.095708433822678</v>
       </c>
       <c r="E64">
-        <v>3.131252634968144</v>
+        <v>3.134388846218905</v>
       </c>
       <c r="F64">
-        <v>2.639528406695479</v>
+        <v>0.1787665586813425</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="1">
-        <v>2647</v>
+        <v>2637</v>
       </c>
       <c r="B65">
-        <v>2646</v>
+        <v>2636</v>
       </c>
       <c r="C65">
-        <v>0.0271789229630845</v>
+        <v>0.003697991233850024</v>
       </c>
       <c r="D65">
-        <v>-3.0895952417143</v>
+        <v>-3.110765674351326</v>
       </c>
       <c r="E65">
-        <v>3.143953087640468</v>
+        <v>3.118161656819026</v>
       </c>
       <c r="F65">
-        <v>2.052163572079735</v>
+        <v>3.048897485272928</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="1">
-        <v>2648</v>
+        <v>2638</v>
       </c>
       <c r="B66">
-        <v>2647</v>
+        <v>2637</v>
       </c>
       <c r="C66">
-        <v>0.02521813836594289</v>
+        <v>0.025091957423091</v>
       </c>
       <c r="D66">
-        <v>-3.09192093890979</v>
+        <v>-3.090949682272855</v>
       </c>
       <c r="E66">
-        <v>3.142357215641676</v>
+        <v>3.141133597119037</v>
       </c>
       <c r="F66">
-        <v>-2.852808361453807</v>
+        <v>-0.3277743221844709</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="1">
-        <v>2649</v>
+        <v>2639</v>
       </c>
       <c r="B67">
-        <v>2648</v>
+        <v>2638</v>
       </c>
       <c r="C67">
-        <v>-0.02355036150504952</v>
+        <v>0.0005295522991827159</v>
       </c>
       <c r="D67">
-        <v>-3.142025909185205</v>
+        <v>-3.114950476678724</v>
       </c>
       <c r="E67">
-        <v>3.094925186175106</v>
+        <v>3.116009581277089</v>
       </c>
       <c r="F67">
-        <v>-0.4834820054584021</v>
+        <v>2.36652265374877</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="1">
-        <v>2650</v>
+        <v>2640</v>
       </c>
       <c r="B68">
-        <v>2649</v>
+        <v>2639</v>
       </c>
       <c r="C68">
-        <v>-0.00764603748058118</v>
+        <v>0.01881710999295455</v>
       </c>
       <c r="D68">
-        <v>-3.125582009322571</v>
+        <v>-3.097380527372008</v>
       </c>
       <c r="E68">
-        <v>3.110289934361409</v>
+        <v>3.135014747357917</v>
       </c>
       <c r="F68">
-        <v>0.1076426368738836</v>
+        <v>-0.5295019935738665</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="1">
-        <v>2651</v>
+        <v>2641</v>
       </c>
       <c r="B69">
-        <v>2650</v>
+        <v>2640</v>
       </c>
       <c r="C69">
-        <v>4.350501902240268E-05</v>
+        <v>-0.001578469271426353</v>
       </c>
       <c r="D69">
-        <v>-3.117307201968253</v>
+        <v>-3.11725600853797</v>
       </c>
       <c r="E69">
-        <v>3.117394212006297</v>
+        <v>3.114099069995117</v>
       </c>
       <c r="F69">
-        <v>-0.9729806488366854</v>
+        <v>-1.297728135872145</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="1">
-        <v>2652</v>
+        <v>2642</v>
       </c>
       <c r="B70">
-        <v>2651</v>
+        <v>2641</v>
       </c>
       <c r="C70">
-        <v>-0.009177686849381861</v>
+        <v>-0.01029653818284434</v>
       </c>
       <c r="D70">
-        <v>-3.126160507315386</v>
+        <v>-3.125776222757863</v>
       </c>
       <c r="E70">
-        <v>3.107805133616622</v>
+        <v>3.105183146392174</v>
       </c>
       <c r="F70">
-        <v>-1.642972334966419</v>
+        <v>-0.3078109394576423</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="1">
-        <v>2653</v>
+        <v>2643</v>
       </c>
       <c r="B71">
-        <v>2652</v>
+        <v>2642</v>
       </c>
       <c r="C71">
-        <v>-0.01709382183041089</v>
+        <v>-0.00377987483286079</v>
       </c>
       <c r="D71">
-        <v>-3.13410915145325</v>
+        <v>-3.118690548256743</v>
       </c>
       <c r="E71">
-        <v>3.099921507792428</v>
+        <v>3.111130798591021</v>
       </c>
       <c r="F71">
-        <v>1.152908735066216</v>
+        <v>2.361115015982485</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="1">
-        <v>2654</v>
+        <v>2644</v>
       </c>
       <c r="B72">
-        <v>2653</v>
+        <v>2643</v>
       </c>
       <c r="C72">
-        <v>0.008686108998862963</v>
+        <v>0.01762071880686145</v>
       </c>
       <c r="D72">
-        <v>-3.108059534197827</v>
+        <v>-3.098005279338943</v>
       </c>
       <c r="E72">
-        <v>3.125431752195553</v>
+        <v>3.133246716952666</v>
       </c>
       <c r="F72">
-        <v>-1.540184461150673</v>
+        <v>1.882803311533188</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="1">
-        <v>2655</v>
+        <v>2645</v>
       </c>
       <c r="B73">
-        <v>2654</v>
+        <v>2644</v>
       </c>
       <c r="C73">
-        <v>-0.01296073455513574</v>
+        <v>0.01805319749364656</v>
       </c>
       <c r="D73">
-        <v>-3.129676313439265</v>
+        <v>-3.097794078767312</v>
       </c>
       <c r="E73">
-        <v>3.103754844328993</v>
+        <v>3.133900473754605</v>
       </c>
       <c r="F73">
-        <v>-1.058800640882929</v>
+        <v>1.484767446709423</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="1">
-        <v>2656</v>
+        <v>2646</v>
       </c>
       <c r="B74">
-        <v>2655</v>
+        <v>2645</v>
       </c>
       <c r="C74">
-        <v>-0.01165827232717873</v>
+        <v>0.01549321593715555</v>
       </c>
       <c r="D74">
-        <v>-3.128040657544598</v>
+        <v>-3.100266203093833</v>
       </c>
       <c r="E74">
-        <v>3.10472411289024</v>
+        <v>3.131252634968144</v>
       </c>
       <c r="F74">
-        <v>0.354180629358769</v>
+        <v>2.639528406695479</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="1">
-        <v>2657</v>
+        <v>2647</v>
       </c>
       <c r="B75">
-        <v>2656</v>
+        <v>2646</v>
       </c>
       <c r="C75">
-        <v>0.001775859219442476</v>
+        <v>0.0271789229630845</v>
       </c>
       <c r="D75">
-        <v>-3.114050841083096</v>
+        <v>-3.0895952417143</v>
       </c>
       <c r="E75">
-        <v>3.117602559521981</v>
+        <v>3.143953087640468</v>
       </c>
       <c r="F75">
-        <v>-3.099265442802412</v>
+        <v>2.052163572079735</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="1">
-        <v>2658</v>
+        <v>2648</v>
       </c>
       <c r="B76">
-        <v>2657</v>
+        <v>2647</v>
       </c>
       <c r="C76">
-        <v>-0.02829388466702154</v>
+        <v>0.02521813836594289</v>
       </c>
       <c r="D76">
-        <v>-3.145765070205881</v>
+        <v>-3.09192093890979</v>
       </c>
       <c r="E76">
-        <v>3.089177300871838</v>
+        <v>3.142357215641676</v>
       </c>
       <c r="F76">
-        <v>-5.018268798332404</v>
+        <v>-2.852808361453807</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="1">
-        <v>2659</v>
+        <v>2649</v>
       </c>
       <c r="B77">
-        <v>2658</v>
+        <v>2648</v>
       </c>
       <c r="C77">
-        <v>-0.06208851934441173</v>
+        <v>-0.02355036150504952</v>
       </c>
       <c r="D77">
-        <v>-3.184732906184242</v>
+        <v>-3.142025909185205</v>
       </c>
       <c r="E77">
-        <v>3.060555867495419</v>
+        <v>3.094925186175106</v>
       </c>
       <c r="F77">
-        <v>4.440788848943988</v>
+        <v>-0.4834820054584021</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="1">
-        <v>2660</v>
+        <v>2650</v>
       </c>
       <c r="B78">
-        <v>2659</v>
+        <v>2649</v>
       </c>
       <c r="C78">
-        <v>0.03006885410712667</v>
+        <v>-0.00764603748058118</v>
       </c>
       <c r="D78">
-        <v>-3.096655539687486</v>
+        <v>-3.125582009322571</v>
       </c>
       <c r="E78">
-        <v>3.156793247901739</v>
+        <v>3.110289934361409</v>
       </c>
       <c r="F78">
-        <v>-0.6974069336073363</v>
+        <v>0.1076426368738836</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="1">
-        <v>2661</v>
+        <v>2651</v>
       </c>
       <c r="B79">
-        <v>2660</v>
+        <v>2650</v>
       </c>
       <c r="C79">
-        <v>-0.001641017693237365</v>
+        <v>4.350501902240268E-05</v>
       </c>
       <c r="D79">
-        <v>-3.127899722429486</v>
+        <v>-3.117307201968253</v>
       </c>
       <c r="E79">
-        <v>3.124617687043012</v>
+        <v>3.117394212006297</v>
       </c>
       <c r="F79">
-        <v>2.020659533484448</v>
+        <v>-0.9729806488366854</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="1">
-        <v>2662</v>
+        <v>2652</v>
       </c>
       <c r="B80">
-        <v>2661</v>
+        <v>2651</v>
       </c>
       <c r="C80">
-        <v>0.01483146935326951</v>
+        <v>-0.009177686849381861</v>
       </c>
       <c r="D80">
-        <v>-3.111784229026756</v>
+        <v>-3.126160507315386</v>
       </c>
       <c r="E80">
-        <v>3.141447167733295</v>
+        <v>3.107805133616622</v>
       </c>
       <c r="F80">
-        <v>1.004652559667107</v>
+        <v>-1.642972334966419</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="1">
-        <v>2663</v>
+        <v>2653</v>
       </c>
       <c r="B81">
-        <v>2662</v>
+        <v>2652</v>
       </c>
       <c r="C81">
-        <v>0.009844374414175044</v>
+        <v>-0.01709382183041089</v>
       </c>
       <c r="D81">
-        <v>-3.116410006071429</v>
+        <v>-3.13410915145325</v>
       </c>
       <c r="E81">
-        <v>3.136098754899779</v>
+        <v>3.099921507792428</v>
       </c>
       <c r="F81">
-        <v>3.302099309309003</v>
+        <v>1.152908735066216</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="1">
-        <v>2664</v>
+        <v>2654</v>
       </c>
       <c r="B82">
-        <v>2663</v>
+        <v>2653</v>
       </c>
       <c r="C82">
-        <v>0.02899687778028265</v>
+        <v>0.008686108998862963</v>
       </c>
       <c r="D82">
-        <v>-3.099170285054268</v>
+        <v>-3.108059534197827</v>
       </c>
       <c r="E82">
-        <v>3.157164040614833</v>
+        <v>3.125431752195553</v>
       </c>
       <c r="F82">
-        <v>-1.934652694619743</v>
+        <v>-1.540184461150673</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="1">
-        <v>2665</v>
+        <v>2655</v>
       </c>
       <c r="B83">
-        <v>2664</v>
+        <v>2654</v>
       </c>
       <c r="C83">
-        <v>-0.01058807214675156</v>
+        <v>-0.01296073455513574</v>
       </c>
       <c r="D83">
-        <v>-3.139055238721428</v>
+        <v>-3.129676313439265</v>
       </c>
       <c r="E83">
-        <v>3.117879094427925</v>
+        <v>3.103754844328993</v>
       </c>
       <c r="F83">
-        <v>-1.028527066017304</v>
+        <v>-1.058800640882929</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="1">
-        <v>2666</v>
+        <v>2656</v>
       </c>
       <c r="B84">
-        <v>2665</v>
+        <v>2655</v>
       </c>
       <c r="C84">
-        <v>-0.009275805203228987</v>
+        <v>-0.01165827232717873</v>
       </c>
       <c r="D84">
-        <v>-3.137394437700994</v>
+        <v>-3.128040657544598</v>
       </c>
       <c r="E84">
-        <v>3.118842827294536</v>
+        <v>3.10472411289024</v>
       </c>
       <c r="F84">
-        <v>0.7863736460214099</v>
+        <v>0.354180629358769</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="1">
-        <v>2667</v>
+        <v>2657</v>
       </c>
       <c r="B85">
-        <v>2666</v>
+        <v>2656</v>
       </c>
       <c r="C85">
-        <v>0.004608061298908214</v>
+        <v>0.001775859219442476</v>
       </c>
       <c r="D85">
-        <v>-3.123069639111014</v>
+        <v>-3.114050841083096</v>
       </c>
       <c r="E85">
-        <v>3.13228576170883</v>
+        <v>3.117602559521981</v>
       </c>
       <c r="F85">
-        <v>-0.448598883143525</v>
+        <v>-3.099265442802412</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="1">
-        <v>2668</v>
+        <v>2658</v>
       </c>
       <c r="B86">
-        <v>2667</v>
+        <v>2657</v>
       </c>
       <c r="C86">
-        <v>-0.002690154355964834</v>
+        <v>-0.02829388466702154</v>
       </c>
       <c r="D86">
-        <v>-3.129828761900673</v>
+        <v>-3.145765070205881</v>
       </c>
       <c r="E86">
-        <v>3.124448453188744</v>
+        <v>3.089177300871838</v>
       </c>
       <c r="F86">
-        <v>-0.9032805112124009</v>
+        <v>-5.018268798332404</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="1">
-        <v>2669</v>
+        <v>2659</v>
       </c>
       <c r="B87">
-        <v>2668</v>
+        <v>2658</v>
       </c>
       <c r="C87">
-        <v>-0.007084254235209239</v>
+        <v>-0.06208851934441173</v>
       </c>
       <c r="D87">
-        <v>-3.133823494285202</v>
+        <v>-3.184732906184242</v>
       </c>
       <c r="E87">
-        <v>3.119654985814783</v>
+        <v>3.060555867495419</v>
       </c>
       <c r="F87">
-        <v>-1.064244176225415</v>
+        <v>4.440788848943988</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="1">
-        <v>2670</v>
+        <v>2660</v>
       </c>
       <c r="B88">
-        <v>2669</v>
+        <v>2659</v>
       </c>
       <c r="C88">
-        <v>-0.009049843668407886</v>
+        <v>0.03006885410712667</v>
       </c>
       <c r="D88">
-        <v>-3.13546052235278</v>
+        <v>-3.096655539687486</v>
       </c>
       <c r="E88">
-        <v>3.117360835015964</v>
+        <v>3.156793247901739</v>
       </c>
       <c r="F88">
-        <v>-0.2678402213406983</v>
+        <v>-0.6974069336073363</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="1">
-        <v>2671</v>
+        <v>2661</v>
       </c>
       <c r="B89">
-        <v>2670</v>
+        <v>2660</v>
       </c>
       <c r="C89">
-        <v>-0.00327990077331923</v>
+        <v>-0.001641017693237365</v>
       </c>
       <c r="D89">
-        <v>-3.129120474682303</v>
+        <v>-3.127899722429486</v>
       </c>
       <c r="E89">
-        <v>3.122560673135665</v>
+        <v>3.124617687043012</v>
       </c>
       <c r="F89">
-        <v>-0.4800777343356266</v>
+        <v>2.020659533484448</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="1">
-        <v>2672</v>
+        <v>2662</v>
       </c>
       <c r="B90">
-        <v>2671</v>
+        <v>2661</v>
       </c>
       <c r="C90">
-        <v>-0.004126073457887097</v>
+        <v>0.01483146935326951</v>
       </c>
       <c r="D90">
-        <v>-3.129433782158524</v>
+        <v>-3.111784229026756</v>
       </c>
       <c r="E90">
-        <v>3.12118163524275</v>
+        <v>3.141447167733295</v>
       </c>
       <c r="F90">
-        <v>1.622947316697942</v>
+        <v>1.004652559667107</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="1">
-        <v>2673</v>
+        <v>2663</v>
       </c>
       <c r="B91">
-        <v>2672</v>
+        <v>2662</v>
       </c>
       <c r="C91">
-        <v>0.01166998595022911</v>
+        <v>0.009844374414175044</v>
       </c>
       <c r="D91">
-        <v>-3.113661761214389</v>
+        <v>-3.116410006071429</v>
       </c>
       <c r="E91">
-        <v>3.137001733114847</v>
+        <v>3.136098754899779</v>
       </c>
       <c r="F91">
-        <v>-1.738509733256777</v>
+        <v>3.302099309309003</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="1">
-        <v>2674</v>
+        <v>2664</v>
       </c>
       <c r="B92">
-        <v>2673</v>
+        <v>2663</v>
       </c>
       <c r="C92">
-        <v>-0.0108553480368796</v>
+        <v>0.02899687778028265</v>
       </c>
       <c r="D92">
-        <v>-3.136306582281374</v>
+        <v>-3.099170285054268</v>
       </c>
       <c r="E92">
-        <v>3.114595886207614</v>
+        <v>3.157164040614833</v>
       </c>
       <c r="F92">
-        <v>1.681675403792848</v>
+        <v>-1.934652694619743</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="1">
-        <v>2675</v>
+        <v>2665</v>
       </c>
       <c r="B93">
-        <v>2674</v>
+        <v>2664</v>
       </c>
       <c r="C93">
-        <v>0.009884887891685512</v>
+        <v>-0.01058807214675156</v>
       </c>
       <c r="D93">
-        <v>-3.1156401854217</v>
+        <v>-3.139055238721428</v>
       </c>
       <c r="E93">
-        <v>3.135409961205071</v>
+        <v>3.117879094427925</v>
       </c>
       <c r="F93">
-        <v>-2.474946468965022</v>
+        <v>-1.028527066017304</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="1">
-        <v>2676</v>
+        <v>2666</v>
       </c>
       <c r="B94">
-        <v>2675</v>
+        <v>2665</v>
       </c>
       <c r="C94">
-        <v>-0.01402084267641623</v>
+        <v>-0.009275805203228987</v>
       </c>
       <c r="D94">
-        <v>-3.140379767132602</v>
+        <v>-3.137394437700994</v>
       </c>
       <c r="E94">
-        <v>3.11233808177977</v>
+        <v>3.118842827294536</v>
       </c>
       <c r="F94">
-        <v>0.6196766537510889</v>
+        <v>0.7863736460214099</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="1">
-        <v>2677</v>
+        <v>2667</v>
       </c>
       <c r="B95">
-        <v>2676</v>
+        <v>2666</v>
       </c>
       <c r="C95">
-        <v>0.003128036480140196</v>
+        <v>0.004608061298908214</v>
       </c>
       <c r="D95">
-        <v>-3.122756618363771</v>
+        <v>-3.123069639111014</v>
       </c>
       <c r="E95">
-        <v>3.129012691324051</v>
+        <v>3.13228576170883</v>
       </c>
       <c r="F95">
-        <v>4.602849436670287</v>
+        <v>-0.448598883143525</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="1">
-        <v>2678</v>
+        <v>2668</v>
       </c>
       <c r="B96">
-        <v>2677</v>
+        <v>2667</v>
       </c>
       <c r="C96">
-        <v>0.02891282797748163</v>
+        <v>-0.002690154355964834</v>
       </c>
       <c r="D96">
-        <v>-3.101226283414751</v>
+        <v>-3.129828761900673</v>
       </c>
       <c r="E96">
-        <v>3.159051939369715</v>
+        <v>3.124448453188744</v>
       </c>
       <c r="F96">
-        <v>1.754430965090936</v>
+        <v>-0.9032805112124009</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="1">
-        <v>2679</v>
+        <v>2669</v>
       </c>
       <c r="B97">
-        <v>2678</v>
+        <v>2668</v>
       </c>
       <c r="C97">
-        <v>0.01755815119554402</v>
+        <v>-0.007084254235209239</v>
       </c>
       <c r="D97">
-        <v>-3.112676604645237</v>
+        <v>-3.133823494285202</v>
       </c>
       <c r="E97">
-        <v>3.147792907036325</v>
+        <v>3.119654985814783</v>
       </c>
       <c r="F97">
-        <v>3.068381993860214</v>
+        <v>-1.064244176225415</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="1">
-        <v>2680</v>
+        <v>2670</v>
       </c>
       <c r="B98">
-        <v>2679</v>
+        <v>2669</v>
       </c>
       <c r="C98">
-        <v>0.02881489203410553</v>
+        <v>-0.009049843668407886</v>
       </c>
       <c r="D98">
-        <v>-3.10296562984337</v>
+        <v>-3.13546052235278</v>
       </c>
       <c r="E98">
-        <v>3.160595413911581</v>
+        <v>3.117360835015964</v>
       </c>
       <c r="F98">
-        <v>-0.4931323836187218</v>
+        <v>-0.2678402213406983</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="1">
-        <v>2681</v>
+        <v>2671</v>
       </c>
       <c r="B99">
-        <v>2680</v>
+        <v>2670</v>
       </c>
       <c r="C99">
-        <v>8.166620862919138E-05</v>
+        <v>-0.00327990077331923</v>
       </c>
       <c r="D99">
-        <v>-3.131176711461875</v>
+        <v>-3.129120474682303</v>
       </c>
       <c r="E99">
-        <v>3.131340043879134</v>
+        <v>3.122560673135665</v>
       </c>
       <c r="F99">
-        <v>-2.684004378981353</v>
+        <v>-0.4800777343356266</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="1">
-        <v>2682</v>
+        <v>2672</v>
       </c>
       <c r="B100">
-        <v>2681</v>
+        <v>2671</v>
       </c>
       <c r="C100">
-        <v>-0.02201130148336033</v>
+        <v>-0.004126073457887097</v>
       </c>
       <c r="D100">
-        <v>-3.154333285147092</v>
+        <v>-3.129433782158524</v>
       </c>
       <c r="E100">
-        <v>3.110310682180371</v>
+        <v>3.12118163524275</v>
       </c>
       <c r="F100">
-        <v>2.170683489013481</v>
+        <v>1.622947316697942</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="1">
-        <v>2683</v>
+        <v>2673</v>
       </c>
       <c r="B101">
-        <v>2682</v>
+        <v>2672</v>
       </c>
       <c r="C101">
-        <v>0.01320403250736157</v>
+        <v>0.01166998595022911</v>
       </c>
       <c r="D101">
-        <v>-3.11963217749949</v>
+        <v>-3.113661761214389</v>
       </c>
       <c r="E101">
-        <v>3.146040242514213</v>
+        <v>3.137001733114847</v>
       </c>
       <c r="F101">
-        <v>-0.5159694749143462</v>
+        <v>-1.738509733256777</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="1">
-        <v>2684</v>
+        <v>2674</v>
       </c>
       <c r="B102">
-        <v>2683</v>
+        <v>2673</v>
       </c>
       <c r="C102">
-        <v>-0.001900905276541645</v>
+        <v>-0.0108553480368796</v>
       </c>
       <c r="D102">
-        <v>-3.134217256050377</v>
+        <v>-3.136306582281374</v>
       </c>
       <c r="E102">
-        <v>3.130415445497293</v>
+        <v>3.114595886207614</v>
       </c>
       <c r="F102">
-        <v>0.4982216711584719</v>
+        <v>1.681675403792848</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="1">
-        <v>2685</v>
+        <v>2675</v>
       </c>
       <c r="B103">
-        <v>2684</v>
+        <v>2674</v>
       </c>
       <c r="C103">
-        <v>0.003309324964077889</v>
+        <v>0.009884887891685512</v>
       </c>
       <c r="D103">
-        <v>-3.128480638247313</v>
+        <v>-3.1156401854217</v>
       </c>
       <c r="E103">
-        <v>3.13509928817547</v>
+        <v>3.135409961205071</v>
       </c>
       <c r="F103">
-        <v>0.9363198870481426</v>
+        <v>-2.474946468965022</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="1">
-        <v>2686</v>
+        <v>2676</v>
       </c>
       <c r="B104">
-        <v>2685</v>
+        <v>2675</v>
       </c>
       <c r="C104">
-        <v>0.007250225383220399</v>
+        <v>-0.01402084267641623</v>
       </c>
       <c r="D104">
-        <v>-3.124155349181716</v>
+        <v>-3.140379767132602</v>
       </c>
       <c r="E104">
-        <v>3.138655799948157</v>
+        <v>3.11233808177977</v>
       </c>
       <c r="F104">
-        <v>0.5785937067043889</v>
+        <v>0.6196766537510889</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="1">
-        <v>2687</v>
+        <v>2677</v>
       </c>
       <c r="B105">
-        <v>2686</v>
+        <v>2676</v>
       </c>
       <c r="C105">
-        <v>0.005272031549717074</v>
+        <v>0.003128036480140196</v>
       </c>
       <c r="D105">
-        <v>-3.125625134241694</v>
+        <v>-3.122756618363771</v>
       </c>
       <c r="E105">
-        <v>3.136169197341129</v>
+        <v>3.129012691324051</v>
       </c>
       <c r="F105">
-        <v>0.662138679827784</v>
+        <v>4.602849436670287</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="1">
-        <v>2688</v>
+        <v>2678</v>
       </c>
       <c r="B106">
-        <v>2687</v>
+        <v>2677</v>
       </c>
       <c r="C106">
-        <v>0.00564813573218606</v>
+        <v>0.02891282797748163</v>
       </c>
       <c r="D106">
-        <v>-3.124764925039268</v>
+        <v>-3.101226283414751</v>
       </c>
       <c r="E106">
-        <v>3.136061196503641</v>
+        <v>3.159051939369715</v>
       </c>
       <c r="F106">
-        <v>0.4678168455655829</v>
+        <v>1.754430965090936</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="1">
-        <v>2689</v>
+        <v>2679</v>
       </c>
       <c r="B107">
-        <v>2688</v>
+        <v>2678</v>
       </c>
       <c r="C107">
-        <v>0.004279481171686736</v>
+        <v>0.01755815119554402</v>
       </c>
       <c r="D107">
-        <v>-3.125599995163429</v>
+        <v>-3.112676604645237</v>
       </c>
       <c r="E107">
-        <v>3.134158957506803</v>
+        <v>3.147792907036325</v>
       </c>
       <c r="F107">
-        <v>-3.967025238314914</v>
+        <v>3.068381993860214</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="1">
-        <v>2690</v>
+        <v>2680</v>
       </c>
       <c r="B108">
-        <v>2689</v>
+        <v>2679</v>
       </c>
       <c r="C108">
-        <v>-0.02767143375932435</v>
+        <v>0.02881489203410553</v>
       </c>
       <c r="D108">
-        <v>-3.160566593073934</v>
+        <v>-3.10296562984337</v>
       </c>
       <c r="E108">
-        <v>3.105223725555285</v>
+        <v>3.160595413911581</v>
       </c>
       <c r="F108">
-        <v>-1.631949182860115</v>
+        <v>-0.4931323836187218</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="1">
-        <v>2691</v>
+        <v>2681</v>
       </c>
       <c r="B109">
-        <v>2690</v>
+        <v>2680</v>
       </c>
       <c r="C109">
-        <v>-0.01726752405714396</v>
+        <v>8.166620862919138E-05</v>
       </c>
       <c r="D109">
-        <v>-3.15016560136139</v>
+        <v>-3.131176711461875</v>
       </c>
       <c r="E109">
-        <v>3.115630553247103</v>
+        <v>3.131340043879134</v>
       </c>
       <c r="F109">
-        <v>-0.2379428229795089</v>
+        <v>-2.684004378981353</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="1">
-        <v>2692</v>
+        <v>2682</v>
       </c>
       <c r="B110">
-        <v>2691</v>
+        <v>2681</v>
       </c>
       <c r="C110">
-        <v>-0.004282773154685615</v>
+        <v>-0.02201130148336033</v>
       </c>
       <c r="D110">
-        <v>-3.136609807569567</v>
+        <v>-3.154333285147092</v>
       </c>
       <c r="E110">
-        <v>3.128044261260196</v>
+        <v>3.110310682180371</v>
       </c>
       <c r="F110">
-        <v>2.693826453850168</v>
+        <v>2.170683489013481</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="1">
-        <v>2693</v>
+        <v>2683</v>
       </c>
       <c r="B111">
-        <v>2692</v>
+        <v>2682</v>
       </c>
       <c r="C111">
-        <v>0.02075930102463269</v>
+        <v>0.01320403250736157</v>
       </c>
       <c r="D111">
-        <v>-3.112643620962989</v>
+        <v>-3.11963217749949</v>
       </c>
       <c r="E111">
-        <v>3.154162223012254</v>
+        <v>3.146040242514213</v>
       </c>
       <c r="F111">
-        <v>-1.184295198340379</v>
+        <v>-0.5159694749143462</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="1">
-        <v>2694</v>
+        <v>2684</v>
       </c>
       <c r="B112">
-        <v>2693</v>
+        <v>2683</v>
       </c>
       <c r="C112">
-        <v>-0.006275169939220615</v>
+        <v>-0.001900905276541645</v>
       </c>
       <c r="D112">
-        <v>-3.139426599834077</v>
+        <v>-3.134217256050377</v>
       </c>
       <c r="E112">
-        <v>3.126876259955636</v>
+        <v>3.130415445497293</v>
       </c>
       <c r="F112">
-        <v>-0.542987759436997</v>
+        <v>0.4982216711584719</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="1">
-        <v>2695</v>
+        <v>2685</v>
       </c>
       <c r="B113">
-        <v>2694</v>
+        <v>2684</v>
       </c>
       <c r="C113">
-        <v>-0.004888902896374975</v>
+        <v>0.003309324964077889</v>
       </c>
       <c r="D113">
-        <v>-3.137524258757774</v>
+        <v>-3.128480638247313</v>
       </c>
       <c r="E113">
-        <v>3.127746452965025</v>
+        <v>3.13509928817547</v>
       </c>
       <c r="F113">
-        <v>1.709443335930061</v>
+        <v>0.9363198870481426</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="1">
-        <v>2696</v>
+        <v>2686</v>
       </c>
       <c r="B114">
-        <v>2695</v>
+        <v>2685</v>
       </c>
       <c r="C114">
-        <v>0.01196470383308065</v>
+        <v>0.007250225383220399</v>
       </c>
       <c r="D114">
-        <v>-3.12075805838495</v>
+        <v>-3.124155349181716</v>
       </c>
       <c r="E114">
-        <v>3.144687466051111</v>
+        <v>3.138655799948157</v>
       </c>
       <c r="F114">
-        <v>-0.2858676236562552</v>
+        <v>0.5785937067043889</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="1">
-        <v>2697</v>
+        <v>2687</v>
       </c>
       <c r="B115">
-        <v>2696</v>
+        <v>2686</v>
       </c>
       <c r="C115">
-        <v>-0.0005668125757750872</v>
+        <v>0.005272031549717074</v>
       </c>
       <c r="D115">
-        <v>-3.132728706002623</v>
+        <v>-3.125625134241694</v>
       </c>
       <c r="E115">
-        <v>3.131595080851073</v>
+        <v>3.136169197341129</v>
       </c>
       <c r="F115">
-        <v>1.368302112076414</v>
+        <v>0.662138679827784</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="1">
-        <v>2698</v>
+        <v>2688</v>
       </c>
       <c r="B116">
-        <v>2697</v>
+        <v>2687</v>
       </c>
       <c r="C116">
-        <v>0.009869722775318251</v>
+        <v>0.00564813573218606</v>
       </c>
       <c r="D116">
-        <v>-3.122137635603632</v>
+        <v>-3.124764925039268</v>
       </c>
       <c r="E116">
-        <v>3.141877081154269</v>
+        <v>3.136061196503641</v>
       </c>
       <c r="F116">
-        <v>-2.339183524772448</v>
+        <v>0.4678168455655829</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="1">
-        <v>2699</v>
+        <v>2689</v>
       </c>
       <c r="B117">
-        <v>2698</v>
+        <v>2688</v>
       </c>
       <c r="C117">
-        <v>-0.01469420805393523</v>
+        <v>0.004279481171686736</v>
       </c>
       <c r="D117">
-        <v>-3.147375028320801</v>
+        <v>-3.125599995163429</v>
       </c>
       <c r="E117">
-        <v>3.11798661221293</v>
+        <v>3.134158957506803</v>
       </c>
       <c r="F117">
-        <v>-0.5071555880255652</v>
+        <v>-3.967025238314914</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="1">
-        <v>2700</v>
+        <v>2690</v>
       </c>
       <c r="B118">
-        <v>2699</v>
+        <v>2689</v>
       </c>
       <c r="C118">
-        <v>-0.005491728600682533</v>
+        <v>-0.02767143375932435</v>
       </c>
       <c r="D118">
-        <v>-3.137647196485231</v>
+        <v>-3.160566593073934</v>
       </c>
       <c r="E118">
-        <v>3.126663739283866</v>
+        <v>3.105223725555285</v>
       </c>
       <c r="F118">
-        <v>2.634324899105422</v>
+        <v>-1.631949182860115</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="1">
-        <v>2701</v>
+        <v>2691</v>
       </c>
       <c r="B119">
-        <v>2700</v>
+        <v>2690</v>
       </c>
       <c r="C119">
-        <v>0.01694932907057989</v>
+        <v>-0.01726752405714396</v>
       </c>
       <c r="D119">
-        <v>-3.116208349032803</v>
+        <v>-3.15016560136139</v>
       </c>
       <c r="E119">
-        <v>3.150107007173963</v>
+        <v>3.115630553247103</v>
       </c>
       <c r="F119">
-        <v>-1.156287898383823</v>
+        <v>-0.2379428229795089</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="1">
-        <v>2702</v>
+        <v>2692</v>
       </c>
       <c r="B120">
-        <v>2701</v>
+        <v>2691</v>
       </c>
       <c r="C120">
-        <v>-0.005193580049466739</v>
+        <v>-0.004282773154685615</v>
       </c>
       <c r="D120">
-        <v>-3.138083462239754</v>
+        <v>-3.136609807569567</v>
       </c>
       <c r="E120">
-        <v>3.12769630214082</v>
+        <v>3.128044261260196</v>
       </c>
       <c r="F120">
-        <v>-4.164985544216027</v>
+        <v>2.693826453850168</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="1">
-        <v>2703</v>
+        <v>2693</v>
       </c>
       <c r="B121">
-        <v>2702</v>
+        <v>2692</v>
       </c>
       <c r="C121">
-        <v>-0.0289310350601088</v>
+        <v>0.02075930102463269</v>
       </c>
       <c r="D121">
-        <v>-3.1651646931943</v>
+        <v>-3.112643620962989</v>
       </c>
       <c r="E121">
-        <v>3.107302623074083</v>
+        <v>3.154162223012254</v>
       </c>
       <c r="F121">
-        <v>0.9283393815197272</v>
+        <v>-1.184295198340379</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="1">
-        <v>2704</v>
+        <v>2694</v>
       </c>
       <c r="B122">
-        <v>2703</v>
+        <v>2693</v>
       </c>
       <c r="C122">
-        <v>0.002742400539391204</v>
+        <v>-0.006275169939220615</v>
       </c>
       <c r="D122">
-        <v>-3.133118190886697</v>
+        <v>-3.139426599834077</v>
       </c>
       <c r="E122">
-        <v>3.138602991965479</v>
+        <v>3.126876259955636</v>
       </c>
       <c r="F122">
-        <v>-0.891039865980936</v>
+        <v>-0.542987759436997</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="1">
-        <v>2705</v>
+        <v>2695</v>
       </c>
       <c r="B123">
-        <v>2704</v>
+        <v>2694</v>
       </c>
       <c r="C123">
-        <v>-0.00515807260057026</v>
+        <v>-0.004888902896374975</v>
       </c>
       <c r="D123">
-        <v>-3.140619872565433</v>
+        <v>-3.137524258757774</v>
       </c>
       <c r="E123">
-        <v>3.130303727364293</v>
+        <v>3.127746452965025</v>
       </c>
       <c r="F123">
-        <v>-0.2987864034193599</v>
+        <v>1.709443335930061</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="1">
-        <v>2706</v>
+        <v>2696</v>
       </c>
       <c r="B124">
-        <v>2705</v>
+        <v>2695</v>
       </c>
       <c r="C124">
-        <v>-0.002458616945554722</v>
+        <v>0.01196470383308065</v>
       </c>
       <c r="D124">
-        <v>-3.137360327705284</v>
+        <v>-3.12075805838495</v>
       </c>
       <c r="E124">
-        <v>3.132443093814174</v>
+        <v>3.144687466051111</v>
       </c>
       <c r="F124">
-        <v>-3.889908917381568</v>
+        <v>-0.2858676236562552</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="1">
-        <v>2707</v>
+        <v>2697</v>
       </c>
       <c r="B125">
-        <v>2706</v>
+        <v>2696</v>
       </c>
       <c r="C125">
-        <v>-0.02511460624150597</v>
+        <v>-0.0005668125757750872</v>
       </c>
       <c r="D125">
-        <v>-3.162857647211561</v>
+        <v>-3.132728706002623</v>
       </c>
       <c r="E125">
-        <v>3.112628434728549</v>
+        <v>3.131595080851073</v>
       </c>
       <c r="F125">
-        <v>1.121434799815635</v>
+        <v>1.368302112076414</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="1">
+        <v>2698</v>
+      </c>
+      <c r="B126">
+        <v>2697</v>
+      </c>
+      <c r="C126">
+        <v>0.009869722775318251</v>
+      </c>
+      <c r="D126">
+        <v>-3.122137635603632</v>
+      </c>
+      <c r="E126">
+        <v>3.141877081154269</v>
+      </c>
+      <c r="F126">
+        <v>-2.339183524772448</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" s="1">
+        <v>2699</v>
+      </c>
+      <c r="B127">
+        <v>2698</v>
+      </c>
+      <c r="C127">
+        <v>-0.01469420805393523</v>
+      </c>
+      <c r="D127">
+        <v>-3.147375028320801</v>
+      </c>
+      <c r="E127">
+        <v>3.11798661221293</v>
+      </c>
+      <c r="F127">
+        <v>-0.5071555880255652</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" s="1">
+        <v>2700</v>
+      </c>
+      <c r="B128">
+        <v>2699</v>
+      </c>
+      <c r="C128">
+        <v>-0.005491728600682533</v>
+      </c>
+      <c r="D128">
+        <v>-3.137647196485231</v>
+      </c>
+      <c r="E128">
+        <v>3.126663739283866</v>
+      </c>
+      <c r="F128">
+        <v>2.634324899105422</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" s="1">
+        <v>2701</v>
+      </c>
+      <c r="B129">
+        <v>2700</v>
+      </c>
+      <c r="C129">
+        <v>0.01694932907057989</v>
+      </c>
+      <c r="D129">
+        <v>-3.116208349032803</v>
+      </c>
+      <c r="E129">
+        <v>3.150107007173963</v>
+      </c>
+      <c r="F129">
+        <v>-1.156287898383823</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" s="1">
+        <v>2702</v>
+      </c>
+      <c r="B130">
+        <v>2701</v>
+      </c>
+      <c r="C130">
+        <v>-0.005193580049466739</v>
+      </c>
+      <c r="D130">
+        <v>-3.138083462239754</v>
+      </c>
+      <c r="E130">
+        <v>3.12769630214082</v>
+      </c>
+      <c r="F130">
+        <v>-4.164985544216027</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" s="1">
+        <v>2703</v>
+      </c>
+      <c r="B131">
+        <v>2702</v>
+      </c>
+      <c r="C131">
+        <v>-0.0289310350601088</v>
+      </c>
+      <c r="D131">
+        <v>-3.1651646931943</v>
+      </c>
+      <c r="E131">
+        <v>3.107302623074083</v>
+      </c>
+      <c r="F131">
+        <v>0.9283393815197272</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" s="1">
+        <v>2704</v>
+      </c>
+      <c r="B132">
+        <v>2703</v>
+      </c>
+      <c r="C132">
+        <v>0.002742400539391204</v>
+      </c>
+      <c r="D132">
+        <v>-3.133118190886697</v>
+      </c>
+      <c r="E132">
+        <v>3.138602991965479</v>
+      </c>
+      <c r="F132">
+        <v>-0.891039865980936</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" s="1">
+        <v>2705</v>
+      </c>
+      <c r="B133">
+        <v>2704</v>
+      </c>
+      <c r="C133">
+        <v>-0.00515807260057026</v>
+      </c>
+      <c r="D133">
+        <v>-3.140619872565433</v>
+      </c>
+      <c r="E133">
+        <v>3.130303727364293</v>
+      </c>
+      <c r="F133">
+        <v>-0.2987864034193599</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" s="1">
+        <v>2706</v>
+      </c>
+      <c r="B134">
+        <v>2705</v>
+      </c>
+      <c r="C134">
+        <v>-0.002458616945554722</v>
+      </c>
+      <c r="D134">
+        <v>-3.137360327705284</v>
+      </c>
+      <c r="E134">
+        <v>3.132443093814174</v>
+      </c>
+      <c r="F134">
+        <v>-3.889908917381568</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" s="1">
+        <v>2707</v>
+      </c>
+      <c r="B135">
+        <v>2706</v>
+      </c>
+      <c r="C135">
+        <v>-0.02511460624150597</v>
+      </c>
+      <c r="D135">
+        <v>-3.162857647211561</v>
+      </c>
+      <c r="E135">
+        <v>3.112628434728549</v>
+      </c>
+      <c r="F135">
+        <v>1.121434799815635</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" s="1">
         <v>2708</v>
       </c>
-      <c r="B126">
+      <c r="B136">
         <v>2707</v>
       </c>
-      <c r="C126">
+      <c r="C136">
         <v>0.003619779615356811</v>
       </c>
-      <c r="D126">
+      <c r="D136">
         <v>-3.133840334127919</v>
       </c>
-      <c r="E126">
+      <c r="E136">
         <v>3.141079893358632</v>
       </c>
-      <c r="F126">
+      <c r="F136">
         <v>0.7279725635147116</v>
       </c>
     </row>

--- a/Daily/Forecast/Stationaritiy/Percentage Return/toyota.xlsx
+++ b/Daily/Forecast/Stationaritiy/Percentage Return/toyota.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F136"/>
+  <dimension ref="A1:F126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -411,2701 +411,2501 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>2574</v>
+        <v>2584</v>
       </c>
       <c r="B2">
-        <v>2573</v>
+        <v>2583</v>
       </c>
       <c r="C2">
-        <v>0.0003374667502519438</v>
+        <v>-0.0003160635176729064</v>
       </c>
       <c r="D2">
-        <v>-3.109669054958862</v>
+        <v>-3.120485955945912</v>
       </c>
       <c r="E2">
-        <v>3.110343988459366</v>
+        <v>3.119853828910566</v>
       </c>
       <c r="F2">
-        <v>0.9410668757245944</v>
+        <v>-2.757889826064108</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>2575</v>
+        <v>2585</v>
       </c>
       <c r="B3">
-        <v>2574</v>
+        <v>2584</v>
       </c>
       <c r="C3">
-        <v>0.0005503530631765809</v>
+        <v>-0.01904936574368427</v>
       </c>
       <c r="D3">
-        <v>-3.109064001725347</v>
+        <v>-3.140426570926785</v>
       </c>
       <c r="E3">
-        <v>3.1101647078517</v>
+        <v>3.102327839439416</v>
       </c>
       <c r="F3">
-        <v>1.054318948595157</v>
+        <v>-0.4002673789657685</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>2576</v>
+        <v>2586</v>
       </c>
       <c r="B4">
-        <v>2575</v>
+        <v>2585</v>
       </c>
       <c r="C4">
-        <v>0.0007767591895570488</v>
+        <v>-0.004965963044035092</v>
       </c>
       <c r="D4">
-        <v>-3.108500105418525</v>
+        <v>-3.125773927297594</v>
       </c>
       <c r="E4">
-        <v>3.110053623797639</v>
+        <v>3.115842001209524</v>
       </c>
       <c r="F4">
-        <v>-1.375267255203649</v>
+        <v>-1.142869582362227</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>2577</v>
+        <v>2587</v>
       </c>
       <c r="B5">
-        <v>2576</v>
+        <v>2586</v>
       </c>
       <c r="C5">
-        <v>-0.0007082043860827976</v>
+        <v>-0.008752408664834038</v>
       </c>
       <c r="D5">
-        <v>-3.109835568351877</v>
+        <v>-3.129265212349744</v>
       </c>
       <c r="E5">
-        <v>3.108419159579712</v>
+        <v>3.111760395020076</v>
       </c>
       <c r="F5">
-        <v>0.09886308269395627</v>
+        <v>0.9867763407233276</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>2578</v>
+        <v>2588</v>
       </c>
       <c r="B6">
-        <v>2577</v>
+        <v>2587</v>
       </c>
       <c r="C6">
-        <v>4.898052289912738E-05</v>
+        <v>0.005921821224190701</v>
       </c>
       <c r="D6">
-        <v>-3.108477455951889</v>
+        <v>-3.114223567228524</v>
       </c>
       <c r="E6">
-        <v>3.108575416997687</v>
+        <v>3.126067209676905</v>
       </c>
       <c r="F6">
-        <v>1.349548147488466</v>
+        <v>-1.846899343742336</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>2579</v>
+        <v>2589</v>
       </c>
       <c r="B7">
-        <v>2578</v>
+        <v>2588</v>
       </c>
       <c r="C7">
-        <v>0.0006942747088614404</v>
+        <v>-0.01176853218726848</v>
       </c>
       <c r="D7">
-        <v>-3.107665767422881</v>
+        <v>-3.13212770656951</v>
       </c>
       <c r="E7">
-        <v>3.109054316840604</v>
+        <v>3.108590642194973</v>
       </c>
       <c r="F7">
-        <v>0.8494165863301539</v>
+        <v>0.9727483105653079</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>2580</v>
+        <v>2590</v>
       </c>
       <c r="B8">
-        <v>2579</v>
+        <v>2589</v>
       </c>
       <c r="C8">
-        <v>0.0005857393208840767</v>
+        <v>0.00494639853545692</v>
       </c>
       <c r="D8">
-        <v>-3.107344192434</v>
+        <v>-3.115040536654976</v>
       </c>
       <c r="E8">
-        <v>3.108515671075768</v>
+        <v>3.12493333372589</v>
       </c>
       <c r="F8">
-        <v>4.927337268330412</v>
+        <v>0.7178137595702516</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>2581</v>
+        <v>2591</v>
       </c>
       <c r="B9">
-        <v>2580</v>
+        <v>2590</v>
       </c>
       <c r="C9">
-        <v>0.006544148715670351</v>
+        <v>0.005295871686577455</v>
       </c>
       <c r="D9">
-        <v>-3.106592973602949</v>
+        <v>-3.114209429487441</v>
       </c>
       <c r="E9">
-        <v>3.11968127103429</v>
+        <v>3.124801172860595</v>
       </c>
       <c r="F9">
-        <v>6.090875308699228</v>
+        <v>2.77734404271115</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1">
-        <v>2582</v>
+        <v>2592</v>
       </c>
       <c r="B10">
-        <v>2581</v>
+        <v>2591</v>
       </c>
       <c r="C10">
-        <v>0.04331188881067816</v>
+        <v>0.01979773379552452</v>
       </c>
       <c r="D10">
-        <v>-3.078017006678997</v>
+        <v>-3.100931329849177</v>
       </c>
       <c r="E10">
-        <v>3.164640784300353</v>
+        <v>3.140526797440225</v>
       </c>
       <c r="F10">
-        <v>0.453515516539138</v>
+        <v>-0.1958438227965154</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1">
-        <v>2583</v>
+        <v>2593</v>
       </c>
       <c r="B11">
-        <v>2582</v>
+        <v>2592</v>
       </c>
       <c r="C11">
-        <v>0.008684284920018374</v>
+        <v>0.0009798525505766396</v>
       </c>
       <c r="D11">
-        <v>-3.11208003244214</v>
+        <v>-3.119158189168665</v>
       </c>
       <c r="E11">
-        <v>3.129448602282177</v>
+        <v>3.121117894269818</v>
       </c>
       <c r="F11">
-        <v>-0.1941119988345008</v>
+        <v>0.5647278257767674</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1">
-        <v>2584</v>
+        <v>2594</v>
       </c>
       <c r="B12">
-        <v>2583</v>
+        <v>2593</v>
       </c>
       <c r="C12">
-        <v>-0.0003160635176729064</v>
+        <v>0.003966426291837702</v>
       </c>
       <c r="D12">
-        <v>-3.120485955945912</v>
+        <v>-3.115645441163885</v>
       </c>
       <c r="E12">
-        <v>3.119853828910566</v>
+        <v>3.12357829374756</v>
       </c>
       <c r="F12">
-        <v>-2.757889826064108</v>
+        <v>0.7337106717107744</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1">
-        <v>2585</v>
+        <v>2595</v>
       </c>
       <c r="B13">
-        <v>2584</v>
+        <v>2594</v>
       </c>
       <c r="C13">
-        <v>-0.01904936574368427</v>
+        <v>0.005522804756670538</v>
       </c>
       <c r="D13">
-        <v>-3.140426570926785</v>
+        <v>-3.113614120353636</v>
       </c>
       <c r="E13">
-        <v>3.102327839439416</v>
+        <v>3.124659729866977</v>
       </c>
       <c r="F13">
-        <v>-0.4002673789657685</v>
+        <v>0.536079336786166</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1">
-        <v>2586</v>
+        <v>2596</v>
       </c>
       <c r="B14">
-        <v>2585</v>
+        <v>2595</v>
       </c>
       <c r="C14">
-        <v>-0.004965963044035092</v>
+        <v>0.004390553748861367</v>
       </c>
       <c r="D14">
-        <v>-3.125773927297594</v>
+        <v>-3.114212140195309</v>
       </c>
       <c r="E14">
-        <v>3.115842001209524</v>
+        <v>3.122993247693032</v>
       </c>
       <c r="F14">
-        <v>-1.142869582362227</v>
+        <v>0.1282325458896949</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1">
-        <v>2587</v>
+        <v>2597</v>
       </c>
       <c r="B15">
-        <v>2586</v>
+        <v>2596</v>
       </c>
       <c r="C15">
-        <v>-0.008752408664834038</v>
+        <v>0.001423100342422512</v>
       </c>
       <c r="D15">
-        <v>-3.129265212349744</v>
+        <v>-3.116582523829012</v>
       </c>
       <c r="E15">
-        <v>3.111760395020076</v>
+        <v>3.119428724513857</v>
       </c>
       <c r="F15">
-        <v>0.9867763407233276</v>
+        <v>-0.5998304188618242</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1">
-        <v>2588</v>
+        <v>2598</v>
       </c>
       <c r="B16">
-        <v>2587</v>
+        <v>2597</v>
       </c>
       <c r="C16">
-        <v>0.005921821224190701</v>
+        <v>-0.003983431910163329</v>
       </c>
       <c r="D16">
-        <v>-3.114223567228524</v>
+        <v>-3.121474439017518</v>
       </c>
       <c r="E16">
-        <v>3.126067209676905</v>
+        <v>3.113507575197191</v>
       </c>
       <c r="F16">
-        <v>-1.846899343742336</v>
+        <v>-1.188817632231398</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1">
-        <v>2589</v>
+        <v>2599</v>
       </c>
       <c r="B17">
-        <v>2588</v>
+        <v>2598</v>
       </c>
       <c r="C17">
-        <v>-0.01176853218726848</v>
+        <v>-0.008842567493430431</v>
       </c>
       <c r="D17">
-        <v>-3.13212770656951</v>
+        <v>-3.126066478027568</v>
       </c>
       <c r="E17">
-        <v>3.108590642194973</v>
+        <v>3.108381343040707</v>
       </c>
       <c r="F17">
-        <v>0.9727483105653079</v>
+        <v>-1.73268947136469</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1">
-        <v>2590</v>
+        <v>2600</v>
       </c>
       <c r="B18">
-        <v>2589</v>
+        <v>2599</v>
       </c>
       <c r="C18">
-        <v>0.00494639853545692</v>
+        <v>-0.01384139055704908</v>
       </c>
       <c r="D18">
-        <v>-3.115040536654976</v>
+        <v>-3.131169992375977</v>
       </c>
       <c r="E18">
-        <v>3.12493333372589</v>
+        <v>3.103487211261879</v>
       </c>
       <c r="F18">
-        <v>0.7178137595702516</v>
+        <v>-2.191991140888483</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1">
-        <v>2591</v>
+        <v>2601</v>
       </c>
       <c r="B19">
-        <v>2590</v>
+        <v>2600</v>
       </c>
       <c r="C19">
-        <v>0.005295871686577455</v>
+        <v>-0.01930603190223656</v>
       </c>
       <c r="D19">
-        <v>-3.114209429487441</v>
+        <v>-3.137158950917028</v>
       </c>
       <c r="E19">
-        <v>3.124801172860595</v>
+        <v>3.098546887112555</v>
       </c>
       <c r="F19">
-        <v>2.77734404271115</v>
+        <v>-0.5897045893879849</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1">
-        <v>2592</v>
+        <v>2602</v>
       </c>
       <c r="B20">
-        <v>2591</v>
+        <v>2601</v>
       </c>
       <c r="C20">
-        <v>0.01979773379552452</v>
+        <v>-0.00726517616283337</v>
       </c>
       <c r="D20">
-        <v>-3.100931329849177</v>
+        <v>-3.12459573904395</v>
       </c>
       <c r="E20">
-        <v>3.140526797440225</v>
+        <v>3.110065386718283</v>
       </c>
       <c r="F20">
-        <v>-0.1958438227965154</v>
+        <v>0.6123162344814581</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1">
-        <v>2593</v>
+        <v>2603</v>
       </c>
       <c r="B21">
-        <v>2592</v>
+        <v>2602</v>
       </c>
       <c r="C21">
-        <v>0.0009798525505766396</v>
+        <v>0.004083519486913281</v>
       </c>
       <c r="D21">
-        <v>-3.119158189168665</v>
+        <v>-3.112738795280418</v>
       </c>
       <c r="E21">
-        <v>3.121117894269818</v>
+        <v>3.120905834254244</v>
       </c>
       <c r="F21">
-        <v>0.5647278257767674</v>
+        <v>0.293487060193165</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1">
-        <v>2594</v>
+        <v>2604</v>
       </c>
       <c r="B22">
-        <v>2593</v>
+        <v>2603</v>
       </c>
       <c r="C22">
-        <v>0.003966426291837702</v>
+        <v>0.002874957560432954</v>
       </c>
       <c r="D22">
-        <v>-3.115645441163885</v>
+        <v>-3.113368418781396</v>
       </c>
       <c r="E22">
-        <v>3.12357829374756</v>
+        <v>3.119118333902262</v>
       </c>
       <c r="F22">
-        <v>0.7337106717107744</v>
+        <v>0.9869976938772673</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1">
-        <v>2595</v>
+        <v>2605</v>
       </c>
       <c r="B23">
-        <v>2594</v>
+        <v>2604</v>
       </c>
       <c r="C23">
-        <v>0.005522804756670538</v>
+        <v>0.00840364083287759</v>
       </c>
       <c r="D23">
-        <v>-3.113614120353636</v>
+        <v>-3.107470613995574</v>
       </c>
       <c r="E23">
-        <v>3.124659729866977</v>
+        <v>3.124277895661329</v>
       </c>
       <c r="F23">
-        <v>0.536079336786166</v>
+        <v>2.251253760440974</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1">
-        <v>2596</v>
+        <v>2606</v>
       </c>
       <c r="B24">
-        <v>2595</v>
+        <v>2605</v>
       </c>
       <c r="C24">
-        <v>0.004390553748861367</v>
+        <v>0.02023849780464498</v>
       </c>
       <c r="D24">
-        <v>-3.114212140195309</v>
+        <v>-3.096227889718754</v>
       </c>
       <c r="E24">
-        <v>3.122993247693032</v>
+        <v>3.136704885328044</v>
       </c>
       <c r="F24">
-        <v>0.1282325458896949</v>
+        <v>-0.1747488430714483</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1">
-        <v>2597</v>
+        <v>2607</v>
       </c>
       <c r="B25">
-        <v>2596</v>
+        <v>2606</v>
       </c>
       <c r="C25">
-        <v>0.001423100342422512</v>
+        <v>0.0009593251180105393</v>
       </c>
       <c r="D25">
-        <v>-3.116582523829012</v>
+        <v>-3.114918037074689</v>
       </c>
       <c r="E25">
-        <v>3.119428724513857</v>
+        <v>3.11683668731071</v>
       </c>
       <c r="F25">
-        <v>-0.5998304188618242</v>
+        <v>0.0218603126895367</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1">
-        <v>2598</v>
+        <v>2608</v>
       </c>
       <c r="B26">
-        <v>2597</v>
+        <v>2607</v>
       </c>
       <c r="C26">
-        <v>-0.003983431910163329</v>
+        <v>0.000301081507128141</v>
       </c>
       <c r="D26">
-        <v>-3.121474439017518</v>
+        <v>-3.114978730270432</v>
       </c>
       <c r="E26">
-        <v>3.113507575197191</v>
+        <v>3.115580893284688</v>
       </c>
       <c r="F26">
-        <v>-1.188817632231398</v>
+        <v>1.583032082212554</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1">
-        <v>2599</v>
+        <v>2609</v>
       </c>
       <c r="B27">
-        <v>2598</v>
+        <v>2608</v>
       </c>
       <c r="C27">
-        <v>-0.008842567493430431</v>
+        <v>0.01342082377627887</v>
       </c>
       <c r="D27">
-        <v>-3.126066478027568</v>
+        <v>-3.101853995116497</v>
       </c>
       <c r="E27">
-        <v>3.108381343040707</v>
+        <v>3.128695642669054</v>
       </c>
       <c r="F27">
-        <v>-1.73268947136469</v>
+        <v>0.8782320557839007</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1">
-        <v>2600</v>
+        <v>2610</v>
       </c>
       <c r="B28">
-        <v>2599</v>
+        <v>2609</v>
       </c>
       <c r="C28">
-        <v>-0.01384139055704908</v>
+        <v>0.009281537891322036</v>
       </c>
       <c r="D28">
-        <v>-3.131169992375977</v>
+        <v>-3.105572912289548</v>
       </c>
       <c r="E28">
-        <v>3.103487211261879</v>
+        <v>3.124135988072193</v>
       </c>
       <c r="F28">
-        <v>-2.191991140888483</v>
+        <v>-0.9643276271804169</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1">
-        <v>2601</v>
+        <v>2611</v>
       </c>
       <c r="B29">
-        <v>2600</v>
+        <v>2610</v>
       </c>
       <c r="C29">
-        <v>-0.01930603190223656</v>
+        <v>-0.007101163613415173</v>
       </c>
       <c r="D29">
-        <v>-3.137158950917028</v>
+        <v>-3.121582727854495</v>
       </c>
       <c r="E29">
-        <v>3.098546887112555</v>
+        <v>3.107380400627664</v>
       </c>
       <c r="F29">
-        <v>-0.5897045893879849</v>
+        <v>-0.06462035766059415</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1">
-        <v>2602</v>
+        <v>2612</v>
       </c>
       <c r="B30">
-        <v>2601</v>
+        <v>2611</v>
       </c>
       <c r="C30">
-        <v>-0.00726517616283337</v>
+        <v>-0.001403708769731339</v>
       </c>
       <c r="D30">
-        <v>-3.12459573904395</v>
+        <v>-3.115289578741825</v>
       </c>
       <c r="E30">
-        <v>3.110065386718283</v>
+        <v>3.112482161202363</v>
       </c>
       <c r="F30">
-        <v>0.6123162344814581</v>
+        <v>-0.453515516539138</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1">
-        <v>2603</v>
+        <v>2613</v>
       </c>
       <c r="B31">
-        <v>2602</v>
+        <v>2612</v>
       </c>
       <c r="C31">
-        <v>0.004083519486913281</v>
+        <v>-0.004031180050627567</v>
       </c>
       <c r="D31">
-        <v>-3.112738795280418</v>
+        <v>-3.117369212780833</v>
       </c>
       <c r="E31">
-        <v>3.120905834254244</v>
+        <v>3.109306852679577</v>
       </c>
       <c r="F31">
-        <v>0.293487060193165</v>
+        <v>3.237079914202212</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1">
-        <v>2604</v>
+        <v>2614</v>
       </c>
       <c r="B32">
-        <v>2603</v>
+        <v>2613</v>
       </c>
       <c r="C32">
-        <v>0.002874957560432954</v>
+        <v>0.0263499780334136</v>
       </c>
       <c r="D32">
-        <v>-3.113368418781396</v>
+        <v>-3.088871936909347</v>
       </c>
       <c r="E32">
-        <v>3.119118333902262</v>
+        <v>3.141571892976174</v>
       </c>
       <c r="F32">
-        <v>0.9869976938772673</v>
+        <v>2.46312773215509</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1">
-        <v>2605</v>
+        <v>2615</v>
       </c>
       <c r="B33">
-        <v>2604</v>
+        <v>2614</v>
       </c>
       <c r="C33">
-        <v>0.00840364083287759</v>
+        <v>0.02678089603148581</v>
       </c>
       <c r="D33">
-        <v>-3.107470613995574</v>
+        <v>-3.089243433325535</v>
       </c>
       <c r="E33">
-        <v>3.124277895661329</v>
+        <v>3.142805225388507</v>
       </c>
       <c r="F33">
-        <v>2.251253760440974</v>
+        <v>2.304063120996336</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1">
-        <v>2606</v>
+        <v>2616</v>
       </c>
       <c r="B34">
-        <v>2605</v>
+        <v>2615</v>
       </c>
       <c r="C34">
-        <v>0.02023849780464498</v>
+        <v>0.02764767539184271</v>
       </c>
       <c r="D34">
-        <v>-3.096227889718754</v>
+        <v>-3.089002001356967</v>
       </c>
       <c r="E34">
-        <v>3.136704885328044</v>
+        <v>3.144297352140653</v>
       </c>
       <c r="F34">
-        <v>-0.1747488430714483</v>
+        <v>-3.870136751709463</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1">
-        <v>2607</v>
+        <v>2617</v>
       </c>
       <c r="B35">
-        <v>2606</v>
+        <v>2616</v>
       </c>
       <c r="C35">
-        <v>0.0009593251180105393</v>
+        <v>-0.03189088757354303</v>
       </c>
       <c r="D35">
-        <v>-3.114918037074689</v>
+        <v>-3.151518158262279</v>
       </c>
       <c r="E35">
-        <v>3.11683668731071</v>
+        <v>3.087736383115193</v>
       </c>
       <c r="F35">
-        <v>0.0218603126895367</v>
+        <v>1.238405919972152</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1">
-        <v>2608</v>
+        <v>2618</v>
       </c>
       <c r="B36">
-        <v>2607</v>
+        <v>2617</v>
       </c>
       <c r="C36">
-        <v>0.000301081507128141</v>
+        <v>0.006746259132168198</v>
       </c>
       <c r="D36">
-        <v>-3.114978730270432</v>
+        <v>-3.112664003147754</v>
       </c>
       <c r="E36">
-        <v>3.115580893284688</v>
+        <v>3.126156521412091</v>
       </c>
       <c r="F36">
-        <v>1.583032082212554</v>
+        <v>0.2663117419483108</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1">
-        <v>2609</v>
+        <v>2619</v>
       </c>
       <c r="B37">
-        <v>2608</v>
+        <v>2618</v>
       </c>
       <c r="C37">
-        <v>0.01342082377627887</v>
+        <v>0.002982301701750928</v>
       </c>
       <c r="D37">
-        <v>-3.101853995116497</v>
+        <v>-3.115847952623648</v>
       </c>
       <c r="E37">
-        <v>3.128695642669054</v>
+        <v>3.121812556027149</v>
       </c>
       <c r="F37">
-        <v>0.8782320557839007</v>
+        <v>-0.8423265006054947</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1">
-        <v>2610</v>
+        <v>2620</v>
       </c>
       <c r="B38">
-        <v>2609</v>
+        <v>2619</v>
       </c>
       <c r="C38">
-        <v>0.009281537891322036</v>
+        <v>-0.006561895884316632</v>
       </c>
       <c r="D38">
-        <v>-3.105572912289548</v>
+        <v>-3.124964709707254</v>
       </c>
       <c r="E38">
-        <v>3.124135988072193</v>
+        <v>3.111840917938621</v>
       </c>
       <c r="F38">
-        <v>-0.9643276271804169</v>
+        <v>-1.162079896225343</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1">
-        <v>2611</v>
+        <v>2621</v>
       </c>
       <c r="B39">
-        <v>2610</v>
+        <v>2620</v>
       </c>
       <c r="C39">
-        <v>-0.007101163613415173</v>
+        <v>-0.01045164545447222</v>
       </c>
       <c r="D39">
-        <v>-3.121582727854495</v>
+        <v>-3.128573182661775</v>
       </c>
       <c r="E39">
-        <v>3.107380400627664</v>
+        <v>3.107669891752831</v>
       </c>
       <c r="F39">
-        <v>-0.06462035766059415</v>
+        <v>1.38876726789956</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1">
-        <v>2612</v>
+        <v>2622</v>
       </c>
       <c r="B40">
-        <v>2611</v>
+        <v>2621</v>
       </c>
       <c r="C40">
-        <v>-0.001403708769731339</v>
+        <v>0.01006852085718399</v>
       </c>
       <c r="D40">
-        <v>-3.115289578741825</v>
+        <v>-3.107918183493052</v>
       </c>
       <c r="E40">
-        <v>3.112482161202363</v>
+        <v>3.128055225207421</v>
       </c>
       <c r="F40">
-        <v>-0.453515516539138</v>
+        <v>-0.8683122573461155</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="1">
-        <v>2613</v>
+        <v>2623</v>
       </c>
       <c r="B41">
-        <v>2612</v>
+        <v>2622</v>
       </c>
       <c r="C41">
-        <v>-0.004031180050627567</v>
+        <v>-0.005742020664370504</v>
       </c>
       <c r="D41">
-        <v>-3.117369212780833</v>
+        <v>-3.123315388842109</v>
       </c>
       <c r="E41">
-        <v>3.109306852679577</v>
+        <v>3.111831347513369</v>
       </c>
       <c r="F41">
-        <v>3.237079914202212</v>
+        <v>0.4557704181316069</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="1">
-        <v>2614</v>
+        <v>2624</v>
       </c>
       <c r="B42">
-        <v>2613</v>
+        <v>2623</v>
       </c>
       <c r="C42">
-        <v>0.0263499780334136</v>
+        <v>0.002919904164542686</v>
       </c>
       <c r="D42">
-        <v>-3.088871936909347</v>
+        <v>-3.11410921047251</v>
       </c>
       <c r="E42">
-        <v>3.141571892976174</v>
+        <v>3.119949018801595</v>
       </c>
       <c r="F42">
-        <v>2.46312773215509</v>
+        <v>-2.025332826785498</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="1">
-        <v>2615</v>
+        <v>2625</v>
       </c>
       <c r="B43">
-        <v>2614</v>
+        <v>2624</v>
       </c>
       <c r="C43">
-        <v>0.02678089603148581</v>
+        <v>-0.01535553432111422</v>
       </c>
       <c r="D43">
-        <v>-3.089243433325535</v>
+        <v>-3.132756782634662</v>
       </c>
       <c r="E43">
-        <v>3.142805225388507</v>
+        <v>3.102045713992434</v>
       </c>
       <c r="F43">
-        <v>2.304063120996336</v>
+        <v>0.2738285018021536</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="1">
-        <v>2616</v>
+        <v>2626</v>
       </c>
       <c r="B44">
-        <v>2615</v>
+        <v>2625</v>
       </c>
       <c r="C44">
-        <v>0.02764767539184271</v>
+        <v>0.0003050398974996302</v>
       </c>
       <c r="D44">
-        <v>-3.089002001356967</v>
+        <v>-3.116521987627126</v>
       </c>
       <c r="E44">
-        <v>3.144297352140653</v>
+        <v>3.117132067422125</v>
       </c>
       <c r="F44">
-        <v>-3.870136751709463</v>
+        <v>-1.184948270128139</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1">
-        <v>2617</v>
+        <v>2627</v>
       </c>
       <c r="B45">
-        <v>2616</v>
+        <v>2626</v>
       </c>
       <c r="C45">
-        <v>-0.03189088757354303</v>
+        <v>-0.009045109476242458</v>
       </c>
       <c r="D45">
-        <v>-3.151518158262279</v>
+        <v>-3.125608442016478</v>
       </c>
       <c r="E45">
-        <v>3.087736383115193</v>
+        <v>3.107518223063994</v>
       </c>
       <c r="F45">
-        <v>1.238405919972152</v>
+        <v>0.3187761704873004</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1">
-        <v>2618</v>
+        <v>2628</v>
       </c>
       <c r="B46">
-        <v>2617</v>
+        <v>2627</v>
       </c>
       <c r="C46">
-        <v>0.006746259132168198</v>
+        <v>0.001332878606328157</v>
       </c>
       <c r="D46">
-        <v>-3.112664003147754</v>
+        <v>-3.114662427996331</v>
       </c>
       <c r="E46">
-        <v>3.126156521412091</v>
+        <v>3.117328185208987</v>
       </c>
       <c r="F46">
-        <v>0.2663117419483108</v>
+        <v>2.514274492135282</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="1">
-        <v>2619</v>
+        <v>2629</v>
       </c>
       <c r="B47">
-        <v>2618</v>
+        <v>2628</v>
       </c>
       <c r="C47">
-        <v>0.002982301701750928</v>
+        <v>0.01946602058363561</v>
       </c>
       <c r="D47">
-        <v>-3.115847952623648</v>
+        <v>-3.097417401565718</v>
       </c>
       <c r="E47">
-        <v>3.121812556027149</v>
+        <v>3.136349442732989</v>
       </c>
       <c r="F47">
-        <v>-0.8423265006054947</v>
+        <v>-0.2486017439461641</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1">
-        <v>2620</v>
+        <v>2630</v>
       </c>
       <c r="B48">
-        <v>2619</v>
+        <v>2629</v>
       </c>
       <c r="C48">
-        <v>-0.006561895884316632</v>
+        <v>0.0003771059960111893</v>
       </c>
       <c r="D48">
-        <v>-3.124964709707254</v>
+        <v>-3.115930302420478</v>
       </c>
       <c r="E48">
-        <v>3.111840917938621</v>
+        <v>3.116684514412501</v>
       </c>
       <c r="F48">
-        <v>-1.162079896225343</v>
+        <v>-0.4365457509639903</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="1">
-        <v>2621</v>
+        <v>2631</v>
       </c>
       <c r="B49">
-        <v>2620</v>
+        <v>2630</v>
       </c>
       <c r="C49">
-        <v>-0.01045164545447222</v>
+        <v>-0.003266016482174117</v>
       </c>
       <c r="D49">
-        <v>-3.128573182661775</v>
+        <v>-3.119025615788131</v>
       </c>
       <c r="E49">
-        <v>3.107669891752831</v>
+        <v>3.112493582823782</v>
       </c>
       <c r="F49">
-        <v>1.38876726789956</v>
+        <v>-0.2085506491021683</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="1">
-        <v>2622</v>
+        <v>2632</v>
       </c>
       <c r="B50">
-        <v>2621</v>
+        <v>2631</v>
       </c>
       <c r="C50">
-        <v>0.01006852085718399</v>
+        <v>-0.001962669734409152</v>
       </c>
       <c r="D50">
-        <v>-3.107918183493052</v>
+        <v>-3.117139961298444</v>
       </c>
       <c r="E50">
-        <v>3.128055225207421</v>
+        <v>3.113214621829626</v>
       </c>
       <c r="F50">
-        <v>-0.8683122573461155</v>
+        <v>1.717935243854551</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="1">
-        <v>2623</v>
+        <v>2633</v>
       </c>
       <c r="B51">
-        <v>2622</v>
+        <v>2632</v>
       </c>
       <c r="C51">
-        <v>-0.005742020664370504</v>
+        <v>0.01269944866260217</v>
       </c>
       <c r="D51">
-        <v>-3.123315388842109</v>
+        <v>-3.10257899513932</v>
       </c>
       <c r="E51">
-        <v>3.111831347513369</v>
+        <v>3.127977892464525</v>
       </c>
       <c r="F51">
-        <v>0.4557704181316069</v>
+        <v>-0.2054232439720138</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="1">
-        <v>2624</v>
+        <v>2634</v>
       </c>
       <c r="B52">
-        <v>2623</v>
+        <v>2633</v>
       </c>
       <c r="C52">
-        <v>0.002919904164542686</v>
+        <v>-7.539616779061661E-05</v>
       </c>
       <c r="D52">
-        <v>-3.11410921047251</v>
+        <v>-3.114773342295539</v>
       </c>
       <c r="E52">
-        <v>3.119949018801595</v>
+        <v>3.114622549959959</v>
       </c>
       <c r="F52">
-        <v>-2.025332826785498</v>
+        <v>1.02292217648623</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="1">
-        <v>2625</v>
+        <v>2635</v>
       </c>
       <c r="B53">
-        <v>2624</v>
+        <v>2634</v>
       </c>
       <c r="C53">
-        <v>-0.01535553432111422</v>
+        <v>0.007625463458059312</v>
       </c>
       <c r="D53">
-        <v>-3.132756782634662</v>
+        <v>-3.106726294968483</v>
       </c>
       <c r="E53">
-        <v>3.102045713992434</v>
+        <v>3.121977221884602</v>
       </c>
       <c r="F53">
-        <v>0.2738285018021536</v>
+        <v>2.353523092513665</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="1">
-        <v>2626</v>
+        <v>2636</v>
       </c>
       <c r="B54">
-        <v>2625</v>
+        <v>2635</v>
       </c>
       <c r="C54">
-        <v>0.0003050398974996302</v>
+        <v>0.01934020619811355</v>
       </c>
       <c r="D54">
-        <v>-3.116521987627126</v>
+        <v>-3.095708433822678</v>
       </c>
       <c r="E54">
-        <v>3.117132067422125</v>
+        <v>3.134388846218905</v>
       </c>
       <c r="F54">
-        <v>-1.184948270128139</v>
+        <v>0.1787665586813425</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="1">
-        <v>2627</v>
+        <v>2637</v>
       </c>
       <c r="B55">
-        <v>2626</v>
+        <v>2636</v>
       </c>
       <c r="C55">
-        <v>-0.009045109476242458</v>
+        <v>0.003697991233850024</v>
       </c>
       <c r="D55">
-        <v>-3.125608442016478</v>
+        <v>-3.110765674351326</v>
       </c>
       <c r="E55">
-        <v>3.107518223063994</v>
+        <v>3.118161656819026</v>
       </c>
       <c r="F55">
-        <v>0.3187761704873004</v>
+        <v>3.048897485272928</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="1">
-        <v>2628</v>
+        <v>2638</v>
       </c>
       <c r="B56">
-        <v>2627</v>
+        <v>2637</v>
       </c>
       <c r="C56">
-        <v>0.001332878606328157</v>
+        <v>0.025091957423091</v>
       </c>
       <c r="D56">
-        <v>-3.114662427996331</v>
+        <v>-3.090949682272855</v>
       </c>
       <c r="E56">
-        <v>3.117328185208987</v>
+        <v>3.141133597119037</v>
       </c>
       <c r="F56">
-        <v>2.514274492135282</v>
+        <v>-0.3277743221844709</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="1">
-        <v>2629</v>
+        <v>2639</v>
       </c>
       <c r="B57">
-        <v>2628</v>
+        <v>2638</v>
       </c>
       <c r="C57">
-        <v>0.01946602058363561</v>
+        <v>0.0005295522991827159</v>
       </c>
       <c r="D57">
-        <v>-3.097417401565718</v>
+        <v>-3.114950476678724</v>
       </c>
       <c r="E57">
-        <v>3.136349442732989</v>
+        <v>3.116009581277089</v>
       </c>
       <c r="F57">
-        <v>-0.2486017439461641</v>
+        <v>2.36652265374877</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="1">
-        <v>2630</v>
+        <v>2640</v>
       </c>
       <c r="B58">
-        <v>2629</v>
+        <v>2639</v>
       </c>
       <c r="C58">
-        <v>0.0003771059960111893</v>
+        <v>0.01881710999295455</v>
       </c>
       <c r="D58">
-        <v>-3.115930302420478</v>
+        <v>-3.097380527372008</v>
       </c>
       <c r="E58">
-        <v>3.116684514412501</v>
+        <v>3.135014747357917</v>
       </c>
       <c r="F58">
-        <v>-0.4365457509639903</v>
+        <v>-0.5295019935738665</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="1">
-        <v>2631</v>
+        <v>2641</v>
       </c>
       <c r="B59">
-        <v>2630</v>
+        <v>2640</v>
       </c>
       <c r="C59">
-        <v>-0.003266016482174117</v>
+        <v>-0.001578469271426353</v>
       </c>
       <c r="D59">
-        <v>-3.119025615788131</v>
+        <v>-3.11725600853797</v>
       </c>
       <c r="E59">
-        <v>3.112493582823782</v>
+        <v>3.114099069995117</v>
       </c>
       <c r="F59">
-        <v>-0.2085506491021683</v>
+        <v>-1.297728135872145</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="1">
-        <v>2632</v>
+        <v>2642</v>
       </c>
       <c r="B60">
-        <v>2631</v>
+        <v>2641</v>
       </c>
       <c r="C60">
-        <v>-0.001962669734409152</v>
+        <v>-0.01029653818284434</v>
       </c>
       <c r="D60">
-        <v>-3.117139961298444</v>
+        <v>-3.125776222757863</v>
       </c>
       <c r="E60">
-        <v>3.113214621829626</v>
+        <v>3.105183146392174</v>
       </c>
       <c r="F60">
-        <v>1.717935243854551</v>
+        <v>-0.3078109394576423</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="1">
-        <v>2633</v>
+        <v>2643</v>
       </c>
       <c r="B61">
-        <v>2632</v>
+        <v>2642</v>
       </c>
       <c r="C61">
-        <v>0.01269944866260217</v>
+        <v>-0.00377987483286079</v>
       </c>
       <c r="D61">
-        <v>-3.10257899513932</v>
+        <v>-3.118690548256743</v>
       </c>
       <c r="E61">
-        <v>3.127977892464525</v>
+        <v>3.111130798591021</v>
       </c>
       <c r="F61">
-        <v>-0.2054232439720138</v>
+        <v>2.361115015982485</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="1">
-        <v>2634</v>
+        <v>2644</v>
       </c>
       <c r="B62">
-        <v>2633</v>
+        <v>2643</v>
       </c>
       <c r="C62">
-        <v>-7.539616779061661E-05</v>
+        <v>0.01762071880686145</v>
       </c>
       <c r="D62">
-        <v>-3.114773342295539</v>
+        <v>-3.098005279338943</v>
       </c>
       <c r="E62">
-        <v>3.114622549959959</v>
+        <v>3.133246716952666</v>
       </c>
       <c r="F62">
-        <v>1.02292217648623</v>
+        <v>1.882803311533188</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="1">
-        <v>2635</v>
+        <v>2645</v>
       </c>
       <c r="B63">
-        <v>2634</v>
+        <v>2644</v>
       </c>
       <c r="C63">
-        <v>0.007625463458059312</v>
+        <v>0.01805319749364656</v>
       </c>
       <c r="D63">
-        <v>-3.106726294968483</v>
+        <v>-3.097794078767312</v>
       </c>
       <c r="E63">
-        <v>3.121977221884602</v>
+        <v>3.133900473754605</v>
       </c>
       <c r="F63">
-        <v>2.353523092513665</v>
+        <v>1.484767446709423</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="1">
-        <v>2636</v>
+        <v>2646</v>
       </c>
       <c r="B64">
-        <v>2635</v>
+        <v>2645</v>
       </c>
       <c r="C64">
-        <v>0.01934020619811355</v>
+        <v>0.01549321593715555</v>
       </c>
       <c r="D64">
-        <v>-3.095708433822678</v>
+        <v>-3.100266203093833</v>
       </c>
       <c r="E64">
-        <v>3.134388846218905</v>
+        <v>3.131252634968144</v>
       </c>
       <c r="F64">
-        <v>0.1787665586813425</v>
+        <v>2.639528406695479</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="1">
-        <v>2637</v>
+        <v>2647</v>
       </c>
       <c r="B65">
-        <v>2636</v>
+        <v>2646</v>
       </c>
       <c r="C65">
-        <v>0.003697991233850024</v>
+        <v>0.0271789229630845</v>
       </c>
       <c r="D65">
-        <v>-3.110765674351326</v>
+        <v>-3.0895952417143</v>
       </c>
       <c r="E65">
-        <v>3.118161656819026</v>
+        <v>3.143953087640468</v>
       </c>
       <c r="F65">
-        <v>3.048897485272928</v>
+        <v>2.052163572079735</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="1">
-        <v>2638</v>
+        <v>2648</v>
       </c>
       <c r="B66">
-        <v>2637</v>
+        <v>2647</v>
       </c>
       <c r="C66">
-        <v>0.025091957423091</v>
+        <v>0.02521813836594289</v>
       </c>
       <c r="D66">
-        <v>-3.090949682272855</v>
+        <v>-3.09192093890979</v>
       </c>
       <c r="E66">
-        <v>3.141133597119037</v>
+        <v>3.142357215641676</v>
       </c>
       <c r="F66">
-        <v>-0.3277743221844709</v>
+        <v>-2.852808361453807</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="1">
-        <v>2639</v>
+        <v>2649</v>
       </c>
       <c r="B67">
-        <v>2638</v>
+        <v>2648</v>
       </c>
       <c r="C67">
-        <v>0.0005295522991827159</v>
+        <v>-0.02355036150504952</v>
       </c>
       <c r="D67">
-        <v>-3.114950476678724</v>
+        <v>-3.142025909185205</v>
       </c>
       <c r="E67">
-        <v>3.116009581277089</v>
+        <v>3.094925186175106</v>
       </c>
       <c r="F67">
-        <v>2.36652265374877</v>
+        <v>-0.4834820054584021</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="1">
-        <v>2640</v>
+        <v>2650</v>
       </c>
       <c r="B68">
-        <v>2639</v>
+        <v>2649</v>
       </c>
       <c r="C68">
-        <v>0.01881710999295455</v>
+        <v>-0.00764603748058118</v>
       </c>
       <c r="D68">
-        <v>-3.097380527372008</v>
+        <v>-3.125582009322571</v>
       </c>
       <c r="E68">
-        <v>3.135014747357917</v>
+        <v>3.110289934361409</v>
       </c>
       <c r="F68">
-        <v>-0.5295019935738665</v>
+        <v>0.1076426368738836</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="1">
-        <v>2641</v>
+        <v>2651</v>
       </c>
       <c r="B69">
-        <v>2640</v>
+        <v>2650</v>
       </c>
       <c r="C69">
-        <v>-0.001578469271426353</v>
+        <v>4.350501902240268E-05</v>
       </c>
       <c r="D69">
-        <v>-3.11725600853797</v>
+        <v>-3.117307201968253</v>
       </c>
       <c r="E69">
-        <v>3.114099069995117</v>
+        <v>3.117394212006297</v>
       </c>
       <c r="F69">
-        <v>-1.297728135872145</v>
+        <v>-0.9729806488366854</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="1">
-        <v>2642</v>
+        <v>2652</v>
       </c>
       <c r="B70">
-        <v>2641</v>
+        <v>2651</v>
       </c>
       <c r="C70">
-        <v>-0.01029653818284434</v>
+        <v>-0.009177686849381861</v>
       </c>
       <c r="D70">
-        <v>-3.125776222757863</v>
+        <v>-3.126160507315386</v>
       </c>
       <c r="E70">
-        <v>3.105183146392174</v>
+        <v>3.107805133616622</v>
       </c>
       <c r="F70">
-        <v>-0.3078109394576423</v>
+        <v>-1.642972334966419</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="1">
-        <v>2643</v>
+        <v>2653</v>
       </c>
       <c r="B71">
-        <v>2642</v>
+        <v>2652</v>
       </c>
       <c r="C71">
-        <v>-0.00377987483286079</v>
+        <v>-0.01709382183041089</v>
       </c>
       <c r="D71">
-        <v>-3.118690548256743</v>
+        <v>-3.13410915145325</v>
       </c>
       <c r="E71">
-        <v>3.111130798591021</v>
+        <v>3.099921507792428</v>
       </c>
       <c r="F71">
-        <v>2.361115015982485</v>
+        <v>1.152908735066216</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="1">
-        <v>2644</v>
+        <v>2654</v>
       </c>
       <c r="B72">
-        <v>2643</v>
+        <v>2653</v>
       </c>
       <c r="C72">
-        <v>0.01762071880686145</v>
+        <v>0.008686108998862963</v>
       </c>
       <c r="D72">
-        <v>-3.098005279338943</v>
+        <v>-3.108059534197827</v>
       </c>
       <c r="E72">
-        <v>3.133246716952666</v>
+        <v>3.125431752195553</v>
       </c>
       <c r="F72">
-        <v>1.882803311533188</v>
+        <v>-1.540184461150673</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="1">
-        <v>2645</v>
+        <v>2655</v>
       </c>
       <c r="B73">
-        <v>2644</v>
+        <v>2654</v>
       </c>
       <c r="C73">
-        <v>0.01805319749364656</v>
+        <v>-0.01296073455513574</v>
       </c>
       <c r="D73">
-        <v>-3.097794078767312</v>
+        <v>-3.129676313439265</v>
       </c>
       <c r="E73">
-        <v>3.133900473754605</v>
+        <v>3.103754844328993</v>
       </c>
       <c r="F73">
-        <v>1.484767446709423</v>
+        <v>-1.058800640882929</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="1">
-        <v>2646</v>
+        <v>2656</v>
       </c>
       <c r="B74">
-        <v>2645</v>
+        <v>2655</v>
       </c>
       <c r="C74">
-        <v>0.01549321593715555</v>
+        <v>-0.01165827232717873</v>
       </c>
       <c r="D74">
-        <v>-3.100266203093833</v>
+        <v>-3.128040657544598</v>
       </c>
       <c r="E74">
-        <v>3.131252634968144</v>
+        <v>3.10472411289024</v>
       </c>
       <c r="F74">
-        <v>2.639528406695479</v>
+        <v>0.354180629358769</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="1">
-        <v>2647</v>
+        <v>2657</v>
       </c>
       <c r="B75">
-        <v>2646</v>
+        <v>2656</v>
       </c>
       <c r="C75">
-        <v>0.0271789229630845</v>
+        <v>0.001775859219442476</v>
       </c>
       <c r="D75">
-        <v>-3.0895952417143</v>
+        <v>-3.114050841083096</v>
       </c>
       <c r="E75">
-        <v>3.143953087640468</v>
+        <v>3.117602559521981</v>
       </c>
       <c r="F75">
-        <v>2.052163572079735</v>
+        <v>-3.099265442802412</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="1">
-        <v>2648</v>
+        <v>2658</v>
       </c>
       <c r="B76">
-        <v>2647</v>
+        <v>2657</v>
       </c>
       <c r="C76">
-        <v>0.02521813836594289</v>
+        <v>-0.02829388466702154</v>
       </c>
       <c r="D76">
-        <v>-3.09192093890979</v>
+        <v>-3.145765070205881</v>
       </c>
       <c r="E76">
-        <v>3.142357215641676</v>
+        <v>3.089177300871838</v>
       </c>
       <c r="F76">
-        <v>-2.852808361453807</v>
+        <v>-5.018268798332404</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="1">
-        <v>2649</v>
+        <v>2659</v>
       </c>
       <c r="B77">
-        <v>2648</v>
+        <v>2658</v>
       </c>
       <c r="C77">
-        <v>-0.02355036150504952</v>
+        <v>-0.06208851934441173</v>
       </c>
       <c r="D77">
-        <v>-3.142025909185205</v>
+        <v>-3.184732906184242</v>
       </c>
       <c r="E77">
-        <v>3.094925186175106</v>
+        <v>3.060555867495419</v>
       </c>
       <c r="F77">
-        <v>-0.4834820054584021</v>
+        <v>4.440788848943988</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="1">
-        <v>2650</v>
+        <v>2660</v>
       </c>
       <c r="B78">
-        <v>2649</v>
+        <v>2659</v>
       </c>
       <c r="C78">
-        <v>-0.00764603748058118</v>
+        <v>0.03006885410712667</v>
       </c>
       <c r="D78">
-        <v>-3.125582009322571</v>
+        <v>-3.096655539687486</v>
       </c>
       <c r="E78">
-        <v>3.110289934361409</v>
+        <v>3.156793247901739</v>
       </c>
       <c r="F78">
-        <v>0.1076426368738836</v>
+        <v>-0.6974069336073363</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="1">
-        <v>2651</v>
+        <v>2661</v>
       </c>
       <c r="B79">
-        <v>2650</v>
+        <v>2660</v>
       </c>
       <c r="C79">
-        <v>4.350501902240268E-05</v>
+        <v>-0.001641017693237365</v>
       </c>
       <c r="D79">
-        <v>-3.117307201968253</v>
+        <v>-3.127899722429486</v>
       </c>
       <c r="E79">
-        <v>3.117394212006297</v>
+        <v>3.124617687043012</v>
       </c>
       <c r="F79">
-        <v>-0.9729806488366854</v>
+        <v>2.020659533484448</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="1">
-        <v>2652</v>
+        <v>2662</v>
       </c>
       <c r="B80">
-        <v>2651</v>
+        <v>2661</v>
       </c>
       <c r="C80">
-        <v>-0.009177686849381861</v>
+        <v>0.01483146935326951</v>
       </c>
       <c r="D80">
-        <v>-3.126160507315386</v>
+        <v>-3.111784229026756</v>
       </c>
       <c r="E80">
-        <v>3.107805133616622</v>
+        <v>3.141447167733295</v>
       </c>
       <c r="F80">
-        <v>-1.642972334966419</v>
+        <v>1.004652559667107</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="1">
-        <v>2653</v>
+        <v>2663</v>
       </c>
       <c r="B81">
-        <v>2652</v>
+        <v>2662</v>
       </c>
       <c r="C81">
-        <v>-0.01709382183041089</v>
+        <v>0.009844374414175044</v>
       </c>
       <c r="D81">
-        <v>-3.13410915145325</v>
+        <v>-3.116410006071429</v>
       </c>
       <c r="E81">
-        <v>3.099921507792428</v>
+        <v>3.136098754899779</v>
       </c>
       <c r="F81">
-        <v>1.152908735066216</v>
+        <v>3.302099309309003</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="1">
-        <v>2654</v>
+        <v>2664</v>
       </c>
       <c r="B82">
-        <v>2653</v>
+        <v>2663</v>
       </c>
       <c r="C82">
-        <v>0.008686108998862963</v>
+        <v>0.02899687778028265</v>
       </c>
       <c r="D82">
-        <v>-3.108059534197827</v>
+        <v>-3.099170285054268</v>
       </c>
       <c r="E82">
-        <v>3.125431752195553</v>
+        <v>3.157164040614833</v>
       </c>
       <c r="F82">
-        <v>-1.540184461150673</v>
+        <v>-1.934652694619743</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="1">
-        <v>2655</v>
+        <v>2665</v>
       </c>
       <c r="B83">
-        <v>2654</v>
+        <v>2664</v>
       </c>
       <c r="C83">
-        <v>-0.01296073455513574</v>
+        <v>-0.01058807214675156</v>
       </c>
       <c r="D83">
-        <v>-3.129676313439265</v>
+        <v>-3.139055238721428</v>
       </c>
       <c r="E83">
-        <v>3.103754844328993</v>
+        <v>3.117879094427925</v>
       </c>
       <c r="F83">
-        <v>-1.058800640882929</v>
+        <v>-1.028527066017304</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="1">
-        <v>2656</v>
+        <v>2666</v>
       </c>
       <c r="B84">
-        <v>2655</v>
+        <v>2665</v>
       </c>
       <c r="C84">
-        <v>-0.01165827232717873</v>
+        <v>-0.009275805203228987</v>
       </c>
       <c r="D84">
-        <v>-3.128040657544598</v>
+        <v>-3.137394437700994</v>
       </c>
       <c r="E84">
-        <v>3.10472411289024</v>
+        <v>3.118842827294536</v>
       </c>
       <c r="F84">
-        <v>0.354180629358769</v>
+        <v>0.7863736460214099</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="1">
-        <v>2657</v>
+        <v>2667</v>
       </c>
       <c r="B85">
-        <v>2656</v>
+        <v>2666</v>
       </c>
       <c r="C85">
-        <v>0.001775859219442476</v>
+        <v>0.004608061298908214</v>
       </c>
       <c r="D85">
-        <v>-3.114050841083096</v>
+        <v>-3.123069639111014</v>
       </c>
       <c r="E85">
-        <v>3.117602559521981</v>
+        <v>3.13228576170883</v>
       </c>
       <c r="F85">
-        <v>-3.099265442802412</v>
+        <v>-0.448598883143525</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="1">
-        <v>2658</v>
+        <v>2668</v>
       </c>
       <c r="B86">
-        <v>2657</v>
+        <v>2667</v>
       </c>
       <c r="C86">
-        <v>-0.02829388466702154</v>
+        <v>-0.002690154355964834</v>
       </c>
       <c r="D86">
-        <v>-3.145765070205881</v>
+        <v>-3.129828761900673</v>
       </c>
       <c r="E86">
-        <v>3.089177300871838</v>
+        <v>3.124448453188744</v>
       </c>
       <c r="F86">
-        <v>-5.018268798332404</v>
+        <v>-0.9032805112124009</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="1">
-        <v>2659</v>
+        <v>2669</v>
       </c>
       <c r="B87">
-        <v>2658</v>
+        <v>2668</v>
       </c>
       <c r="C87">
-        <v>-0.06208851934441173</v>
+        <v>-0.007084254235209239</v>
       </c>
       <c r="D87">
-        <v>-3.184732906184242</v>
+        <v>-3.133823494285202</v>
       </c>
       <c r="E87">
-        <v>3.060555867495419</v>
+        <v>3.119654985814783</v>
       </c>
       <c r="F87">
-        <v>4.440788848943988</v>
+        <v>-1.064244176225415</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="1">
-        <v>2660</v>
+        <v>2670</v>
       </c>
       <c r="B88">
-        <v>2659</v>
+        <v>2669</v>
       </c>
       <c r="C88">
-        <v>0.03006885410712667</v>
+        <v>-0.009049843668407886</v>
       </c>
       <c r="D88">
-        <v>-3.096655539687486</v>
+        <v>-3.13546052235278</v>
       </c>
       <c r="E88">
-        <v>3.156793247901739</v>
+        <v>3.117360835015964</v>
       </c>
       <c r="F88">
-        <v>-0.6974069336073363</v>
+        <v>-0.2678402213406983</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="1">
-        <v>2661</v>
+        <v>2671</v>
       </c>
       <c r="B89">
-        <v>2660</v>
+        <v>2670</v>
       </c>
       <c r="C89">
-        <v>-0.001641017693237365</v>
+        <v>-0.00327990077331923</v>
       </c>
       <c r="D89">
-        <v>-3.127899722429486</v>
+        <v>-3.129120474682303</v>
       </c>
       <c r="E89">
-        <v>3.124617687043012</v>
+        <v>3.122560673135665</v>
       </c>
       <c r="F89">
-        <v>2.020659533484448</v>
+        <v>-0.4800777343356266</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="1">
-        <v>2662</v>
+        <v>2672</v>
       </c>
       <c r="B90">
-        <v>2661</v>
+        <v>2671</v>
       </c>
       <c r="C90">
-        <v>0.01483146935326951</v>
+        <v>-0.004126073457887097</v>
       </c>
       <c r="D90">
-        <v>-3.111784229026756</v>
+        <v>-3.129433782158524</v>
       </c>
       <c r="E90">
-        <v>3.141447167733295</v>
+        <v>3.12118163524275</v>
       </c>
       <c r="F90">
-        <v>1.004652559667107</v>
+        <v>1.622947316697942</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="1">
-        <v>2663</v>
+        <v>2673</v>
       </c>
       <c r="B91">
-        <v>2662</v>
+        <v>2672</v>
       </c>
       <c r="C91">
-        <v>0.009844374414175044</v>
+        <v>0.01166998595022911</v>
       </c>
       <c r="D91">
-        <v>-3.116410006071429</v>
+        <v>-3.113661761214389</v>
       </c>
       <c r="E91">
-        <v>3.136098754899779</v>
+        <v>3.137001733114847</v>
       </c>
       <c r="F91">
-        <v>3.302099309309003</v>
+        <v>-1.738509733256777</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="1">
-        <v>2664</v>
+        <v>2674</v>
       </c>
       <c r="B92">
-        <v>2663</v>
+        <v>2673</v>
       </c>
       <c r="C92">
-        <v>0.02899687778028265</v>
+        <v>-0.0108553480368796</v>
       </c>
       <c r="D92">
-        <v>-3.099170285054268</v>
+        <v>-3.136306582281374</v>
       </c>
       <c r="E92">
-        <v>3.157164040614833</v>
+        <v>3.114595886207614</v>
       </c>
       <c r="F92">
-        <v>-1.934652694619743</v>
+        <v>1.681675403792848</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="1">
-        <v>2665</v>
+        <v>2675</v>
       </c>
       <c r="B93">
-        <v>2664</v>
+        <v>2674</v>
       </c>
       <c r="C93">
-        <v>-0.01058807214675156</v>
+        <v>0.009884887891685512</v>
       </c>
       <c r="D93">
-        <v>-3.139055238721428</v>
+        <v>-3.1156401854217</v>
       </c>
       <c r="E93">
-        <v>3.117879094427925</v>
+        <v>3.135409961205071</v>
       </c>
       <c r="F93">
-        <v>-1.028527066017304</v>
+        <v>-2.474946468965022</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="1">
-        <v>2666</v>
+        <v>2676</v>
       </c>
       <c r="B94">
-        <v>2665</v>
+        <v>2675</v>
       </c>
       <c r="C94">
-        <v>-0.009275805203228987</v>
+        <v>-0.01402084267641623</v>
       </c>
       <c r="D94">
-        <v>-3.137394437700994</v>
+        <v>-3.140379767132602</v>
       </c>
       <c r="E94">
-        <v>3.118842827294536</v>
+        <v>3.11233808177977</v>
       </c>
       <c r="F94">
-        <v>0.7863736460214099</v>
+        <v>0.6196766537510889</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="1">
-        <v>2667</v>
+        <v>2677</v>
       </c>
       <c r="B95">
-        <v>2666</v>
+        <v>2676</v>
       </c>
       <c r="C95">
-        <v>0.004608061298908214</v>
+        <v>0.003128036480140196</v>
       </c>
       <c r="D95">
-        <v>-3.123069639111014</v>
+        <v>-3.122756618363771</v>
       </c>
       <c r="E95">
-        <v>3.13228576170883</v>
+        <v>3.129012691324051</v>
       </c>
       <c r="F95">
-        <v>-0.448598883143525</v>
+        <v>4.602849436670287</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="1">
-        <v>2668</v>
+        <v>2678</v>
       </c>
       <c r="B96">
-        <v>2667</v>
+        <v>2677</v>
       </c>
       <c r="C96">
-        <v>-0.002690154355964834</v>
+        <v>0.02891282797748163</v>
       </c>
       <c r="D96">
-        <v>-3.129828761900673</v>
+        <v>-3.101226283414751</v>
       </c>
       <c r="E96">
-        <v>3.124448453188744</v>
+        <v>3.159051939369715</v>
       </c>
       <c r="F96">
-        <v>-0.9032805112124009</v>
+        <v>1.754430965090936</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="1">
-        <v>2669</v>
+        <v>2679</v>
       </c>
       <c r="B97">
-        <v>2668</v>
+        <v>2678</v>
       </c>
       <c r="C97">
-        <v>-0.007084254235209239</v>
+        <v>0.01755815119554402</v>
       </c>
       <c r="D97">
-        <v>-3.133823494285202</v>
+        <v>-3.112676604645237</v>
       </c>
       <c r="E97">
-        <v>3.119654985814783</v>
+        <v>3.147792907036325</v>
       </c>
       <c r="F97">
-        <v>-1.064244176225415</v>
+        <v>3.068381993860214</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="1">
-        <v>2670</v>
+        <v>2680</v>
       </c>
       <c r="B98">
-        <v>2669</v>
+        <v>2679</v>
       </c>
       <c r="C98">
-        <v>-0.009049843668407886</v>
+        <v>0.02881489203410553</v>
       </c>
       <c r="D98">
-        <v>-3.13546052235278</v>
+        <v>-3.10296562984337</v>
       </c>
       <c r="E98">
-        <v>3.117360835015964</v>
+        <v>3.160595413911581</v>
       </c>
       <c r="F98">
-        <v>-0.2678402213406983</v>
+        <v>-0.4931323836187218</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="1">
-        <v>2671</v>
+        <v>2681</v>
       </c>
       <c r="B99">
-        <v>2670</v>
+        <v>2680</v>
       </c>
       <c r="C99">
-        <v>-0.00327990077331923</v>
+        <v>8.166620862919138E-05</v>
       </c>
       <c r="D99">
-        <v>-3.129120474682303</v>
+        <v>-3.131176711461875</v>
       </c>
       <c r="E99">
-        <v>3.122560673135665</v>
+        <v>3.131340043879134</v>
       </c>
       <c r="F99">
-        <v>-0.4800777343356266</v>
+        <v>-2.684004378981353</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="1">
-        <v>2672</v>
+        <v>2682</v>
       </c>
       <c r="B100">
-        <v>2671</v>
+        <v>2681</v>
       </c>
       <c r="C100">
-        <v>-0.004126073457887097</v>
+        <v>-0.02201130148336033</v>
       </c>
       <c r="D100">
-        <v>-3.129433782158524</v>
+        <v>-3.154333285147092</v>
       </c>
       <c r="E100">
-        <v>3.12118163524275</v>
+        <v>3.110310682180371</v>
       </c>
       <c r="F100">
-        <v>1.622947316697942</v>
+        <v>2.170683489013481</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="1">
-        <v>2673</v>
+        <v>2683</v>
       </c>
       <c r="B101">
-        <v>2672</v>
+        <v>2682</v>
       </c>
       <c r="C101">
-        <v>0.01166998595022911</v>
+        <v>0.01320403250736157</v>
       </c>
       <c r="D101">
-        <v>-3.113661761214389</v>
+        <v>-3.11963217749949</v>
       </c>
       <c r="E101">
-        <v>3.137001733114847</v>
+        <v>3.146040242514213</v>
       </c>
       <c r="F101">
-        <v>-1.738509733256777</v>
+        <v>-0.5159694749143462</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="1">
-        <v>2674</v>
+        <v>2684</v>
       </c>
       <c r="B102">
-        <v>2673</v>
+        <v>2683</v>
       </c>
       <c r="C102">
-        <v>-0.0108553480368796</v>
+        <v>-0.001900905276541645</v>
       </c>
       <c r="D102">
-        <v>-3.136306582281374</v>
+        <v>-3.134217256050377</v>
       </c>
       <c r="E102">
-        <v>3.114595886207614</v>
+        <v>3.130415445497293</v>
       </c>
       <c r="F102">
-        <v>1.681675403792848</v>
+        <v>0.4982216711584719</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="1">
-        <v>2675</v>
+        <v>2685</v>
       </c>
       <c r="B103">
-        <v>2674</v>
+        <v>2684</v>
       </c>
       <c r="C103">
-        <v>0.009884887891685512</v>
+        <v>0.003309324964077889</v>
       </c>
       <c r="D103">
-        <v>-3.1156401854217</v>
+        <v>-3.128480638247313</v>
       </c>
       <c r="E103">
-        <v>3.135409961205071</v>
+        <v>3.13509928817547</v>
       </c>
       <c r="F103">
-        <v>-2.474946468965022</v>
+        <v>0.9363198870481426</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="1">
-        <v>2676</v>
+        <v>2686</v>
       </c>
       <c r="B104">
-        <v>2675</v>
+        <v>2685</v>
       </c>
       <c r="C104">
-        <v>-0.01402084267641623</v>
+        <v>0.007250225383220399</v>
       </c>
       <c r="D104">
-        <v>-3.140379767132602</v>
+        <v>-3.124155349181716</v>
       </c>
       <c r="E104">
-        <v>3.11233808177977</v>
+        <v>3.138655799948157</v>
       </c>
       <c r="F104">
-        <v>0.6196766537510889</v>
+        <v>0.5785937067043889</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="1">
-        <v>2677</v>
+        <v>2687</v>
       </c>
       <c r="B105">
-        <v>2676</v>
+        <v>2686</v>
       </c>
       <c r="C105">
-        <v>0.003128036480140196</v>
+        <v>0.005272031549717074</v>
       </c>
       <c r="D105">
-        <v>-3.122756618363771</v>
+        <v>-3.125625134241694</v>
       </c>
       <c r="E105">
-        <v>3.129012691324051</v>
+        <v>3.136169197341129</v>
       </c>
       <c r="F105">
-        <v>4.602849436670287</v>
+        <v>0.662138679827784</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="1">
-        <v>2678</v>
+        <v>2688</v>
       </c>
       <c r="B106">
-        <v>2677</v>
+        <v>2687</v>
       </c>
       <c r="C106">
-        <v>0.02891282797748163</v>
+        <v>0.00564813573218606</v>
       </c>
       <c r="D106">
-        <v>-3.101226283414751</v>
+        <v>-3.124764925039268</v>
       </c>
       <c r="E106">
-        <v>3.159051939369715</v>
+        <v>3.136061196503641</v>
       </c>
       <c r="F106">
-        <v>1.754430965090936</v>
+        <v>0.4678168455655829</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="1">
-        <v>2679</v>
+        <v>2689</v>
       </c>
       <c r="B107">
-        <v>2678</v>
+        <v>2688</v>
       </c>
       <c r="C107">
-        <v>0.01755815119554402</v>
+        <v>0.004279481171686736</v>
       </c>
       <c r="D107">
-        <v>-3.112676604645237</v>
+        <v>-3.125599995163429</v>
       </c>
       <c r="E107">
-        <v>3.147792907036325</v>
+        <v>3.134158957506803</v>
       </c>
       <c r="F107">
-        <v>3.068381993860214</v>
+        <v>-3.967025238314914</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="1">
-        <v>2680</v>
+        <v>2690</v>
       </c>
       <c r="B108">
-        <v>2679</v>
+        <v>2689</v>
       </c>
       <c r="C108">
-        <v>0.02881489203410553</v>
+        <v>-0.02767143375932435</v>
       </c>
       <c r="D108">
-        <v>-3.10296562984337</v>
+        <v>-3.160566593073934</v>
       </c>
       <c r="E108">
-        <v>3.160595413911581</v>
+        <v>3.105223725555285</v>
       </c>
       <c r="F108">
-        <v>-0.4931323836187218</v>
+        <v>-1.631949182860115</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="1">
-        <v>2681</v>
+        <v>2691</v>
       </c>
       <c r="B109">
-        <v>2680</v>
+        <v>2690</v>
       </c>
       <c r="C109">
-        <v>8.166620862919138E-05</v>
+        <v>-0.01726752405714396</v>
       </c>
       <c r="D109">
-        <v>-3.131176711461875</v>
+        <v>-3.15016560136139</v>
       </c>
       <c r="E109">
-        <v>3.131340043879134</v>
+        <v>3.115630553247103</v>
       </c>
       <c r="F109">
-        <v>-2.684004378981353</v>
+        <v>-0.2379428229795089</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="1">
-        <v>2682</v>
+        <v>2692</v>
       </c>
       <c r="B110">
-        <v>2681</v>
+        <v>2691</v>
       </c>
       <c r="C110">
-        <v>-0.02201130148336033</v>
+        <v>-0.004282773154685615</v>
       </c>
       <c r="D110">
-        <v>-3.154333285147092</v>
+        <v>-3.136609807569567</v>
       </c>
       <c r="E110">
-        <v>3.110310682180371</v>
+        <v>3.128044261260196</v>
       </c>
       <c r="F110">
-        <v>2.170683489013481</v>
+        <v>2.693826453850168</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="1">
-        <v>2683</v>
+        <v>2693</v>
       </c>
       <c r="B111">
-        <v>2682</v>
+        <v>2692</v>
       </c>
       <c r="C111">
-        <v>0.01320403250736157</v>
+        <v>0.02075930102463269</v>
       </c>
       <c r="D111">
-        <v>-3.11963217749949</v>
+        <v>-3.112643620962989</v>
       </c>
       <c r="E111">
-        <v>3.146040242514213</v>
+        <v>3.154162223012254</v>
       </c>
       <c r="F111">
-        <v>-0.5159694749143462</v>
+        <v>-1.184295198340379</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="1">
-        <v>2684</v>
+        <v>2694</v>
       </c>
       <c r="B112">
-        <v>2683</v>
+        <v>2693</v>
       </c>
       <c r="C112">
-        <v>-0.001900905276541645</v>
+        <v>-0.006275169939220615</v>
       </c>
       <c r="D112">
-        <v>-3.134217256050377</v>
+        <v>-3.139426599834077</v>
       </c>
       <c r="E112">
-        <v>3.130415445497293</v>
+        <v>3.126876259955636</v>
       </c>
       <c r="F112">
-        <v>0.4982216711584719</v>
+        <v>-0.542987759436997</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="1">
-        <v>2685</v>
+        <v>2695</v>
       </c>
       <c r="B113">
-        <v>2684</v>
+        <v>2694</v>
       </c>
       <c r="C113">
-        <v>0.003309324964077889</v>
+        <v>-0.004888902896374975</v>
       </c>
       <c r="D113">
-        <v>-3.128480638247313</v>
+        <v>-3.137524258757774</v>
       </c>
       <c r="E113">
-        <v>3.13509928817547</v>
+        <v>3.127746452965025</v>
       </c>
       <c r="F113">
-        <v>0.9363198870481426</v>
+        <v>1.709443335930061</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="1">
-        <v>2686</v>
+        <v>2696</v>
       </c>
       <c r="B114">
-        <v>2685</v>
+        <v>2695</v>
       </c>
       <c r="C114">
-        <v>0.007250225383220399</v>
+        <v>0.01196470383308065</v>
       </c>
       <c r="D114">
-        <v>-3.124155349181716</v>
+        <v>-3.12075805838495</v>
       </c>
       <c r="E114">
-        <v>3.138655799948157</v>
+        <v>3.144687466051111</v>
       </c>
       <c r="F114">
-        <v>0.5785937067043889</v>
+        <v>-0.2858676236562552</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="1">
-        <v>2687</v>
+        <v>2697</v>
       </c>
       <c r="B115">
-        <v>2686</v>
+        <v>2696</v>
       </c>
       <c r="C115">
-        <v>0.005272031549717074</v>
+        <v>-0.0005668125757750872</v>
       </c>
       <c r="D115">
-        <v>-3.125625134241694</v>
+        <v>-3.132728706002623</v>
       </c>
       <c r="E115">
-        <v>3.136169197341129</v>
+        <v>3.131595080851073</v>
       </c>
       <c r="F115">
-        <v>0.662138679827784</v>
+        <v>1.368302112076414</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="1">
-        <v>2688</v>
+        <v>2698</v>
       </c>
       <c r="B116">
-        <v>2687</v>
+        <v>2697</v>
       </c>
       <c r="C116">
-        <v>0.00564813573218606</v>
+        <v>0.009869722775318251</v>
       </c>
       <c r="D116">
-        <v>-3.124764925039268</v>
+        <v>-3.122137635603632</v>
       </c>
       <c r="E116">
-        <v>3.136061196503641</v>
+        <v>3.141877081154269</v>
       </c>
       <c r="F116">
-        <v>0.4678168455655829</v>
+        <v>-2.339183524772448</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="1">
-        <v>2689</v>
+        <v>2699</v>
       </c>
       <c r="B117">
-        <v>2688</v>
+        <v>2698</v>
       </c>
       <c r="C117">
-        <v>0.004279481171686736</v>
+        <v>-0.01469420805393523</v>
       </c>
       <c r="D117">
-        <v>-3.125599995163429</v>
+        <v>-3.147375028320801</v>
       </c>
       <c r="E117">
-        <v>3.134158957506803</v>
+        <v>3.11798661221293</v>
       </c>
       <c r="F117">
-        <v>-3.967025238314914</v>
+        <v>-0.5071555880255652</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="1">
-        <v>2690</v>
+        <v>2700</v>
       </c>
       <c r="B118">
-        <v>2689</v>
+        <v>2699</v>
       </c>
       <c r="C118">
-        <v>-0.02767143375932435</v>
+        <v>-0.005491728600682533</v>
       </c>
       <c r="D118">
-        <v>-3.160566593073934</v>
+        <v>-3.137647196485231</v>
       </c>
       <c r="E118">
-        <v>3.105223725555285</v>
+        <v>3.126663739283866</v>
       </c>
       <c r="F118">
-        <v>-1.631949182860115</v>
+        <v>2.634324899105422</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="1">
-        <v>2691</v>
+        <v>2701</v>
       </c>
       <c r="B119">
-        <v>2690</v>
+        <v>2700</v>
       </c>
       <c r="C119">
-        <v>-0.01726752405714396</v>
+        <v>0.01694932907057989</v>
       </c>
       <c r="D119">
-        <v>-3.15016560136139</v>
+        <v>-3.116208349032803</v>
       </c>
       <c r="E119">
-        <v>3.115630553247103</v>
+        <v>3.150107007173963</v>
       </c>
       <c r="F119">
-        <v>-0.2379428229795089</v>
+        <v>-1.156287898383823</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="1">
-        <v>2692</v>
+        <v>2702</v>
       </c>
       <c r="B120">
-        <v>2691</v>
+        <v>2701</v>
       </c>
       <c r="C120">
-        <v>-0.004282773154685615</v>
+        <v>-0.005193580049466739</v>
       </c>
       <c r="D120">
-        <v>-3.136609807569567</v>
+        <v>-3.138083462239754</v>
       </c>
       <c r="E120">
-        <v>3.128044261260196</v>
+        <v>3.12769630214082</v>
       </c>
       <c r="F120">
-        <v>2.693826453850168</v>
+        <v>-4.164985544216027</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="1">
-        <v>2693</v>
+        <v>2703</v>
       </c>
       <c r="B121">
-        <v>2692</v>
+        <v>2702</v>
       </c>
       <c r="C121">
-        <v>0.02075930102463269</v>
+        <v>-0.0289310350601088</v>
       </c>
       <c r="D121">
-        <v>-3.112643620962989</v>
+        <v>-3.1651646931943</v>
       </c>
       <c r="E121">
-        <v>3.154162223012254</v>
+        <v>3.107302623074083</v>
       </c>
       <c r="F121">
-        <v>-1.184295198340379</v>
+        <v>0.9283393815197272</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="1">
-        <v>2694</v>
+        <v>2704</v>
       </c>
       <c r="B122">
-        <v>2693</v>
+        <v>2703</v>
       </c>
       <c r="C122">
-        <v>-0.006275169939220615</v>
+        <v>0.002742400539391204</v>
       </c>
       <c r="D122">
-        <v>-3.139426599834077</v>
+        <v>-3.133118190886697</v>
       </c>
       <c r="E122">
-        <v>3.126876259955636</v>
+        <v>3.138602991965479</v>
       </c>
       <c r="F122">
-        <v>-0.542987759436997</v>
+        <v>-0.891039865980936</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="1">
-        <v>2695</v>
+        <v>2705</v>
       </c>
       <c r="B123">
-        <v>2694</v>
+        <v>2704</v>
       </c>
       <c r="C123">
-        <v>-0.004888902896374975</v>
+        <v>-0.00515807260057026</v>
       </c>
       <c r="D123">
-        <v>-3.137524258757774</v>
+        <v>-3.140619872565433</v>
       </c>
       <c r="E123">
-        <v>3.127746452965025</v>
+        <v>3.130303727364293</v>
       </c>
       <c r="F123">
-        <v>1.709443335930061</v>
+        <v>-0.2987864034193599</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="1">
-        <v>2696</v>
+        <v>2706</v>
       </c>
       <c r="B124">
-        <v>2695</v>
+        <v>2705</v>
       </c>
       <c r="C124">
-        <v>0.01196470383308065</v>
+        <v>-0.002458616945554722</v>
       </c>
       <c r="D124">
-        <v>-3.12075805838495</v>
+        <v>-3.137360327705284</v>
       </c>
       <c r="E124">
-        <v>3.144687466051111</v>
+        <v>3.132443093814174</v>
       </c>
       <c r="F124">
-        <v>-0.2858676236562552</v>
+        <v>-3.889908917381568</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="1">
-        <v>2697</v>
+        <v>2707</v>
       </c>
       <c r="B125">
-        <v>2696</v>
+        <v>2706</v>
       </c>
       <c r="C125">
-        <v>-0.0005668125757750872</v>
+        <v>-0.02511460624150597</v>
       </c>
       <c r="D125">
-        <v>-3.132728706002623</v>
+        <v>-3.162857647211561</v>
       </c>
       <c r="E125">
-        <v>3.131595080851073</v>
+        <v>3.112628434728549</v>
       </c>
       <c r="F125">
-        <v>1.368302112076414</v>
+        <v>1.121434799815635</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="1">
-        <v>2698</v>
+        <v>2708</v>
       </c>
       <c r="B126">
-        <v>2697</v>
+        <v>2707</v>
       </c>
       <c r="C126">
-        <v>0.009869722775318251</v>
+        <v>0.003619779615356811</v>
       </c>
       <c r="D126">
-        <v>-3.122137635603632</v>
+        <v>-3.133840334127919</v>
       </c>
       <c r="E126">
-        <v>3.141877081154269</v>
+        <v>3.141079893358632</v>
       </c>
       <c r="F126">
-        <v>-2.339183524772448</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
-      <c r="A127" s="1">
-        <v>2699</v>
-      </c>
-      <c r="B127">
-        <v>2698</v>
-      </c>
-      <c r="C127">
-        <v>-0.01469420805393523</v>
-      </c>
-      <c r="D127">
-        <v>-3.147375028320801</v>
-      </c>
-      <c r="E127">
-        <v>3.11798661221293</v>
-      </c>
-      <c r="F127">
-        <v>-0.5071555880255652</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6">
-      <c r="A128" s="1">
-        <v>2700</v>
-      </c>
-      <c r="B128">
-        <v>2699</v>
-      </c>
-      <c r="C128">
-        <v>-0.005491728600682533</v>
-      </c>
-      <c r="D128">
-        <v>-3.137647196485231</v>
-      </c>
-      <c r="E128">
-        <v>3.126663739283866</v>
-      </c>
-      <c r="F128">
-        <v>2.634324899105422</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
-      <c r="A129" s="1">
-        <v>2701</v>
-      </c>
-      <c r="B129">
-        <v>2700</v>
-      </c>
-      <c r="C129">
-        <v>0.01694932907057989</v>
-      </c>
-      <c r="D129">
-        <v>-3.116208349032803</v>
-      </c>
-      <c r="E129">
-        <v>3.150107007173963</v>
-      </c>
-      <c r="F129">
-        <v>-1.156287898383823</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
-      <c r="A130" s="1">
-        <v>2702</v>
-      </c>
-      <c r="B130">
-        <v>2701</v>
-      </c>
-      <c r="C130">
-        <v>-0.005193580049466739</v>
-      </c>
-      <c r="D130">
-        <v>-3.138083462239754</v>
-      </c>
-      <c r="E130">
-        <v>3.12769630214082</v>
-      </c>
-      <c r="F130">
-        <v>-4.164985544216027</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6">
-      <c r="A131" s="1">
-        <v>2703</v>
-      </c>
-      <c r="B131">
-        <v>2702</v>
-      </c>
-      <c r="C131">
-        <v>-0.0289310350601088</v>
-      </c>
-      <c r="D131">
-        <v>-3.1651646931943</v>
-      </c>
-      <c r="E131">
-        <v>3.107302623074083</v>
-      </c>
-      <c r="F131">
-        <v>0.9283393815197272</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6">
-      <c r="A132" s="1">
-        <v>2704</v>
-      </c>
-      <c r="B132">
-        <v>2703</v>
-      </c>
-      <c r="C132">
-        <v>0.002742400539391204</v>
-      </c>
-      <c r="D132">
-        <v>-3.133118190886697</v>
-      </c>
-      <c r="E132">
-        <v>3.138602991965479</v>
-      </c>
-      <c r="F132">
-        <v>-0.891039865980936</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6">
-      <c r="A133" s="1">
-        <v>2705</v>
-      </c>
-      <c r="B133">
-        <v>2704</v>
-      </c>
-      <c r="C133">
-        <v>-0.00515807260057026</v>
-      </c>
-      <c r="D133">
-        <v>-3.140619872565433</v>
-      </c>
-      <c r="E133">
-        <v>3.130303727364293</v>
-      </c>
-      <c r="F133">
-        <v>-0.2987864034193599</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6">
-      <c r="A134" s="1">
-        <v>2706</v>
-      </c>
-      <c r="B134">
-        <v>2705</v>
-      </c>
-      <c r="C134">
-        <v>-0.002458616945554722</v>
-      </c>
-      <c r="D134">
-        <v>-3.137360327705284</v>
-      </c>
-      <c r="E134">
-        <v>3.132443093814174</v>
-      </c>
-      <c r="F134">
-        <v>-3.889908917381568</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6">
-      <c r="A135" s="1">
-        <v>2707</v>
-      </c>
-      <c r="B135">
-        <v>2706</v>
-      </c>
-      <c r="C135">
-        <v>-0.02511460624150597</v>
-      </c>
-      <c r="D135">
-        <v>-3.162857647211561</v>
-      </c>
-      <c r="E135">
-        <v>3.112628434728549</v>
-      </c>
-      <c r="F135">
-        <v>1.121434799815635</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6">
-      <c r="A136" s="1">
-        <v>2708</v>
-      </c>
-      <c r="B136">
-        <v>2707</v>
-      </c>
-      <c r="C136">
-        <v>0.003619779615356811</v>
-      </c>
-      <c r="D136">
-        <v>-3.133840334127919</v>
-      </c>
-      <c r="E136">
-        <v>3.141079893358632</v>
-      </c>
-      <c r="F136">
         <v>0.7279725635147116</v>
       </c>
     </row>

--- a/Daily/Forecast/Stationaritiy/Percentage Return/toyota.xlsx
+++ b/Daily/Forecast/Stationaritiy/Percentage Return/toyota.xlsx
@@ -417,13 +417,13 @@
         <v>2583</v>
       </c>
       <c r="C2">
-        <v>-0.0003160635176729064</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>-3.120485955945912</v>
+        <v>-3.12024377348967</v>
       </c>
       <c r="E2">
-        <v>3.119853828910566</v>
+        <v>3.12024377348967</v>
       </c>
       <c r="F2">
         <v>-2.757889826064108</v>
@@ -437,13 +437,13 @@
         <v>2584</v>
       </c>
       <c r="C3">
-        <v>-0.01904936574368427</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>-3.140426570926785</v>
+        <v>-3.121451763732811</v>
       </c>
       <c r="E3">
-        <v>3.102327839439416</v>
+        <v>3.121451763732811</v>
       </c>
       <c r="F3">
         <v>-0.4002673789657685</v>
@@ -457,13 +457,13 @@
         <v>2585</v>
       </c>
       <c r="C4">
-        <v>-0.004965963044035092</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>-3.125773927297594</v>
+        <v>-3.120886088700769</v>
       </c>
       <c r="E4">
-        <v>3.115842001209524</v>
+        <v>3.120886088700769</v>
       </c>
       <c r="F4">
         <v>-1.142869582362227</v>
@@ -477,13 +477,13 @@
         <v>2586</v>
       </c>
       <c r="C5">
-        <v>-0.008752408664834038</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>-3.129265212349744</v>
+        <v>-3.120593518419836</v>
       </c>
       <c r="E5">
-        <v>3.111760395020076</v>
+        <v>3.120593518419836</v>
       </c>
       <c r="F5">
         <v>0.9867763407233276</v>
@@ -497,13 +497,13 @@
         <v>2587</v>
       </c>
       <c r="C6">
-        <v>0.005921821224190701</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>-3.114223567228524</v>
+        <v>-3.120222045150726</v>
       </c>
       <c r="E6">
-        <v>3.126067209676905</v>
+        <v>3.120222045150726</v>
       </c>
       <c r="F6">
         <v>-1.846899343742336</v>
@@ -517,13 +517,13 @@
         <v>2588</v>
       </c>
       <c r="C7">
-        <v>-0.01176853218726848</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>-3.13212770656951</v>
+        <v>-3.120430582991897</v>
       </c>
       <c r="E7">
-        <v>3.108590642194973</v>
+        <v>3.120430582991897</v>
       </c>
       <c r="F7">
         <v>0.9727483105653079</v>
@@ -537,13 +537,13 @@
         <v>2589</v>
       </c>
       <c r="C8">
-        <v>0.00494639853545692</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>-3.115040536654976</v>
+        <v>-3.120052903914313</v>
       </c>
       <c r="E8">
-        <v>3.12493333372589</v>
+        <v>3.120052903914313</v>
       </c>
       <c r="F8">
         <v>0.7178137595702516</v>
@@ -557,13 +557,13 @@
         <v>2590</v>
       </c>
       <c r="C9">
-        <v>0.005295871686577455</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>-3.114209429487441</v>
+        <v>-3.119573014216163</v>
       </c>
       <c r="E9">
-        <v>3.124801172860595</v>
+        <v>3.119573014216163</v>
       </c>
       <c r="F9">
         <v>2.77734404271115</v>
@@ -577,13 +577,13 @@
         <v>2591</v>
       </c>
       <c r="C10">
-        <v>0.01979773379552452</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>-3.100931329849177</v>
+        <v>-3.120803839209428</v>
       </c>
       <c r="E10">
-        <v>3.140526797440225</v>
+        <v>3.120803839209428</v>
       </c>
       <c r="F10">
         <v>-0.1958438227965154</v>
@@ -597,13 +597,13 @@
         <v>2592</v>
       </c>
       <c r="C11">
-        <v>0.0009798525505766396</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>-3.119158189168665</v>
+        <v>-3.120210883491221</v>
       </c>
       <c r="E11">
-        <v>3.121117894269818</v>
+        <v>3.120210883491221</v>
       </c>
       <c r="F11">
         <v>0.5647278257767674</v>
@@ -617,13 +617,13 @@
         <v>2593</v>
       </c>
       <c r="C12">
-        <v>0.003966426291837702</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>-3.115645441163885</v>
+        <v>-3.119684892375215</v>
       </c>
       <c r="E12">
-        <v>3.12357829374756</v>
+        <v>3.119684892375215</v>
       </c>
       <c r="F12">
         <v>0.7337106717107744</v>
@@ -637,13 +637,13 @@
         <v>2594</v>
       </c>
       <c r="C13">
-        <v>0.005522804756670538</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>-3.113614120353636</v>
+        <v>-3.119211305886396</v>
       </c>
       <c r="E13">
-        <v>3.124659729866977</v>
+        <v>3.119211305886396</v>
       </c>
       <c r="F13">
         <v>0.536079336786166</v>
@@ -657,13 +657,13 @@
         <v>2595</v>
       </c>
       <c r="C14">
-        <v>0.004390553748861367</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>-3.114212140195309</v>
+        <v>-3.118678452145399</v>
       </c>
       <c r="E14">
-        <v>3.122993247693032</v>
+        <v>3.118678452145399</v>
       </c>
       <c r="F14">
         <v>0.1282325458896949</v>
@@ -677,13 +677,13 @@
         <v>2596</v>
       </c>
       <c r="C15">
-        <v>0.001423100342422512</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>-3.116582523829012</v>
+        <v>-3.118081626320358</v>
       </c>
       <c r="E15">
-        <v>3.119428724513857</v>
+        <v>3.118081626320358</v>
       </c>
       <c r="F15">
         <v>-0.5998304188618242</v>
@@ -697,13 +697,13 @@
         <v>2597</v>
       </c>
       <c r="C16">
-        <v>-0.003983431910163329</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>-3.121474439017518</v>
+        <v>-3.117566605339242</v>
       </c>
       <c r="E16">
-        <v>3.113507575197191</v>
+        <v>3.117566605339242</v>
       </c>
       <c r="F16">
         <v>-1.188817632231398</v>
@@ -717,13 +717,13 @@
         <v>2598</v>
       </c>
       <c r="C17">
-        <v>-0.008842567493430431</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>-3.126066478027568</v>
+        <v>-3.117301764802797</v>
       </c>
       <c r="E17">
-        <v>3.108381343040707</v>
+        <v>3.117301764802797</v>
       </c>
       <c r="F17">
         <v>-1.73268947136469</v>
@@ -737,13 +737,13 @@
         <v>2599</v>
       </c>
       <c r="C18">
-        <v>-0.01384139055704908</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>-3.131169992375977</v>
+        <v>-3.117413819081025</v>
       </c>
       <c r="E18">
-        <v>3.103487211261879</v>
+        <v>3.117413819081025</v>
       </c>
       <c r="F18">
         <v>-2.191991140888483</v>
@@ -757,13 +757,13 @@
         <v>2600</v>
       </c>
       <c r="C19">
-        <v>-0.01930603190223656</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>-3.137158950917028</v>
+        <v>-3.117952924217512</v>
       </c>
       <c r="E19">
-        <v>3.098546887112555</v>
+        <v>3.117952924217512</v>
       </c>
       <c r="F19">
         <v>-0.5897045893879849</v>
@@ -777,13 +777,13 @@
         <v>2601</v>
       </c>
       <c r="C20">
-        <v>-0.00726517616283337</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>-3.12459573904395</v>
+        <v>-3.117435870268946</v>
       </c>
       <c r="E20">
-        <v>3.110065386718283</v>
+        <v>3.117435870268946</v>
       </c>
       <c r="F20">
         <v>0.6123162344814581</v>
@@ -797,13 +797,13 @@
         <v>2602</v>
       </c>
       <c r="C21">
-        <v>0.004083519486913281</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>-3.112738795280418</v>
+        <v>-3.116925565216239</v>
       </c>
       <c r="E21">
-        <v>3.120905834254244</v>
+        <v>3.116925565216239</v>
       </c>
       <c r="F21">
         <v>0.293487060193165</v>
@@ -817,13 +817,13 @@
         <v>2603</v>
       </c>
       <c r="C22">
-        <v>0.002874957560432954</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>-3.113368418781396</v>
+        <v>-3.116347185602917</v>
       </c>
       <c r="E22">
-        <v>3.119118333902262</v>
+        <v>3.116347185602917</v>
       </c>
       <c r="F22">
         <v>0.9869976938772673</v>
@@ -837,13 +837,13 @@
         <v>2604</v>
       </c>
       <c r="C23">
-        <v>0.00840364083287759</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>-3.107470613995574</v>
+        <v>-3.115979370112026</v>
       </c>
       <c r="E23">
-        <v>3.124277895661329</v>
+        <v>3.115979370112026</v>
       </c>
       <c r="F23">
         <v>2.251253760440974</v>
@@ -857,13 +857,13 @@
         <v>2605</v>
       </c>
       <c r="C24">
-        <v>0.02023849780464498</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>-3.096227889718754</v>
+        <v>-3.116580537991229</v>
       </c>
       <c r="E24">
-        <v>3.136704885328044</v>
+        <v>3.116580537991229</v>
       </c>
       <c r="F24">
         <v>-0.1747488430714483</v>
@@ -877,13 +877,13 @@
         <v>2606</v>
       </c>
       <c r="C25">
-        <v>0.0009593251180105393</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>-3.114918037074689</v>
+        <v>-3.115989741504759</v>
       </c>
       <c r="E25">
-        <v>3.11683668731071</v>
+        <v>3.115989741504759</v>
       </c>
       <c r="F25">
         <v>0.0218603126895367</v>
@@ -897,13 +897,13 @@
         <v>2607</v>
       </c>
       <c r="C26">
-        <v>0.000301081507128141</v>
+        <v>0</v>
       </c>
       <c r="D26">
-        <v>-3.114978730270432</v>
+        <v>-3.115392177380924</v>
       </c>
       <c r="E26">
-        <v>3.115580893284688</v>
+        <v>3.115392177380924</v>
       </c>
       <c r="F26">
         <v>1.583032082212554</v>
@@ -917,13 +917,13 @@
         <v>2608</v>
       </c>
       <c r="C27">
-        <v>0.01342082377627887</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>-3.101853995116497</v>
+        <v>-3.115387337033398</v>
       </c>
       <c r="E27">
-        <v>3.128695642669054</v>
+        <v>3.115387337033398</v>
       </c>
       <c r="F27">
         <v>0.8782320557839007</v>
@@ -937,13 +937,13 @@
         <v>2609</v>
       </c>
       <c r="C28">
-        <v>0.009281537891322036</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>-3.105572912289548</v>
+        <v>-3.114972532913249</v>
       </c>
       <c r="E28">
-        <v>3.124135988072193</v>
+        <v>3.114972532913249</v>
       </c>
       <c r="F28">
         <v>-0.9643276271804169</v>
@@ -957,13 +957,13 @@
         <v>2610</v>
       </c>
       <c r="C29">
-        <v>-0.007101163613415173</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <v>-3.121582727854495</v>
+        <v>-3.114595475387771</v>
       </c>
       <c r="E29">
-        <v>3.107380400627664</v>
+        <v>3.114595475387771</v>
       </c>
       <c r="F29">
         <v>-0.06462035766059415</v>
@@ -977,13 +977,13 @@
         <v>2611</v>
       </c>
       <c r="C30">
-        <v>-0.001403708769731339</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>-3.115289578741825</v>
+        <v>-3.113999967485141</v>
       </c>
       <c r="E30">
-        <v>3.112482161202363</v>
+        <v>3.113999967485141</v>
       </c>
       <c r="F30">
         <v>-0.453515516539138</v>
@@ -997,13 +997,13 @@
         <v>2612</v>
       </c>
       <c r="C31">
-        <v>-0.004031180050627567</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <v>-3.117369212780833</v>
+        <v>-3.113452395136416</v>
       </c>
       <c r="E31">
-        <v>3.109306852679577</v>
+        <v>3.113452395136416</v>
       </c>
       <c r="F31">
         <v>3.237079914202212</v>
@@ -1017,13 +1017,13 @@
         <v>2613</v>
       </c>
       <c r="C32">
-        <v>0.0263499780334136</v>
+        <v>0</v>
       </c>
       <c r="D32">
-        <v>-3.088871936909347</v>
+        <v>-3.115330110482742</v>
       </c>
       <c r="E32">
-        <v>3.141571892976174</v>
+        <v>3.115330110482742</v>
       </c>
       <c r="F32">
         <v>2.46312773215509</v>
@@ -1037,13 +1037,13 @@
         <v>2614</v>
       </c>
       <c r="C33">
-        <v>0.02678089603148581</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>-3.089243433325535</v>
+        <v>-3.116165127447594</v>
       </c>
       <c r="E33">
-        <v>3.142805225388507</v>
+        <v>3.116165127447594</v>
       </c>
       <c r="F33">
         <v>2.304063120996336</v>
@@ -1057,13 +1057,13 @@
         <v>2615</v>
       </c>
       <c r="C34">
-        <v>0.02764767539184271</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>-3.089002001356967</v>
+        <v>-3.116820583262414</v>
       </c>
       <c r="E34">
-        <v>3.144297352140653</v>
+        <v>3.116820583262414</v>
       </c>
       <c r="F34">
         <v>-3.870136751709463</v>
@@ -1077,13 +1077,13 @@
         <v>2616</v>
       </c>
       <c r="C35">
-        <v>-0.03189088757354303</v>
+        <v>0</v>
       </c>
       <c r="D35">
-        <v>-3.151518158262279</v>
+        <v>-3.119751942434194</v>
       </c>
       <c r="E35">
-        <v>3.087736383115193</v>
+        <v>3.119751942434194</v>
       </c>
       <c r="F35">
         <v>1.238405919972152</v>
@@ -1097,13 +1097,13 @@
         <v>2617</v>
       </c>
       <c r="C36">
-        <v>0.006746259132168198</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <v>-3.112664003147754</v>
+        <v>-3.119516693397407</v>
       </c>
       <c r="E36">
-        <v>3.126156521412091</v>
+        <v>3.119516693397407</v>
       </c>
       <c r="F36">
         <v>0.2663117419483108</v>
@@ -1117,13 +1117,13 @@
         <v>2618</v>
       </c>
       <c r="C37">
-        <v>0.002982301701750928</v>
+        <v>0</v>
       </c>
       <c r="D37">
-        <v>-3.115847952623648</v>
+        <v>-3.118937537602109</v>
       </c>
       <c r="E37">
-        <v>3.121812556027149</v>
+        <v>3.118937537602109</v>
       </c>
       <c r="F37">
         <v>-0.8423265006054947</v>
@@ -1137,13 +1137,13 @@
         <v>2619</v>
       </c>
       <c r="C38">
-        <v>-0.006561895884316632</v>
+        <v>0</v>
       </c>
       <c r="D38">
-        <v>-3.124964709707254</v>
+        <v>-3.118508904068671</v>
       </c>
       <c r="E38">
-        <v>3.111840917938621</v>
+        <v>3.118508904068671</v>
       </c>
       <c r="F38">
         <v>-1.162079896225343</v>
@@ -1157,13 +1157,13 @@
         <v>2620</v>
       </c>
       <c r="C39">
-        <v>-0.01045164545447222</v>
+        <v>0</v>
       </c>
       <c r="D39">
-        <v>-3.128573182661775</v>
+        <v>-3.118231228723074</v>
       </c>
       <c r="E39">
-        <v>3.107669891752831</v>
+        <v>3.118231228723074</v>
       </c>
       <c r="F39">
         <v>1.38876726789956</v>
@@ -1177,13 +1177,13 @@
         <v>2621</v>
       </c>
       <c r="C40">
-        <v>0.01006852085718399</v>
+        <v>0</v>
       </c>
       <c r="D40">
-        <v>-3.107918183493052</v>
+        <v>-3.118089649418525</v>
       </c>
       <c r="E40">
-        <v>3.128055225207421</v>
+        <v>3.118089649418525</v>
       </c>
       <c r="F40">
         <v>-0.8683122573461155</v>
@@ -1197,13 +1197,13 @@
         <v>2622</v>
       </c>
       <c r="C41">
-        <v>-0.005742020664370504</v>
+        <v>0</v>
       </c>
       <c r="D41">
-        <v>-3.123315388842109</v>
+        <v>-3.117672158489722</v>
       </c>
       <c r="E41">
-        <v>3.111831347513369</v>
+        <v>3.117672158489722</v>
       </c>
       <c r="F41">
         <v>0.4557704181316069</v>
@@ -1217,13 +1217,13 @@
         <v>2623</v>
       </c>
       <c r="C42">
-        <v>0.002919904164542686</v>
+        <v>0</v>
       </c>
       <c r="D42">
-        <v>-3.11410921047251</v>
+        <v>-3.117126607315034</v>
       </c>
       <c r="E42">
-        <v>3.119949018801595</v>
+        <v>3.117126607315034</v>
       </c>
       <c r="F42">
         <v>-2.025332826785498</v>
@@ -1237,13 +1237,13 @@
         <v>2624</v>
       </c>
       <c r="C43">
-        <v>-0.01535553432111422</v>
+        <v>0</v>
       </c>
       <c r="D43">
-        <v>-3.132756782634662</v>
+        <v>-3.117495909935109</v>
       </c>
       <c r="E43">
-        <v>3.102045713992434</v>
+        <v>3.117495909935109</v>
       </c>
       <c r="F43">
         <v>0.2738285018021536</v>
@@ -1257,13 +1257,13 @@
         <v>2625</v>
       </c>
       <c r="C44">
-        <v>0.0003050398974996302</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <v>-3.116521987627126</v>
+        <v>-3.116919647588702</v>
       </c>
       <c r="E44">
-        <v>3.117132067422125</v>
+        <v>3.116919647588702</v>
       </c>
       <c r="F44">
         <v>-1.184948270128139</v>
@@ -1277,13 +1277,13 @@
         <v>2626</v>
       </c>
       <c r="C45">
-        <v>-0.009045109476242458</v>
+        <v>0</v>
       </c>
       <c r="D45">
-        <v>-3.125608442016478</v>
+        <v>-3.116655667446437</v>
       </c>
       <c r="E45">
-        <v>3.107518223063994</v>
+        <v>3.116655667446437</v>
       </c>
       <c r="F45">
         <v>0.3187761704873004</v>
@@ -1297,13 +1297,13 @@
         <v>2627</v>
       </c>
       <c r="C46">
-        <v>0.001332878606328157</v>
+        <v>0</v>
       </c>
       <c r="D46">
-        <v>-3.114662427996331</v>
+        <v>-3.116086258620702</v>
       </c>
       <c r="E46">
-        <v>3.117328185208987</v>
+        <v>3.116086258620702</v>
       </c>
       <c r="F46">
         <v>2.514274492135282</v>
@@ -1317,13 +1317,13 @@
         <v>2628</v>
       </c>
       <c r="C47">
-        <v>0.01946602058363561</v>
+        <v>0</v>
       </c>
       <c r="D47">
-        <v>-3.097417401565718</v>
+        <v>-3.116976035158634</v>
       </c>
       <c r="E47">
-        <v>3.136349442732989</v>
+        <v>3.116976035158634</v>
       </c>
       <c r="F47">
         <v>-0.2486017439461641</v>
@@ -1337,13 +1337,13 @@
         <v>2629</v>
       </c>
       <c r="C48">
-        <v>0.0003771059960111893</v>
+        <v>0</v>
       </c>
       <c r="D48">
-        <v>-3.115930302420478</v>
+        <v>-3.116397661700394</v>
       </c>
       <c r="E48">
-        <v>3.116684514412501</v>
+        <v>3.116397661700394</v>
       </c>
       <c r="F48">
         <v>-0.4365457509639903</v>
@@ -1357,13 +1357,13 @@
         <v>2630</v>
       </c>
       <c r="C49">
-        <v>-0.003266016482174117</v>
+        <v>0</v>
       </c>
       <c r="D49">
-        <v>-3.119025615788131</v>
+        <v>-3.115849803980543</v>
       </c>
       <c r="E49">
-        <v>3.112493582823782</v>
+        <v>3.115849803980543</v>
       </c>
       <c r="F49">
         <v>-0.2085506491021683</v>
@@ -1377,13 +1377,13 @@
         <v>2631</v>
       </c>
       <c r="C50">
-        <v>-0.001962669734409152</v>
+        <v>0</v>
       </c>
       <c r="D50">
-        <v>-3.117139961298444</v>
+        <v>-3.115267798681176</v>
       </c>
       <c r="E50">
-        <v>3.113214621829626</v>
+        <v>3.115267798681176</v>
       </c>
       <c r="F50">
         <v>1.717935243854551</v>
@@ -1397,13 +1397,13 @@
         <v>2632</v>
       </c>
       <c r="C51">
-        <v>0.01269944866260217</v>
+        <v>0</v>
       </c>
       <c r="D51">
-        <v>-3.10257899513932</v>
+        <v>-3.115367367144554</v>
       </c>
       <c r="E51">
-        <v>3.127977892464525</v>
+        <v>3.115367367144554</v>
       </c>
       <c r="F51">
         <v>-0.2054232439720138</v>
@@ -1417,13 +1417,13 @@
         <v>2633</v>
       </c>
       <c r="C52">
-        <v>-7.539616779061661E-05</v>
+        <v>0</v>
       </c>
       <c r="D52">
-        <v>-3.114773342295539</v>
+        <v>-3.114785593949541</v>
       </c>
       <c r="E52">
-        <v>3.114622549959959</v>
+        <v>3.114785593949541</v>
       </c>
       <c r="F52">
         <v>1.02292217648623</v>
@@ -1437,13 +1437,13 @@
         <v>2634</v>
       </c>
       <c r="C53">
-        <v>0.007625463458059312</v>
+        <v>0</v>
       </c>
       <c r="D53">
-        <v>-3.106726294968483</v>
+        <v>-3.114439285324587</v>
       </c>
       <c r="E53">
-        <v>3.121977221884602</v>
+        <v>3.114439285324587</v>
       </c>
       <c r="F53">
         <v>2.353523092513665</v>
@@ -1457,13 +1457,13 @@
         <v>2635</v>
       </c>
       <c r="C54">
-        <v>0.01934020619811355</v>
+        <v>0</v>
       </c>
       <c r="D54">
-        <v>-3.095708433822678</v>
+        <v>-3.115144688644587</v>
       </c>
       <c r="E54">
-        <v>3.134388846218905</v>
+        <v>3.115144688644587</v>
       </c>
       <c r="F54">
         <v>0.1787665586813425</v>
@@ -1477,13 +1477,13 @@
         <v>2636</v>
       </c>
       <c r="C55">
-        <v>0.003697991233850024</v>
+        <v>0</v>
       </c>
       <c r="D55">
-        <v>-3.110765674351326</v>
+        <v>-3.114561224541231</v>
       </c>
       <c r="E55">
-        <v>3.118161656819026</v>
+        <v>3.114561224541231</v>
       </c>
       <c r="F55">
         <v>3.048897485272928</v>
@@ -1497,13 +1497,13 @@
         <v>2637</v>
       </c>
       <c r="C56">
-        <v>0.025091957423091</v>
+        <v>0</v>
       </c>
       <c r="D56">
-        <v>-3.090949682272855</v>
+        <v>-3.116144278381876</v>
       </c>
       <c r="E56">
-        <v>3.141133597119037</v>
+        <v>3.116144278381876</v>
       </c>
       <c r="F56">
         <v>-0.3277743221844709</v>
@@ -1517,13 +1517,13 @@
         <v>2638</v>
       </c>
       <c r="C57">
-        <v>0.0005295522991827159</v>
+        <v>0</v>
       </c>
       <c r="D57">
-        <v>-3.114950476678724</v>
+        <v>-3.115578704582748</v>
       </c>
       <c r="E57">
-        <v>3.116009581277089</v>
+        <v>3.115578704582748</v>
       </c>
       <c r="F57">
         <v>2.36652265374877</v>
@@ -1537,13 +1537,13 @@
         <v>2639</v>
       </c>
       <c r="C58">
-        <v>0.01881710999295455</v>
+        <v>0</v>
       </c>
       <c r="D58">
-        <v>-3.097380527372008</v>
+        <v>-3.116296680822823</v>
       </c>
       <c r="E58">
-        <v>3.135014747357917</v>
+        <v>3.116296680822823</v>
       </c>
       <c r="F58">
         <v>-0.5295019935738665</v>
@@ -1557,13 +1557,13 @@
         <v>2640</v>
       </c>
       <c r="C59">
-        <v>-0.001578469271426353</v>
+        <v>0</v>
       </c>
       <c r="D59">
-        <v>-3.11725600853797</v>
+        <v>-3.115771888722157</v>
       </c>
       <c r="E59">
-        <v>3.114099069995117</v>
+        <v>3.115771888722157</v>
       </c>
       <c r="F59">
         <v>-1.297728135872145</v>
@@ -1577,13 +1577,13 @@
         <v>2641</v>
       </c>
       <c r="C60">
-        <v>-0.01029653818284434</v>
+        <v>0</v>
       </c>
       <c r="D60">
-        <v>-3.125776222757863</v>
+        <v>-3.115575108941371</v>
       </c>
       <c r="E60">
-        <v>3.105183146392174</v>
+        <v>3.115575108941371</v>
       </c>
       <c r="F60">
         <v>-0.3078109394576423</v>
@@ -1597,13 +1597,13 @@
         <v>2642</v>
       </c>
       <c r="C61">
-        <v>-0.00377987483286079</v>
+        <v>0</v>
       </c>
       <c r="D61">
-        <v>-3.118690548256743</v>
+        <v>-3.115007542400783</v>
       </c>
       <c r="E61">
-        <v>3.111130798591021</v>
+        <v>3.115007542400783</v>
       </c>
       <c r="F61">
         <v>2.361115015982485</v>
@@ -1617,13 +1617,13 @@
         <v>2643</v>
       </c>
       <c r="C62">
-        <v>0.01762071880686145</v>
+        <v>0</v>
       </c>
       <c r="D62">
-        <v>-3.098005279338943</v>
+        <v>-3.115718816466689</v>
       </c>
       <c r="E62">
-        <v>3.133246716952666</v>
+        <v>3.115718816466689</v>
       </c>
       <c r="F62">
         <v>1.882803311533188</v>
@@ -1637,13 +1637,13 @@
         <v>2644</v>
       </c>
       <c r="C63">
-        <v>0.01805319749364656</v>
+        <v>0</v>
       </c>
       <c r="D63">
-        <v>-3.097794078767312</v>
+        <v>-3.115956158022334</v>
       </c>
       <c r="E63">
-        <v>3.133900473754605</v>
+        <v>3.115956158022334</v>
       </c>
       <c r="F63">
         <v>1.484767446709423</v>
@@ -1657,13 +1657,13 @@
         <v>2645</v>
       </c>
       <c r="C64">
-        <v>0.01549321593715555</v>
+        <v>0</v>
       </c>
       <c r="D64">
-        <v>-3.100266203093833</v>
+        <v>-3.115880915177605</v>
       </c>
       <c r="E64">
-        <v>3.131252634968144</v>
+        <v>3.115880915177605</v>
       </c>
       <c r="F64">
         <v>2.639528406695479</v>
@@ -1677,13 +1677,13 @@
         <v>2646</v>
       </c>
       <c r="C65">
-        <v>0.0271789229630845</v>
+        <v>0</v>
       </c>
       <c r="D65">
-        <v>-3.0895952417143</v>
+        <v>-3.116915123225648</v>
       </c>
       <c r="E65">
-        <v>3.143953087640468</v>
+        <v>3.116915123225648</v>
       </c>
       <c r="F65">
         <v>2.052163572079735</v>
@@ -1697,13 +1697,13 @@
         <v>2647</v>
       </c>
       <c r="C66">
-        <v>0.02521813836594289</v>
+        <v>0</v>
       </c>
       <c r="D66">
-        <v>-3.09192093890979</v>
+        <v>-3.117306788798732</v>
       </c>
       <c r="E66">
-        <v>3.142357215641676</v>
+        <v>3.117306788798732</v>
       </c>
       <c r="F66">
         <v>-2.852808361453807</v>
@@ -1717,13 +1717,13 @@
         <v>2648</v>
       </c>
       <c r="C67">
-        <v>-0.02355036150504952</v>
+        <v>0</v>
       </c>
       <c r="D67">
-        <v>-3.142025909185205</v>
+        <v>-3.118611681633259</v>
       </c>
       <c r="E67">
-        <v>3.094925186175106</v>
+        <v>3.118611681633259</v>
       </c>
       <c r="F67">
         <v>-0.4834820054584021</v>
@@ -1737,13 +1737,13 @@
         <v>2649</v>
       </c>
       <c r="C68">
-        <v>-0.00764603748058118</v>
+        <v>0</v>
       </c>
       <c r="D68">
-        <v>-3.125582009322571</v>
+        <v>-3.118077346427004</v>
       </c>
       <c r="E68">
-        <v>3.110289934361409</v>
+        <v>3.118077346427004</v>
       </c>
       <c r="F68">
         <v>0.1076426368738836</v>
@@ -1757,13 +1757,13 @@
         <v>2650</v>
       </c>
       <c r="C69">
-        <v>4.350501902240268E-05</v>
+        <v>0</v>
       </c>
       <c r="D69">
-        <v>-3.117307201968253</v>
+        <v>-3.117491668448312</v>
       </c>
       <c r="E69">
-        <v>3.117394212006297</v>
+        <v>3.117491668448312</v>
       </c>
       <c r="F69">
         <v>-0.9729806488366854</v>
@@ -1777,13 +1777,13 @@
         <v>2651</v>
       </c>
       <c r="C70">
-        <v>-0.009177686849381861</v>
+        <v>0</v>
       </c>
       <c r="D70">
-        <v>-3.126160507315386</v>
+        <v>-3.117123689406481</v>
       </c>
       <c r="E70">
-        <v>3.107805133616622</v>
+        <v>3.117123689406481</v>
       </c>
       <c r="F70">
         <v>-1.642972334966419</v>
@@ -1797,13 +1797,13 @@
         <v>2652</v>
       </c>
       <c r="C71">
-        <v>-0.01709382183041089</v>
+        <v>0</v>
       </c>
       <c r="D71">
-        <v>-3.13410915145325</v>
+        <v>-3.117163209212959</v>
       </c>
       <c r="E71">
-        <v>3.099921507792428</v>
+        <v>3.117163209212959</v>
       </c>
       <c r="F71">
         <v>1.152908735066216</v>
@@ -1817,13 +1817,13 @@
         <v>2653</v>
       </c>
       <c r="C72">
-        <v>0.008686108998862963</v>
+        <v>0</v>
       </c>
       <c r="D72">
-        <v>-3.108059534197827</v>
+        <v>-3.116884445244779</v>
       </c>
       <c r="E72">
-        <v>3.125431752195553</v>
+        <v>3.116884445244779</v>
       </c>
       <c r="F72">
         <v>-1.540184461150673</v>
@@ -1837,13 +1837,13 @@
         <v>2654</v>
       </c>
       <c r="C73">
-        <v>-0.01296073455513574</v>
+        <v>0</v>
       </c>
       <c r="D73">
-        <v>-3.129676313439265</v>
+        <v>-3.116848055283393</v>
       </c>
       <c r="E73">
-        <v>3.103754844328993</v>
+        <v>3.116848055283393</v>
       </c>
       <c r="F73">
         <v>-1.058800640882929</v>
@@ -1857,13 +1857,13 @@
         <v>2655</v>
       </c>
       <c r="C74">
-        <v>-0.01165827232717873</v>
+        <v>0</v>
       </c>
       <c r="D74">
-        <v>-3.128040657544598</v>
+        <v>-3.116521274952043</v>
       </c>
       <c r="E74">
-        <v>3.10472411289024</v>
+        <v>3.116521274952043</v>
       </c>
       <c r="F74">
         <v>0.354180629358769</v>
@@ -1877,13 +1877,13 @@
         <v>2656</v>
       </c>
       <c r="C75">
-        <v>0.001775859219442476</v>
+        <v>0</v>
       </c>
       <c r="D75">
-        <v>-3.114050841083096</v>
+        <v>-3.115963639969078</v>
       </c>
       <c r="E75">
-        <v>3.117602559521981</v>
+        <v>3.115963639969078</v>
       </c>
       <c r="F75">
         <v>-3.099265442802412</v>
@@ -1897,13 +1897,13 @@
         <v>2657</v>
       </c>
       <c r="C76">
-        <v>-0.02829388466702154</v>
+        <v>0</v>
       </c>
       <c r="D76">
-        <v>-3.145765070205881</v>
+        <v>-3.117605354725937</v>
       </c>
       <c r="E76">
-        <v>3.089177300871838</v>
+        <v>3.117605354725937</v>
       </c>
       <c r="F76">
         <v>-5.018268798332404</v>
@@ -1917,13 +1917,13 @@
         <v>2658</v>
       </c>
       <c r="C77">
-        <v>-0.06208851934441173</v>
+        <v>0</v>
       </c>
       <c r="D77">
-        <v>-3.184732906184242</v>
+        <v>-3.122851808221927</v>
       </c>
       <c r="E77">
-        <v>3.060555867495419</v>
+        <v>3.122851808221927</v>
       </c>
       <c r="F77">
         <v>4.440788848943988</v>
@@ -1937,13 +1937,13 @@
         <v>2659</v>
       </c>
       <c r="C78">
-        <v>0.03006885410712667</v>
+        <v>0</v>
       </c>
       <c r="D78">
-        <v>-3.096655539687486</v>
+        <v>-3.126823821816268</v>
       </c>
       <c r="E78">
-        <v>3.156793247901739</v>
+        <v>3.126823821816268</v>
       </c>
       <c r="F78">
         <v>-0.6974069336073363</v>
@@ -1957,13 +1957,13 @@
         <v>2660</v>
       </c>
       <c r="C79">
-        <v>-0.001641017693237365</v>
+        <v>0</v>
       </c>
       <c r="D79">
-        <v>-3.127899722429486</v>
+        <v>-3.126348360067869</v>
       </c>
       <c r="E79">
-        <v>3.124617687043012</v>
+        <v>3.126348360067869</v>
       </c>
       <c r="F79">
         <v>2.020659533484448</v>
@@ -1977,13 +1977,13 @@
         <v>2661</v>
       </c>
       <c r="C80">
-        <v>0.01483146935326951</v>
+        <v>0</v>
       </c>
       <c r="D80">
-        <v>-3.111784229026756</v>
+        <v>-3.126703628793039</v>
       </c>
       <c r="E80">
-        <v>3.141447167733295</v>
+        <v>3.126703628793039</v>
       </c>
       <c r="F80">
         <v>1.004652559667107</v>
@@ -1997,13 +1997,13 @@
         <v>2662</v>
       </c>
       <c r="C81">
-        <v>0.009844374414175044</v>
+        <v>0</v>
       </c>
       <c r="D81">
-        <v>-3.116410006071429</v>
+        <v>-3.126349250675433</v>
       </c>
       <c r="E81">
-        <v>3.136098754899779</v>
+        <v>3.126349250675433</v>
       </c>
       <c r="F81">
         <v>3.302099309309003</v>
@@ -2017,13 +2017,13 @@
         <v>2663</v>
       </c>
       <c r="C82">
-        <v>0.02899687778028265</v>
+        <v>0</v>
       </c>
       <c r="D82">
-        <v>-3.099170285054268</v>
+        <v>-3.128277328981752</v>
       </c>
       <c r="E82">
-        <v>3.157164040614833</v>
+        <v>3.128277328981752</v>
       </c>
       <c r="F82">
         <v>-1.934652694619743</v>
@@ -2037,13 +2037,13 @@
         <v>2664</v>
       </c>
       <c r="C83">
-        <v>-0.01058807214675156</v>
+        <v>0</v>
       </c>
       <c r="D83">
-        <v>-3.139055238721428</v>
+        <v>-3.128552855673241</v>
       </c>
       <c r="E83">
-        <v>3.117879094427925</v>
+        <v>3.128552855673241</v>
       </c>
       <c r="F83">
         <v>-1.028527066017304</v>
@@ -2057,13 +2057,13 @@
         <v>2665</v>
       </c>
       <c r="C84">
-        <v>-0.009275805203228987</v>
+        <v>0</v>
       </c>
       <c r="D84">
-        <v>-3.137394437700994</v>
+        <v>-3.128209576063251</v>
       </c>
       <c r="E84">
-        <v>3.118842827294536</v>
+        <v>3.128209576063251</v>
       </c>
       <c r="F84">
         <v>0.7863736460214099</v>
@@ -2077,13 +2077,13 @@
         <v>2666</v>
       </c>
       <c r="C85">
-        <v>0.004608061298908214</v>
+        <v>0</v>
       </c>
       <c r="D85">
-        <v>-3.123069639111014</v>
+        <v>-3.127765282834738</v>
       </c>
       <c r="E85">
-        <v>3.13228576170883</v>
+        <v>3.127765282834738</v>
       </c>
       <c r="F85">
         <v>-0.448598883143525</v>
@@ -2097,13 +2097,13 @@
         <v>2667</v>
       </c>
       <c r="C86">
-        <v>-0.002690154355964834</v>
+        <v>0</v>
       </c>
       <c r="D86">
-        <v>-3.129828761900673</v>
+        <v>-3.127225191945574</v>
       </c>
       <c r="E86">
-        <v>3.124448453188744</v>
+        <v>3.127225191945574</v>
       </c>
       <c r="F86">
         <v>-0.9032805112124009</v>
@@ -2117,13 +2117,13 @@
         <v>2668</v>
       </c>
       <c r="C87">
-        <v>-0.007084254235209239</v>
+        <v>0</v>
       </c>
       <c r="D87">
-        <v>-3.133823494285202</v>
+        <v>-3.126826942458046</v>
       </c>
       <c r="E87">
-        <v>3.119654985814783</v>
+        <v>3.126826942458046</v>
       </c>
       <c r="F87">
         <v>-1.064244176225415</v>
@@ -2137,13 +2137,13 @@
         <v>2669</v>
       </c>
       <c r="C88">
-        <v>-0.009049843668407886</v>
+        <v>0</v>
       </c>
       <c r="D88">
-        <v>-3.13546052235278</v>
+        <v>-3.126501840801385</v>
       </c>
       <c r="E88">
-        <v>3.117360835015964</v>
+        <v>3.126501840801385</v>
       </c>
       <c r="F88">
         <v>-0.2678402213406983</v>
@@ -2157,13 +2157,13 @@
         <v>2670</v>
       </c>
       <c r="C89">
-        <v>-0.00327990077331923</v>
+        <v>0</v>
       </c>
       <c r="D89">
-        <v>-3.129120474682303</v>
+        <v>-3.12593280861668</v>
       </c>
       <c r="E89">
-        <v>3.122560673135665</v>
+        <v>3.12593280861668</v>
       </c>
       <c r="F89">
         <v>-0.4800777343356266</v>
@@ -2177,13 +2177,13 @@
         <v>2671</v>
       </c>
       <c r="C90">
-        <v>-0.004126073457887097</v>
+        <v>0</v>
       </c>
       <c r="D90">
-        <v>-3.129433782158524</v>
+        <v>-3.12540062326875</v>
       </c>
       <c r="E90">
-        <v>3.12118163524275</v>
+        <v>3.12540062326875</v>
       </c>
       <c r="F90">
         <v>1.622947316697942</v>
@@ -2197,13 +2197,13 @@
         <v>2672</v>
       </c>
       <c r="C91">
-        <v>0.01166998595022911</v>
+        <v>0</v>
       </c>
       <c r="D91">
-        <v>-3.113661761214389</v>
+        <v>-3.125421607572139</v>
       </c>
       <c r="E91">
-        <v>3.137001733114847</v>
+        <v>3.125421607572139</v>
       </c>
       <c r="F91">
         <v>-1.738509733256777</v>
@@ -2217,13 +2217,13 @@
         <v>2673</v>
       </c>
       <c r="C92">
-        <v>-0.0108553480368796</v>
+        <v>0</v>
       </c>
       <c r="D92">
-        <v>-3.136306582281374</v>
+        <v>-3.125531887998048</v>
       </c>
       <c r="E92">
-        <v>3.114595886207614</v>
+        <v>3.125531887998048</v>
       </c>
       <c r="F92">
         <v>1.681675403792848</v>
@@ -2237,13 +2237,13 @@
         <v>2674</v>
       </c>
       <c r="C93">
-        <v>0.009884887891685512</v>
+        <v>0</v>
       </c>
       <c r="D93">
-        <v>-3.1156401854217</v>
+        <v>-3.125597409070337</v>
       </c>
       <c r="E93">
-        <v>3.135409961205071</v>
+        <v>3.125597409070337</v>
       </c>
       <c r="F93">
         <v>-2.474946468965022</v>
@@ -2257,13 +2257,13 @@
         <v>2675</v>
       </c>
       <c r="C94">
-        <v>-0.01402084267641623</v>
+        <v>0</v>
       </c>
       <c r="D94">
-        <v>-3.140379767132602</v>
+        <v>-3.126420280553255</v>
       </c>
       <c r="E94">
-        <v>3.11233808177977</v>
+        <v>3.126420280553255</v>
       </c>
       <c r="F94">
         <v>0.6196766537510889</v>
@@ -2277,13 +2277,13 @@
         <v>2676</v>
       </c>
       <c r="C95">
-        <v>0.003128036480140196</v>
+        <v>0</v>
       </c>
       <c r="D95">
-        <v>-3.122756618363771</v>
+        <v>-3.125924243452752</v>
       </c>
       <c r="E95">
-        <v>3.129012691324051</v>
+        <v>3.125924243452752</v>
       </c>
       <c r="F95">
         <v>4.602849436670287</v>
@@ -2297,13 +2297,13 @@
         <v>2677</v>
       </c>
       <c r="C96">
-        <v>0.02891282797748163</v>
+        <v>0</v>
       </c>
       <c r="D96">
-        <v>-3.101226283414751</v>
+        <v>-3.130200521544324</v>
       </c>
       <c r="E96">
-        <v>3.159051939369715</v>
+        <v>3.130200521544324</v>
       </c>
       <c r="F96">
         <v>1.754430965090936</v>
@@ -2317,13 +2317,13 @@
         <v>2678</v>
       </c>
       <c r="C97">
-        <v>0.01755815119554402</v>
+        <v>0</v>
       </c>
       <c r="D97">
-        <v>-3.112676604645237</v>
+        <v>-3.130321387347821</v>
       </c>
       <c r="E97">
-        <v>3.147792907036325</v>
+        <v>3.130321387347821</v>
       </c>
       <c r="F97">
         <v>3.068381993860214</v>
@@ -2337,13 +2337,13 @@
         <v>2679</v>
       </c>
       <c r="C98">
-        <v>0.02881489203410553</v>
+        <v>0</v>
       </c>
       <c r="D98">
-        <v>-3.10296562984337</v>
+        <v>-3.131893209354876</v>
       </c>
       <c r="E98">
-        <v>3.160595413911581</v>
+        <v>3.131893209354876</v>
       </c>
       <c r="F98">
         <v>-0.4931323836187218</v>
@@ -2357,13 +2357,13 @@
         <v>2680</v>
       </c>
       <c r="C99">
-        <v>8.166620862919138E-05</v>
+        <v>0</v>
       </c>
       <c r="D99">
-        <v>-3.131176711461875</v>
+        <v>-3.13136450658736</v>
       </c>
       <c r="E99">
-        <v>3.131340043879134</v>
+        <v>3.13136450658736</v>
       </c>
       <c r="F99">
         <v>-2.684004378981353</v>
@@ -2377,13 +2377,13 @@
         <v>2681</v>
       </c>
       <c r="C100">
-        <v>-0.02201130148336033</v>
+        <v>0</v>
       </c>
       <c r="D100">
-        <v>-3.154333285147092</v>
+        <v>-3.132428565178997</v>
       </c>
       <c r="E100">
-        <v>3.110310682180371</v>
+        <v>3.132428565178997</v>
       </c>
       <c r="F100">
         <v>2.170683489013481</v>
@@ -2397,13 +2397,13 @@
         <v>2682</v>
       </c>
       <c r="C101">
-        <v>0.01320403250736157</v>
+        <v>0</v>
       </c>
       <c r="D101">
-        <v>-3.11963217749949</v>
+        <v>-3.132921850212032</v>
       </c>
       <c r="E101">
-        <v>3.146040242514213</v>
+        <v>3.132921850212032</v>
       </c>
       <c r="F101">
         <v>-0.5159694749143462</v>
@@ -2417,13 +2417,13 @@
         <v>2683</v>
       </c>
       <c r="C102">
-        <v>-0.001900905276541645</v>
+        <v>0</v>
       </c>
       <c r="D102">
-        <v>-3.134217256050377</v>
+        <v>-3.132398795662732</v>
       </c>
       <c r="E102">
-        <v>3.130415445497293</v>
+        <v>3.132398795662732</v>
       </c>
       <c r="F102">
         <v>0.4982216711584719</v>
@@ -2437,13 +2437,13 @@
         <v>2684</v>
       </c>
       <c r="C103">
-        <v>0.003309324964077889</v>
+        <v>0</v>
       </c>
       <c r="D103">
-        <v>-3.128480638247313</v>
+        <v>-3.131871930602989</v>
       </c>
       <c r="E103">
-        <v>3.13509928817547</v>
+        <v>3.131871930602989</v>
       </c>
       <c r="F103">
         <v>0.9363198870481426</v>
@@ -2457,13 +2457,13 @@
         <v>2685</v>
       </c>
       <c r="C104">
-        <v>0.007250225383220399</v>
+        <v>0</v>
       </c>
       <c r="D104">
-        <v>-3.124155349181716</v>
+        <v>-3.131488945345721</v>
       </c>
       <c r="E104">
-        <v>3.138655799948157</v>
+        <v>3.131488945345721</v>
       </c>
       <c r="F104">
         <v>0.5785937067043889</v>
@@ -2477,13 +2477,13 @@
         <v>2686</v>
       </c>
       <c r="C105">
-        <v>0.005272031549717074</v>
+        <v>0</v>
       </c>
       <c r="D105">
-        <v>-3.125625134241694</v>
+        <v>-3.130982425582236</v>
       </c>
       <c r="E105">
-        <v>3.136169197341129</v>
+        <v>3.130982425582236</v>
       </c>
       <c r="F105">
         <v>0.662138679827784</v>
@@ -2497,13 +2497,13 @@
         <v>2687</v>
       </c>
       <c r="C106">
-        <v>0.00564813573218606</v>
+        <v>0</v>
       </c>
       <c r="D106">
-        <v>-3.124764925039268</v>
+        <v>-3.130499871111619</v>
       </c>
       <c r="E106">
-        <v>3.136061196503641</v>
+        <v>3.130499871111619</v>
       </c>
       <c r="F106">
         <v>0.4678168455655829</v>
@@ -2517,13 +2517,13 @@
         <v>2688</v>
       </c>
       <c r="C107">
-        <v>0.004279481171686736</v>
+        <v>0</v>
       </c>
       <c r="D107">
-        <v>-3.125599995163429</v>
+        <v>-3.129967471969202</v>
       </c>
       <c r="E107">
-        <v>3.134158957506803</v>
+        <v>3.129967471969202</v>
       </c>
       <c r="F107">
         <v>-3.967025238314914</v>
@@ -2537,13 +2537,13 @@
         <v>2689</v>
       </c>
       <c r="C108">
-        <v>-0.02767143375932435</v>
+        <v>0</v>
       </c>
       <c r="D108">
-        <v>-3.160566593073934</v>
+        <v>-3.132975577898446</v>
       </c>
       <c r="E108">
-        <v>3.105223725555285</v>
+        <v>3.132975577898446</v>
       </c>
       <c r="F108">
         <v>-1.631949182860115</v>
@@ -2557,13 +2557,13 @@
         <v>2690</v>
       </c>
       <c r="C109">
-        <v>-0.01726752405714396</v>
+        <v>0</v>
       </c>
       <c r="D109">
-        <v>-3.15016560136139</v>
+        <v>-3.133000236739733</v>
       </c>
       <c r="E109">
-        <v>3.115630553247103</v>
+        <v>3.133000236739733</v>
       </c>
       <c r="F109">
         <v>-0.2379428229795089</v>
@@ -2577,13 +2577,13 @@
         <v>2691</v>
       </c>
       <c r="C110">
-        <v>-0.004282773154685615</v>
+        <v>0</v>
       </c>
       <c r="D110">
-        <v>-3.136609807569567</v>
+        <v>-3.132430958288606</v>
       </c>
       <c r="E110">
-        <v>3.128044261260196</v>
+        <v>3.132430958288606</v>
       </c>
       <c r="F110">
         <v>2.693826453850168</v>
@@ -2597,13 +2597,13 @@
         <v>2692</v>
       </c>
       <c r="C111">
-        <v>0.02075930102463269</v>
+        <v>0</v>
       </c>
       <c r="D111">
-        <v>-3.112643620962989</v>
+        <v>-3.133501940921955</v>
       </c>
       <c r="E111">
-        <v>3.154162223012254</v>
+        <v>3.133501940921955</v>
       </c>
       <c r="F111">
         <v>-1.184295198340379</v>
@@ -2617,13 +2617,13 @@
         <v>2693</v>
       </c>
       <c r="C112">
-        <v>-0.006275169939220615</v>
+        <v>0</v>
       </c>
       <c r="D112">
-        <v>-3.139426599834077</v>
+        <v>-3.133239397020778</v>
       </c>
       <c r="E112">
-        <v>3.126876259955636</v>
+        <v>3.133239397020778</v>
       </c>
       <c r="F112">
         <v>-0.542987759436997</v>
@@ -2637,13 +2637,13 @@
         <v>2694</v>
       </c>
       <c r="C113">
-        <v>-0.004888902896374975</v>
+        <v>0</v>
       </c>
       <c r="D113">
-        <v>-3.137524258757774</v>
+        <v>-3.132724925043555</v>
       </c>
       <c r="E113">
-        <v>3.127746452965025</v>
+        <v>3.132724925043555</v>
       </c>
       <c r="F113">
         <v>1.709443335930061</v>
@@ -2657,13 +2657,13 @@
         <v>2695</v>
       </c>
       <c r="C114">
-        <v>0.01196470383308065</v>
+        <v>0</v>
       </c>
       <c r="D114">
-        <v>-3.12075805838495</v>
+        <v>-3.132808543252488</v>
       </c>
       <c r="E114">
-        <v>3.144687466051111</v>
+        <v>3.132808543252488</v>
       </c>
       <c r="F114">
         <v>-0.2858676236562552</v>
@@ -2677,13 +2677,13 @@
         <v>2696</v>
       </c>
       <c r="C115">
-        <v>-0.0005668125757750872</v>
+        <v>0</v>
       </c>
       <c r="D115">
-        <v>-3.132728706002623</v>
+        <v>-3.132246067090954</v>
       </c>
       <c r="E115">
-        <v>3.131595080851073</v>
+        <v>3.132246067090954</v>
       </c>
       <c r="F115">
         <v>1.368302112076414</v>
@@ -2697,13 +2697,13 @@
         <v>2697</v>
       </c>
       <c r="C116">
-        <v>0.009869722775318251</v>
+        <v>0</v>
       </c>
       <c r="D116">
-        <v>-3.122137635603632</v>
+        <v>-3.132091078036683</v>
       </c>
       <c r="E116">
-        <v>3.141877081154269</v>
+        <v>3.132091078036683</v>
       </c>
       <c r="F116">
         <v>-2.339183524772448</v>
@@ -2717,13 +2717,13 @@
         <v>2698</v>
       </c>
       <c r="C117">
-        <v>-0.01469420805393523</v>
+        <v>0</v>
       </c>
       <c r="D117">
-        <v>-3.147375028320801</v>
+        <v>-3.132754314763869</v>
       </c>
       <c r="E117">
-        <v>3.11798661221293</v>
+        <v>3.132754314763869</v>
       </c>
       <c r="F117">
         <v>-0.5071555880255652</v>
@@ -2737,13 +2737,13 @@
         <v>2699</v>
       </c>
       <c r="C118">
-        <v>-0.005491728600682533</v>
+        <v>0</v>
       </c>
       <c r="D118">
-        <v>-3.137647196485231</v>
+        <v>-3.132232346574189</v>
       </c>
       <c r="E118">
-        <v>3.126663739283866</v>
+        <v>3.132232346574189</v>
       </c>
       <c r="F118">
         <v>2.634324899105422</v>
@@ -2757,13 +2757,13 @@
         <v>2700</v>
       </c>
       <c r="C119">
-        <v>0.01694932907057989</v>
+        <v>0</v>
       </c>
       <c r="D119">
-        <v>-3.116208349032803</v>
+        <v>-3.133228315306456</v>
       </c>
       <c r="E119">
-        <v>3.150107007173963</v>
+        <v>3.133228315306456</v>
       </c>
       <c r="F119">
         <v>-1.156287898383823</v>
@@ -2777,13 +2777,13 @@
         <v>2701</v>
       </c>
       <c r="C120">
-        <v>-0.005193580049466739</v>
+        <v>0</v>
       </c>
       <c r="D120">
-        <v>-3.138083462239754</v>
+        <v>-3.132951747678192</v>
       </c>
       <c r="E120">
-        <v>3.12769630214082</v>
+        <v>3.132951747678192</v>
       </c>
       <c r="F120">
         <v>-4.164985544216027</v>
@@ -2797,13 +2797,13 @@
         <v>2702</v>
       </c>
       <c r="C121">
-        <v>-0.0289310350601088</v>
+        <v>0</v>
       </c>
       <c r="D121">
-        <v>-3.1651646931943</v>
+        <v>-3.136306340890041</v>
       </c>
       <c r="E121">
-        <v>3.107302623074083</v>
+        <v>3.136306340890041</v>
       </c>
       <c r="F121">
         <v>0.9283393815197272</v>
@@ -2817,13 +2817,13 @@
         <v>2703</v>
       </c>
       <c r="C122">
-        <v>0.002742400539391204</v>
+        <v>0</v>
       </c>
       <c r="D122">
-        <v>-3.133118190886697</v>
+        <v>-3.135921432457538</v>
       </c>
       <c r="E122">
-        <v>3.138602991965479</v>
+        <v>3.135921432457538</v>
       </c>
       <c r="F122">
         <v>-0.891039865980936</v>
@@ -2837,13 +2837,13 @@
         <v>2704</v>
       </c>
       <c r="C123">
-        <v>-0.00515807260057026</v>
+        <v>0</v>
       </c>
       <c r="D123">
-        <v>-3.140619872565433</v>
+        <v>-3.135521387374984</v>
       </c>
       <c r="E123">
-        <v>3.130303727364293</v>
+        <v>3.135521387374984</v>
       </c>
       <c r="F123">
         <v>-0.2987864034193599</v>
@@ -2857,13 +2857,13 @@
         <v>2705</v>
       </c>
       <c r="C124">
-        <v>-0.002458616945554722</v>
+        <v>0</v>
       </c>
       <c r="D124">
-        <v>-3.137360327705284</v>
+        <v>-3.134961976126098</v>
       </c>
       <c r="E124">
-        <v>3.132443093814174</v>
+        <v>3.134961976126098</v>
       </c>
       <c r="F124">
         <v>-3.889908917381568</v>
@@ -2877,13 +2877,13 @@
         <v>2706</v>
       </c>
       <c r="C125">
-        <v>-0.02511460624150597</v>
+        <v>0</v>
       </c>
       <c r="D125">
-        <v>-3.162857647211561</v>
+        <v>-3.137807530582928</v>
       </c>
       <c r="E125">
-        <v>3.112628434728549</v>
+        <v>3.137807530582928</v>
       </c>
       <c r="F125">
         <v>1.121434799815635</v>
@@ -2897,13 +2897,13 @@
         <v>2707</v>
       </c>
       <c r="C126">
-        <v>0.003619779615356811</v>
+        <v>0</v>
       </c>
       <c r="D126">
-        <v>-3.133840334127919</v>
+        <v>-3.137512334693786</v>
       </c>
       <c r="E126">
-        <v>3.141079893358632</v>
+        <v>3.137512334693786</v>
       </c>
       <c r="F126">
         <v>0.7279725635147116</v>
